--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>DOYU</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>524300</v>
+        <v>1019400</v>
       </c>
       <c r="E8" s="3">
-        <v>270600</v>
+        <v>511500</v>
       </c>
       <c r="F8" s="3">
-        <v>112900</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>263900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>110100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,23 +735,26 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>502700</v>
+        <v>851900</v>
       </c>
       <c r="E9" s="3">
-        <v>271200</v>
+        <v>490300</v>
       </c>
       <c r="F9" s="3">
-        <v>165700</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>264600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>161700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -759,23 +765,26 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>21700</v>
+        <v>167400</v>
       </c>
       <c r="E10" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F10" s="3">
         <v>-700</v>
       </c>
-      <c r="F10" s="3">
-        <v>-52800</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+      <c r="G10" s="3">
+        <v>-51500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,22 +812,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>47300</v>
+        <v>53700</v>
       </c>
       <c r="E12" s="3">
-        <v>30400</v>
+        <v>46100</v>
       </c>
       <c r="F12" s="3">
-        <v>13400</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>29700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,23 +869,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-3300</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>-1000</v>
+        <v>-3200</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>-900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -880,9 +899,12 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +943,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>647600</v>
+        <v>1037800</v>
       </c>
       <c r="E17" s="3">
-        <v>359300</v>
+        <v>631700</v>
       </c>
       <c r="F17" s="3">
-        <v>224300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>350500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>218800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +970,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-123300</v>
+        <v>-18400</v>
       </c>
       <c r="E18" s="3">
-        <v>-88700</v>
+        <v>-120200</v>
       </c>
       <c r="F18" s="3">
-        <v>-111400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-86500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-108700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,23 +1017,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-118200</v>
+        <v>17700</v>
       </c>
       <c r="E21" s="3">
-        <v>-84000</v>
+        <v>-115300</v>
       </c>
       <c r="F21" s="3">
-        <v>-109700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-82000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-107000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,23 +1074,26 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1065,23 +1104,26 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-124700</v>
+        <v>5100</v>
       </c>
       <c r="E23" s="3">
-        <v>-87800</v>
+        <v>-121600</v>
       </c>
       <c r="F23" s="3">
-        <v>-112000</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-85600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-109300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,9 +1134,12 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1194,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-124700</v>
+        <v>5100</v>
       </c>
       <c r="E26" s="3">
-        <v>-87800</v>
+        <v>-121600</v>
       </c>
       <c r="F26" s="3">
-        <v>-112000</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-85600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-109300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1224,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-126700</v>
+        <v>5600</v>
       </c>
       <c r="E27" s="3">
-        <v>-87900</v>
+        <v>-123600</v>
       </c>
       <c r="F27" s="3">
-        <v>-153200</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-85800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-149500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,24 +1374,27 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,23 +1404,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-126700</v>
+        <v>5600</v>
       </c>
       <c r="E33" s="3">
-        <v>-87900</v>
+        <v>-123600</v>
       </c>
       <c r="F33" s="3">
-        <v>-153200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-85800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-149500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1464,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-126700</v>
+        <v>5600</v>
       </c>
       <c r="E35" s="3">
-        <v>-87900</v>
+        <v>-123600</v>
       </c>
       <c r="F35" s="3">
-        <v>-153200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-85800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-149500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1560,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>798100</v>
+        <v>1134200</v>
       </c>
       <c r="E41" s="3">
-        <v>77400</v>
+        <v>779600</v>
       </c>
       <c r="F41" s="3">
-        <v>74200</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>75600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>72400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>54900</v>
+        <v>55700</v>
       </c>
       <c r="E43" s="3">
-        <v>33300</v>
+        <v>53600</v>
       </c>
       <c r="F43" s="3">
-        <v>16800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>32500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>16400</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1647,12 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,23 +1677,26 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24700</v>
+        <v>15800</v>
       </c>
       <c r="E45" s="3">
-        <v>13100</v>
+        <v>24200</v>
       </c>
       <c r="F45" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1609,23 +1707,26 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>877700</v>
+        <v>1205600</v>
       </c>
       <c r="E46" s="3">
-        <v>123800</v>
+        <v>857400</v>
       </c>
       <c r="F46" s="3">
-        <v>97000</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>120900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>94700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,23 +1737,26 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19300</v>
+        <v>31600</v>
       </c>
       <c r="E47" s="3">
-        <v>13800</v>
+        <v>18800</v>
       </c>
       <c r="F47" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>13500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4100</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1663,23 +1767,26 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7200</v>
+        <v>5500</v>
       </c>
       <c r="E48" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="F48" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6900</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,24 +1797,27 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20700</v>
+        <v>32100</v>
       </c>
       <c r="E49" s="3">
-        <v>2400</v>
+        <v>20300</v>
       </c>
       <c r="F49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G49" s="3">
         <v>1600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,23 +1887,26 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7000</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>1800</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +1947,26 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>931900</v>
+        <v>1276000</v>
       </c>
       <c r="E54" s="3">
-        <v>148000</v>
+        <v>910300</v>
       </c>
       <c r="F54" s="3">
-        <v>111800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>144600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>109200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,22 +2008,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>114800</v>
+        <v>124700</v>
       </c>
       <c r="E57" s="3">
-        <v>64900</v>
+        <v>112200</v>
       </c>
       <c r="F57" s="3">
-        <v>48200</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>63400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>47100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1905,9 +2035,12 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1932,23 +2065,26 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>296100</v>
+        <v>126700</v>
       </c>
       <c r="E59" s="3">
-        <v>60200</v>
+        <v>289200</v>
       </c>
       <c r="F59" s="3">
-        <v>27000</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>58800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>26300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,23 +2095,26 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>410900</v>
+        <v>251500</v>
       </c>
       <c r="E60" s="3">
-        <v>125100</v>
+        <v>401400</v>
       </c>
       <c r="F60" s="3">
-        <v>75200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>122200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>73400</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,9 +2125,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,36 +2155,42 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+        <v>6500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2275,26 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>410900</v>
+        <v>260900</v>
       </c>
       <c r="E66" s="3">
-        <v>125100</v>
+        <v>401400</v>
       </c>
       <c r="F66" s="3">
-        <v>75200</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>122200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>73400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,23 +2379,26 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>953400</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>377300</v>
+        <v>931300</v>
       </c>
       <c r="F70" s="3">
-        <v>305500</v>
+        <v>368500</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>298500</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2439,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-486200</v>
+        <v>-469400</v>
       </c>
       <c r="E72" s="3">
-        <v>-360400</v>
+        <v>-474900</v>
       </c>
       <c r="F72" s="3">
-        <v>-272500</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-352100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-266200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2559,26 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-432400</v>
+        <v>1015000</v>
       </c>
       <c r="E76" s="3">
-        <v>-354400</v>
+        <v>-422400</v>
       </c>
       <c r="F76" s="3">
-        <v>-268900</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-346100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-262800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2654,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-126700</v>
+        <v>5600</v>
       </c>
       <c r="E81" s="3">
-        <v>-87900</v>
+        <v>-123600</v>
       </c>
       <c r="F81" s="3">
-        <v>-153200</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-85800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-149500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,23 +2701,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6500</v>
+        <v>12600</v>
       </c>
       <c r="E83" s="3">
-        <v>3700</v>
+        <v>6400</v>
       </c>
       <c r="F83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-48400</v>
+        <v>113800</v>
       </c>
       <c r="E89" s="3">
-        <v>-54700</v>
+        <v>-47200</v>
       </c>
       <c r="F89" s="3">
-        <v>-102500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-53300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-99900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2925,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4700</v>
+        <v>-2200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3400</v>
+        <v>-4600</v>
       </c>
       <c r="F91" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-3300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-6200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-38000</v>
+        <v>-34500</v>
       </c>
       <c r="E94" s="3">
-        <v>-13200</v>
+        <v>-37100</v>
       </c>
       <c r="F94" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-12900</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-12100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>757600</v>
+        <v>265400</v>
       </c>
       <c r="E100" s="3">
-        <v>71700</v>
+        <v>739000</v>
       </c>
       <c r="F100" s="3">
-        <v>186300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>70000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>181700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,24 +3206,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>49500</v>
+        <v>15300</v>
       </c>
       <c r="E101" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,23 +3236,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>720600</v>
+        <v>360100</v>
       </c>
       <c r="E102" s="3">
-        <v>3300</v>
+        <v>703000</v>
       </c>
       <c r="F102" s="3">
-        <v>71600</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>3200</v>
+      </c>
+      <c r="G102" s="3">
+        <v>69900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1019400</v>
+        <v>1057700</v>
       </c>
       <c r="E8" s="3">
-        <v>511500</v>
+        <v>530700</v>
       </c>
       <c r="F8" s="3">
-        <v>263900</v>
+        <v>273900</v>
       </c>
       <c r="G8" s="3">
-        <v>110100</v>
+        <v>114300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>851900</v>
+        <v>884000</v>
       </c>
       <c r="E9" s="3">
-        <v>490300</v>
+        <v>508800</v>
       </c>
       <c r="F9" s="3">
-        <v>264600</v>
+        <v>274500</v>
       </c>
       <c r="G9" s="3">
-        <v>161700</v>
+        <v>167800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>167400</v>
+        <v>173700</v>
       </c>
       <c r="E10" s="3">
-        <v>21100</v>
+        <v>21900</v>
       </c>
       <c r="F10" s="3">
         <v>-700</v>
       </c>
       <c r="G10" s="3">
-        <v>-51500</v>
+        <v>-53500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>53700</v>
+        <v>55800</v>
       </c>
       <c r="E12" s="3">
-        <v>46100</v>
+        <v>47800</v>
       </c>
       <c r="F12" s="3">
-        <v>29700</v>
+        <v>30800</v>
       </c>
       <c r="G12" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -882,10 +882,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="F14" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1037800</v>
+        <v>1076900</v>
       </c>
       <c r="E17" s="3">
-        <v>631700</v>
+        <v>655500</v>
       </c>
       <c r="F17" s="3">
-        <v>350500</v>
+        <v>363700</v>
       </c>
       <c r="G17" s="3">
-        <v>218800</v>
+        <v>227000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-18400</v>
+        <v>-19100</v>
       </c>
       <c r="E18" s="3">
-        <v>-120200</v>
+        <v>-124800</v>
       </c>
       <c r="F18" s="3">
-        <v>-86500</v>
+        <v>-89800</v>
       </c>
       <c r="G18" s="3">
-        <v>-108700</v>
+        <v>-112800</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="E20" s="3">
         <v>-1400</v>
       </c>
       <c r="F20" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="3">
         <v>700</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17700</v>
+        <v>18400</v>
       </c>
       <c r="E21" s="3">
-        <v>-115300</v>
+        <v>-119600</v>
       </c>
       <c r="F21" s="3">
-        <v>-82000</v>
+        <v>-85100</v>
       </c>
       <c r="G21" s="3">
-        <v>-107000</v>
+        <v>-111100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E23" s="3">
-        <v>-121600</v>
+        <v>-126200</v>
       </c>
       <c r="F23" s="3">
-        <v>-85600</v>
+        <v>-88800</v>
       </c>
       <c r="G23" s="3">
-        <v>-109300</v>
+        <v>-113400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E26" s="3">
-        <v>-121600</v>
+        <v>-126200</v>
       </c>
       <c r="F26" s="3">
-        <v>-85600</v>
+        <v>-88800</v>
       </c>
       <c r="G26" s="3">
-        <v>-109300</v>
+        <v>-113400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E27" s="3">
-        <v>-123600</v>
+        <v>-128200</v>
       </c>
       <c r="F27" s="3">
-        <v>-85800</v>
+        <v>-89000</v>
       </c>
       <c r="G27" s="3">
-        <v>-149500</v>
+        <v>-155100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23500</v>
+        <v>-24400</v>
       </c>
       <c r="E32" s="3">
         <v>1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G32" s="3">
         <v>-700</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E33" s="3">
-        <v>-123600</v>
+        <v>-128200</v>
       </c>
       <c r="F33" s="3">
-        <v>-85800</v>
+        <v>-89000</v>
       </c>
       <c r="G33" s="3">
-        <v>-149500</v>
+        <v>-155100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E35" s="3">
-        <v>-123600</v>
+        <v>-128200</v>
       </c>
       <c r="F35" s="3">
-        <v>-85800</v>
+        <v>-89000</v>
       </c>
       <c r="G35" s="3">
-        <v>-149500</v>
+        <v>-155100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1134200</v>
+        <v>1175200</v>
       </c>
       <c r="E41" s="3">
-        <v>779600</v>
+        <v>807800</v>
       </c>
       <c r="F41" s="3">
-        <v>75600</v>
+        <v>78400</v>
       </c>
       <c r="G41" s="3">
-        <v>72400</v>
+        <v>75100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>55700</v>
+        <v>57700</v>
       </c>
       <c r="E43" s="3">
-        <v>53600</v>
+        <v>55500</v>
       </c>
       <c r="F43" s="3">
-        <v>32500</v>
+        <v>33700</v>
       </c>
       <c r="G43" s="3">
-        <v>16400</v>
+        <v>17000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="E45" s="3">
-        <v>24200</v>
+        <v>25000</v>
       </c>
       <c r="F45" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="G45" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1205600</v>
+        <v>1249200</v>
       </c>
       <c r="E46" s="3">
-        <v>857400</v>
+        <v>888400</v>
       </c>
       <c r="F46" s="3">
-        <v>120900</v>
+        <v>125300</v>
       </c>
       <c r="G46" s="3">
-        <v>94700</v>
+        <v>98200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31600</v>
+        <v>32800</v>
       </c>
       <c r="E47" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="F47" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="G47" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="E48" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="F48" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="G48" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32100</v>
+        <v>33300</v>
       </c>
       <c r="E49" s="3">
-        <v>20300</v>
+        <v>21000</v>
       </c>
       <c r="F49" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G49" s="3">
         <v>1600</v>
@@ -1900,13 +1900,13 @@
         <v>1200</v>
       </c>
       <c r="E52" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1276000</v>
+        <v>1322100</v>
       </c>
       <c r="E54" s="3">
-        <v>910300</v>
+        <v>943200</v>
       </c>
       <c r="F54" s="3">
-        <v>144600</v>
+        <v>149800</v>
       </c>
       <c r="G54" s="3">
-        <v>109200</v>
+        <v>113100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>124700</v>
+        <v>129300</v>
       </c>
       <c r="E57" s="3">
-        <v>112200</v>
+        <v>116200</v>
       </c>
       <c r="F57" s="3">
-        <v>63400</v>
+        <v>65700</v>
       </c>
       <c r="G57" s="3">
-        <v>47100</v>
+        <v>48800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>126700</v>
+        <v>131300</v>
       </c>
       <c r="E59" s="3">
-        <v>289200</v>
+        <v>299700</v>
       </c>
       <c r="F59" s="3">
-        <v>58800</v>
+        <v>61000</v>
       </c>
       <c r="G59" s="3">
-        <v>26300</v>
+        <v>27300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>251500</v>
+        <v>260600</v>
       </c>
       <c r="E60" s="3">
-        <v>401400</v>
+        <v>415900</v>
       </c>
       <c r="F60" s="3">
-        <v>122200</v>
+        <v>126600</v>
       </c>
       <c r="G60" s="3">
-        <v>73400</v>
+        <v>76100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>260900</v>
+        <v>270400</v>
       </c>
       <c r="E66" s="3">
-        <v>401400</v>
+        <v>415900</v>
       </c>
       <c r="F66" s="3">
-        <v>122200</v>
+        <v>126600</v>
       </c>
       <c r="G66" s="3">
-        <v>73400</v>
+        <v>76100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>931300</v>
+        <v>965000</v>
       </c>
       <c r="F70" s="3">
-        <v>368500</v>
+        <v>381900</v>
       </c>
       <c r="G70" s="3">
-        <v>298500</v>
+        <v>309300</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-469400</v>
+        <v>-486300</v>
       </c>
       <c r="E72" s="3">
-        <v>-474900</v>
+        <v>-492100</v>
       </c>
       <c r="F72" s="3">
-        <v>-352100</v>
+        <v>-364800</v>
       </c>
       <c r="G72" s="3">
-        <v>-266200</v>
+        <v>-275800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1015000</v>
+        <v>1051700</v>
       </c>
       <c r="E76" s="3">
-        <v>-422400</v>
+        <v>-437700</v>
       </c>
       <c r="F76" s="3">
-        <v>-346100</v>
+        <v>-358700</v>
       </c>
       <c r="G76" s="3">
-        <v>-262800</v>
+        <v>-272300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E81" s="3">
-        <v>-123600</v>
+        <v>-128200</v>
       </c>
       <c r="F81" s="3">
-        <v>-85800</v>
+        <v>-89000</v>
       </c>
       <c r="G81" s="3">
-        <v>-149500</v>
+        <v>-155100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="E83" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="F83" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="G83" s="3">
         <v>1000</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>113800</v>
+        <v>118100</v>
       </c>
       <c r="E89" s="3">
-        <v>-47200</v>
+        <v>-49000</v>
       </c>
       <c r="F89" s="3">
-        <v>-53300</v>
+        <v>-55300</v>
       </c>
       <c r="G89" s="3">
-        <v>-99900</v>
+        <v>-103700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="E91" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="G91" s="3">
-        <v>-6200</v>
+        <v>-6500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34500</v>
+        <v>-35800</v>
       </c>
       <c r="E94" s="3">
-        <v>-37100</v>
+        <v>-38500</v>
       </c>
       <c r="F94" s="3">
-        <v>-12900</v>
+        <v>-13400</v>
       </c>
       <c r="G94" s="3">
-        <v>-12100</v>
+        <v>-12500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>265400</v>
+        <v>275400</v>
       </c>
       <c r="E100" s="3">
-        <v>739000</v>
+        <v>766800</v>
       </c>
       <c r="F100" s="3">
-        <v>70000</v>
+        <v>72600</v>
       </c>
       <c r="G100" s="3">
-        <v>181700</v>
+        <v>188500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="E101" s="3">
-        <v>48300</v>
+        <v>50100</v>
       </c>
       <c r="F101" s="3">
         <v>-600</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>360100</v>
+        <v>373600</v>
       </c>
       <c r="E102" s="3">
-        <v>703000</v>
+        <v>729400</v>
       </c>
       <c r="F102" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G102" s="3">
-        <v>69900</v>
+        <v>72500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1057700</v>
+        <v>1107900</v>
       </c>
       <c r="E8" s="3">
-        <v>530700</v>
+        <v>555900</v>
       </c>
       <c r="F8" s="3">
-        <v>273900</v>
+        <v>286900</v>
       </c>
       <c r="G8" s="3">
-        <v>114300</v>
+        <v>119700</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>884000</v>
+        <v>926000</v>
       </c>
       <c r="E9" s="3">
-        <v>508800</v>
+        <v>532900</v>
       </c>
       <c r="F9" s="3">
-        <v>274500</v>
+        <v>287600</v>
       </c>
       <c r="G9" s="3">
-        <v>167800</v>
+        <v>175700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>173700</v>
+        <v>182000</v>
       </c>
       <c r="E10" s="3">
-        <v>21900</v>
+        <v>23000</v>
       </c>
       <c r="F10" s="3">
         <v>-700</v>
       </c>
       <c r="G10" s="3">
-        <v>-53500</v>
+        <v>-56000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>55800</v>
+        <v>58400</v>
       </c>
       <c r="E12" s="3">
-        <v>47800</v>
+        <v>50100</v>
       </c>
       <c r="F12" s="3">
-        <v>30800</v>
+        <v>32300</v>
       </c>
       <c r="G12" s="3">
-        <v>13600</v>
+        <v>14200</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -882,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="F14" s="3">
         <v>-1000</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1076900</v>
+        <v>1128000</v>
       </c>
       <c r="E17" s="3">
-        <v>655500</v>
+        <v>686600</v>
       </c>
       <c r="F17" s="3">
-        <v>363700</v>
+        <v>380900</v>
       </c>
       <c r="G17" s="3">
-        <v>227000</v>
+        <v>237800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19100</v>
+        <v>-20000</v>
       </c>
       <c r="E18" s="3">
-        <v>-124800</v>
+        <v>-130700</v>
       </c>
       <c r="F18" s="3">
-        <v>-89800</v>
+        <v>-94100</v>
       </c>
       <c r="G18" s="3">
-        <v>-112800</v>
+        <v>-118100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24400</v>
+        <v>25600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F20" s="3">
         <v>1000</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18400</v>
+        <v>19300</v>
       </c>
       <c r="E21" s="3">
-        <v>-119600</v>
+        <v>-125300</v>
       </c>
       <c r="F21" s="3">
-        <v>-85100</v>
+        <v>-89100</v>
       </c>
       <c r="G21" s="3">
-        <v>-111100</v>
+        <v>-116300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="E23" s="3">
-        <v>-126200</v>
+        <v>-132200</v>
       </c>
       <c r="F23" s="3">
-        <v>-88800</v>
+        <v>-93100</v>
       </c>
       <c r="G23" s="3">
-        <v>-113400</v>
+        <v>-118800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="E26" s="3">
-        <v>-126200</v>
+        <v>-132200</v>
       </c>
       <c r="F26" s="3">
-        <v>-88800</v>
+        <v>-93100</v>
       </c>
       <c r="G26" s="3">
-        <v>-113400</v>
+        <v>-118800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="E27" s="3">
-        <v>-128200</v>
+        <v>-134300</v>
       </c>
       <c r="F27" s="3">
-        <v>-89000</v>
+        <v>-93200</v>
       </c>
       <c r="G27" s="3">
-        <v>-155100</v>
+        <v>-162400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,10 +1384,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24400</v>
+        <v>-25600</v>
       </c>
       <c r="E32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F32" s="3">
         <v>-1000</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="E33" s="3">
-        <v>-128200</v>
+        <v>-134300</v>
       </c>
       <c r="F33" s="3">
-        <v>-89000</v>
+        <v>-93200</v>
       </c>
       <c r="G33" s="3">
-        <v>-155100</v>
+        <v>-162400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="E35" s="3">
-        <v>-128200</v>
+        <v>-134300</v>
       </c>
       <c r="F35" s="3">
-        <v>-89000</v>
+        <v>-93200</v>
       </c>
       <c r="G35" s="3">
-        <v>-155100</v>
+        <v>-162400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1175200</v>
+        <v>1231000</v>
       </c>
       <c r="E41" s="3">
-        <v>807800</v>
+        <v>846100</v>
       </c>
       <c r="F41" s="3">
-        <v>78400</v>
+        <v>82100</v>
       </c>
       <c r="G41" s="3">
-        <v>75100</v>
+        <v>78600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>57700</v>
+        <v>60400</v>
       </c>
       <c r="E43" s="3">
-        <v>55500</v>
+        <v>58200</v>
       </c>
       <c r="F43" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="G43" s="3">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,16 +1687,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16300</v>
+        <v>17100</v>
       </c>
       <c r="E45" s="3">
-        <v>25000</v>
+        <v>26200</v>
       </c>
       <c r="F45" s="3">
-        <v>13200</v>
+        <v>13900</v>
       </c>
       <c r="G45" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1249200</v>
+        <v>1308500</v>
       </c>
       <c r="E46" s="3">
-        <v>888400</v>
+        <v>930500</v>
       </c>
       <c r="F46" s="3">
-        <v>125300</v>
+        <v>131300</v>
       </c>
       <c r="G46" s="3">
-        <v>98200</v>
+        <v>102800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32800</v>
+        <v>34300</v>
       </c>
       <c r="E47" s="3">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="F47" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="G47" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1777,16 +1777,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="E48" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="F48" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="G48" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1807,16 +1807,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33300</v>
+        <v>34800</v>
       </c>
       <c r="E49" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="F49" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G49" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1897,16 +1897,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1322100</v>
+        <v>1384900</v>
       </c>
       <c r="E54" s="3">
-        <v>943200</v>
+        <v>988000</v>
       </c>
       <c r="F54" s="3">
-        <v>149800</v>
+        <v>156900</v>
       </c>
       <c r="G54" s="3">
-        <v>113100</v>
+        <v>118500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>129300</v>
+        <v>135400</v>
       </c>
       <c r="E57" s="3">
-        <v>116200</v>
+        <v>121800</v>
       </c>
       <c r="F57" s="3">
-        <v>65700</v>
+        <v>68800</v>
       </c>
       <c r="G57" s="3">
-        <v>48800</v>
+        <v>51100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>131300</v>
+        <v>137500</v>
       </c>
       <c r="E59" s="3">
-        <v>299700</v>
+        <v>313900</v>
       </c>
       <c r="F59" s="3">
-        <v>61000</v>
+        <v>63900</v>
       </c>
       <c r="G59" s="3">
-        <v>27300</v>
+        <v>28600</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>260600</v>
+        <v>272900</v>
       </c>
       <c r="E60" s="3">
-        <v>415900</v>
+        <v>435700</v>
       </c>
       <c r="F60" s="3">
-        <v>126600</v>
+        <v>132600</v>
       </c>
       <c r="G60" s="3">
-        <v>76100</v>
+        <v>79700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2165,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>270400</v>
+        <v>283200</v>
       </c>
       <c r="E66" s="3">
-        <v>415900</v>
+        <v>435700</v>
       </c>
       <c r="F66" s="3">
-        <v>126600</v>
+        <v>132600</v>
       </c>
       <c r="G66" s="3">
-        <v>76100</v>
+        <v>79700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>965000</v>
+        <v>1010800</v>
       </c>
       <c r="F70" s="3">
-        <v>381900</v>
+        <v>400000</v>
       </c>
       <c r="G70" s="3">
-        <v>309300</v>
+        <v>323900</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-486300</v>
+        <v>-509400</v>
       </c>
       <c r="E72" s="3">
-        <v>-492100</v>
+        <v>-515500</v>
       </c>
       <c r="F72" s="3">
-        <v>-364800</v>
+        <v>-382200</v>
       </c>
       <c r="G72" s="3">
-        <v>-275800</v>
+        <v>-288900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1051700</v>
+        <v>1101600</v>
       </c>
       <c r="E76" s="3">
-        <v>-437700</v>
+        <v>-458500</v>
       </c>
       <c r="F76" s="3">
-        <v>-358700</v>
+        <v>-375700</v>
       </c>
       <c r="G76" s="3">
-        <v>-272300</v>
+        <v>-285100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="E81" s="3">
-        <v>-128200</v>
+        <v>-134300</v>
       </c>
       <c r="F81" s="3">
-        <v>-89000</v>
+        <v>-93200</v>
       </c>
       <c r="G81" s="3">
-        <v>-155100</v>
+        <v>-162400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13100</v>
+        <v>13700</v>
       </c>
       <c r="E83" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="F83" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="G83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>118100</v>
+        <v>123700</v>
       </c>
       <c r="E89" s="3">
-        <v>-49000</v>
+        <v>-51400</v>
       </c>
       <c r="F89" s="3">
-        <v>-55300</v>
+        <v>-58000</v>
       </c>
       <c r="G89" s="3">
-        <v>-103700</v>
+        <v>-108600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="G91" s="3">
-        <v>-6500</v>
+        <v>-6800</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35800</v>
+        <v>-37500</v>
       </c>
       <c r="E94" s="3">
-        <v>-38500</v>
+        <v>-40300</v>
       </c>
       <c r="F94" s="3">
-        <v>-13400</v>
+        <v>-14000</v>
       </c>
       <c r="G94" s="3">
-        <v>-12500</v>
+        <v>-13100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>275400</v>
+        <v>288500</v>
       </c>
       <c r="E100" s="3">
-        <v>766800</v>
+        <v>803200</v>
       </c>
       <c r="F100" s="3">
-        <v>72600</v>
+        <v>76100</v>
       </c>
       <c r="G100" s="3">
-        <v>188500</v>
+        <v>197500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,10 +3216,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>15900</v>
+        <v>16700</v>
       </c>
       <c r="E101" s="3">
-        <v>50100</v>
+        <v>52500</v>
       </c>
       <c r="F101" s="3">
         <v>-600</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>373600</v>
+        <v>391400</v>
       </c>
       <c r="E102" s="3">
-        <v>729400</v>
+        <v>764000</v>
       </c>
       <c r="F102" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="G102" s="3">
-        <v>72500</v>
+        <v>75900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1107900</v>
+        <v>1112700</v>
       </c>
       <c r="E8" s="3">
-        <v>555900</v>
+        <v>558300</v>
       </c>
       <c r="F8" s="3">
-        <v>286900</v>
+        <v>288100</v>
       </c>
       <c r="G8" s="3">
-        <v>119700</v>
+        <v>120200</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>926000</v>
+        <v>930000</v>
       </c>
       <c r="E9" s="3">
-        <v>532900</v>
+        <v>535200</v>
       </c>
       <c r="F9" s="3">
-        <v>287600</v>
+        <v>288800</v>
       </c>
       <c r="G9" s="3">
-        <v>175700</v>
+        <v>176500</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>182000</v>
+        <v>182700</v>
       </c>
       <c r="E10" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="F10" s="3">
         <v>-700</v>
       </c>
       <c r="G10" s="3">
-        <v>-56000</v>
+        <v>-56300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>58400</v>
+        <v>58700</v>
       </c>
       <c r="E12" s="3">
-        <v>50100</v>
+        <v>50300</v>
       </c>
       <c r="F12" s="3">
-        <v>32300</v>
+        <v>32400</v>
       </c>
       <c r="G12" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1128000</v>
+        <v>1132800</v>
       </c>
       <c r="E17" s="3">
-        <v>686600</v>
+        <v>689600</v>
       </c>
       <c r="F17" s="3">
-        <v>380900</v>
+        <v>382600</v>
       </c>
       <c r="G17" s="3">
-        <v>237800</v>
+        <v>238800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="E18" s="3">
-        <v>-130700</v>
+        <v>-131300</v>
       </c>
       <c r="F18" s="3">
-        <v>-94100</v>
+        <v>-94500</v>
       </c>
       <c r="G18" s="3">
-        <v>-118100</v>
+        <v>-118600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25600</v>
+        <v>25700</v>
       </c>
       <c r="E20" s="3">
         <v>-1500</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="E21" s="3">
-        <v>-125300</v>
+        <v>-125800</v>
       </c>
       <c r="F21" s="3">
-        <v>-89100</v>
+        <v>-89500</v>
       </c>
       <c r="G21" s="3">
-        <v>-116300</v>
+        <v>-116800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1117,13 +1117,13 @@
         <v>5600</v>
       </c>
       <c r="E23" s="3">
-        <v>-132200</v>
+        <v>-132800</v>
       </c>
       <c r="F23" s="3">
-        <v>-93100</v>
+        <v>-93500</v>
       </c>
       <c r="G23" s="3">
-        <v>-118800</v>
+        <v>-119300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1207,13 +1207,13 @@
         <v>5600</v>
       </c>
       <c r="E26" s="3">
-        <v>-132200</v>
+        <v>-132800</v>
       </c>
       <c r="F26" s="3">
-        <v>-93100</v>
+        <v>-93500</v>
       </c>
       <c r="G26" s="3">
-        <v>-118800</v>
+        <v>-119300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E27" s="3">
-        <v>-134300</v>
+        <v>-134900</v>
       </c>
       <c r="F27" s="3">
-        <v>-93200</v>
+        <v>-93600</v>
       </c>
       <c r="G27" s="3">
-        <v>-162400</v>
+        <v>-163100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25600</v>
+        <v>-25700</v>
       </c>
       <c r="E32" s="3">
         <v>1500</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E33" s="3">
-        <v>-134300</v>
+        <v>-134900</v>
       </c>
       <c r="F33" s="3">
-        <v>-93200</v>
+        <v>-93600</v>
       </c>
       <c r="G33" s="3">
-        <v>-162400</v>
+        <v>-163100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E35" s="3">
-        <v>-134300</v>
+        <v>-134900</v>
       </c>
       <c r="F35" s="3">
-        <v>-93200</v>
+        <v>-93600</v>
       </c>
       <c r="G35" s="3">
-        <v>-162400</v>
+        <v>-163100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1231000</v>
+        <v>1236300</v>
       </c>
       <c r="E41" s="3">
-        <v>846100</v>
+        <v>849800</v>
       </c>
       <c r="F41" s="3">
-        <v>82100</v>
+        <v>82400</v>
       </c>
       <c r="G41" s="3">
-        <v>78600</v>
+        <v>79000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60400</v>
+        <v>60700</v>
       </c>
       <c r="E43" s="3">
-        <v>58200</v>
+        <v>58400</v>
       </c>
       <c r="F43" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="G43" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1687,10 +1687,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="E45" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="F45" s="3">
         <v>13900</v>
@@ -1717,16 +1717,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1308500</v>
+        <v>1314200</v>
       </c>
       <c r="E46" s="3">
-        <v>930500</v>
+        <v>934600</v>
       </c>
       <c r="F46" s="3">
-        <v>131300</v>
+        <v>131800</v>
       </c>
       <c r="G46" s="3">
-        <v>102800</v>
+        <v>103300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1747,16 +1747,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34300</v>
+        <v>34500</v>
       </c>
       <c r="E47" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="F47" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="G47" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1783,7 +1783,7 @@
         <v>7700</v>
       </c>
       <c r="F48" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="G48" s="3">
         <v>7500</v>
@@ -1807,10 +1807,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34800</v>
+        <v>35000</v>
       </c>
       <c r="E49" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="F49" s="3">
         <v>2500</v>
@@ -1957,16 +1957,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1384900</v>
+        <v>1390900</v>
       </c>
       <c r="E54" s="3">
-        <v>988000</v>
+        <v>992300</v>
       </c>
       <c r="F54" s="3">
-        <v>156900</v>
+        <v>157600</v>
       </c>
       <c r="G54" s="3">
-        <v>118500</v>
+        <v>119000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>135400</v>
+        <v>136000</v>
       </c>
       <c r="E57" s="3">
-        <v>121800</v>
+        <v>122300</v>
       </c>
       <c r="F57" s="3">
-        <v>68800</v>
+        <v>69100</v>
       </c>
       <c r="G57" s="3">
-        <v>51100</v>
+        <v>51300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2075,16 +2075,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>137500</v>
+        <v>138100</v>
       </c>
       <c r="E59" s="3">
-        <v>313900</v>
+        <v>315300</v>
       </c>
       <c r="F59" s="3">
-        <v>63900</v>
+        <v>64100</v>
       </c>
       <c r="G59" s="3">
-        <v>28600</v>
+        <v>28700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2105,16 +2105,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>272900</v>
+        <v>274100</v>
       </c>
       <c r="E60" s="3">
-        <v>435700</v>
+        <v>437500</v>
       </c>
       <c r="F60" s="3">
-        <v>132600</v>
+        <v>133200</v>
       </c>
       <c r="G60" s="3">
-        <v>79700</v>
+        <v>80000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2285,16 +2285,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>283200</v>
+        <v>284400</v>
       </c>
       <c r="E66" s="3">
-        <v>435700</v>
+        <v>437500</v>
       </c>
       <c r="F66" s="3">
-        <v>132600</v>
+        <v>133200</v>
       </c>
       <c r="G66" s="3">
-        <v>79700</v>
+        <v>80000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2392,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1010800</v>
+        <v>1015200</v>
       </c>
       <c r="F70" s="3">
-        <v>400000</v>
+        <v>401700</v>
       </c>
       <c r="G70" s="3">
-        <v>323900</v>
+        <v>325300</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-509400</v>
+        <v>-511600</v>
       </c>
       <c r="E72" s="3">
-        <v>-515500</v>
+        <v>-517700</v>
       </c>
       <c r="F72" s="3">
-        <v>-382200</v>
+        <v>-383800</v>
       </c>
       <c r="G72" s="3">
-        <v>-288900</v>
+        <v>-290200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,16 +2569,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1101600</v>
+        <v>1106400</v>
       </c>
       <c r="E76" s="3">
-        <v>-458500</v>
+        <v>-460500</v>
       </c>
       <c r="F76" s="3">
-        <v>-375700</v>
+        <v>-377300</v>
       </c>
       <c r="G76" s="3">
-        <v>-285100</v>
+        <v>-286300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E81" s="3">
-        <v>-134300</v>
+        <v>-134900</v>
       </c>
       <c r="F81" s="3">
-        <v>-93200</v>
+        <v>-93600</v>
       </c>
       <c r="G81" s="3">
-        <v>-162400</v>
+        <v>-163100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,10 +2708,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="E83" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="F83" s="3">
         <v>4000</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>123700</v>
+        <v>124200</v>
       </c>
       <c r="E89" s="3">
-        <v>-51400</v>
+        <v>-51600</v>
       </c>
       <c r="F89" s="3">
-        <v>-58000</v>
+        <v>-58200</v>
       </c>
       <c r="G89" s="3">
-        <v>-108600</v>
+        <v>-109100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,7 +2932,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="E91" s="3">
         <v>-5000</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37500</v>
+        <v>-37600</v>
       </c>
       <c r="E94" s="3">
-        <v>-40300</v>
+        <v>-40500</v>
       </c>
       <c r="F94" s="3">
-        <v>-14000</v>
+        <v>-14100</v>
       </c>
       <c r="G94" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>288500</v>
+        <v>289700</v>
       </c>
       <c r="E100" s="3">
-        <v>803200</v>
+        <v>806700</v>
       </c>
       <c r="F100" s="3">
-        <v>76100</v>
+        <v>76400</v>
       </c>
       <c r="G100" s="3">
-        <v>197500</v>
+        <v>198300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3219,7 +3219,7 @@
         <v>16700</v>
       </c>
       <c r="E101" s="3">
-        <v>52500</v>
+        <v>52700</v>
       </c>
       <c r="F101" s="3">
         <v>-600</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>391400</v>
+        <v>393100</v>
       </c>
       <c r="E102" s="3">
-        <v>764000</v>
+        <v>767400</v>
       </c>
       <c r="F102" s="3">
         <v>3500</v>
       </c>
       <c r="G102" s="3">
-        <v>75900</v>
+        <v>76300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>DOYU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1112700</v>
+        <v>1498000</v>
       </c>
       <c r="E8" s="3">
-        <v>558300</v>
+        <v>1136300</v>
       </c>
       <c r="F8" s="3">
-        <v>288100</v>
+        <v>570100</v>
       </c>
       <c r="G8" s="3">
-        <v>120200</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>294200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>122800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>930000</v>
+        <v>1254600</v>
       </c>
       <c r="E9" s="3">
-        <v>535200</v>
+        <v>949600</v>
       </c>
       <c r="F9" s="3">
-        <v>288800</v>
+        <v>546600</v>
       </c>
       <c r="G9" s="3">
-        <v>176500</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>294900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>180200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,26 +774,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>182700</v>
+        <v>243400</v>
       </c>
       <c r="E10" s="3">
-        <v>23100</v>
+        <v>186600</v>
       </c>
       <c r="F10" s="3">
+        <v>23600</v>
+      </c>
+      <c r="G10" s="3">
         <v>-700</v>
       </c>
-      <c r="G10" s="3">
-        <v>-56300</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+      <c r="H10" s="3">
+        <v>-57400</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,25 +825,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>58700</v>
+        <v>64900</v>
       </c>
       <c r="E12" s="3">
-        <v>50300</v>
+        <v>59900</v>
       </c>
       <c r="F12" s="3">
-        <v>32400</v>
+        <v>51400</v>
       </c>
       <c r="G12" s="3">
-        <v>14300</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>33100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,26 +888,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-3500</v>
+      <c r="D14" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -902,9 +921,12 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1132800</v>
+        <v>1453400</v>
       </c>
       <c r="E17" s="3">
-        <v>689600</v>
+        <v>1156800</v>
       </c>
       <c r="F17" s="3">
-        <v>382600</v>
+        <v>704200</v>
       </c>
       <c r="G17" s="3">
-        <v>238800</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>390700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>243900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20100</v>
+        <v>44600</v>
       </c>
       <c r="E18" s="3">
-        <v>-131300</v>
+        <v>-20500</v>
       </c>
       <c r="F18" s="3">
-        <v>-94500</v>
+        <v>-134000</v>
       </c>
       <c r="G18" s="3">
-        <v>-118600</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-96500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-121100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,26 +1050,27 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25700</v>
+        <v>18400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1500</v>
+        <v>26300</v>
       </c>
       <c r="F20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>19400</v>
+        <v>80200</v>
       </c>
       <c r="E21" s="3">
-        <v>-125800</v>
+        <v>19800</v>
       </c>
       <c r="F21" s="3">
-        <v>-89500</v>
+        <v>-128500</v>
       </c>
       <c r="G21" s="3">
-        <v>-116800</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-91400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-119300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,27 +1113,30 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,26 +1146,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5600</v>
+        <v>62900</v>
       </c>
       <c r="E23" s="3">
-        <v>-132800</v>
+        <v>5700</v>
       </c>
       <c r="F23" s="3">
-        <v>-93500</v>
+        <v>-135600</v>
       </c>
       <c r="G23" s="3">
-        <v>-119300</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-95400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-121800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,9 +1179,12 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5600</v>
+        <v>62900</v>
       </c>
       <c r="E26" s="3">
-        <v>-132800</v>
+        <v>5700</v>
       </c>
       <c r="F26" s="3">
-        <v>-93500</v>
+        <v>-135600</v>
       </c>
       <c r="G26" s="3">
-        <v>-119300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-95400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-121800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6100</v>
+        <v>75700</v>
       </c>
       <c r="E27" s="3">
-        <v>-134900</v>
+        <v>6200</v>
       </c>
       <c r="F27" s="3">
-        <v>-93600</v>
+        <v>-137700</v>
       </c>
       <c r="G27" s="3">
-        <v>-163100</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-95600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-166600</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,27 +1443,30 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25700</v>
+        <v>-18400</v>
       </c>
       <c r="E32" s="3">
-        <v>1500</v>
+        <v>-26300</v>
       </c>
       <c r="F32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6100</v>
+        <v>75700</v>
       </c>
       <c r="E33" s="3">
-        <v>-134900</v>
+        <v>6200</v>
       </c>
       <c r="F33" s="3">
-        <v>-93600</v>
+        <v>-137700</v>
       </c>
       <c r="G33" s="3">
-        <v>-163100</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-95600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-166600</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6100</v>
+        <v>75700</v>
       </c>
       <c r="E35" s="3">
-        <v>-134900</v>
+        <v>6200</v>
       </c>
       <c r="F35" s="3">
-        <v>-93600</v>
+        <v>-137700</v>
       </c>
       <c r="G35" s="3">
-        <v>-163100</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-95600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-166600</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,25 +1646,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1236300</v>
+        <v>823700</v>
       </c>
       <c r="E41" s="3">
-        <v>849800</v>
+        <v>1262400</v>
       </c>
       <c r="F41" s="3">
-        <v>82400</v>
+        <v>867800</v>
       </c>
       <c r="G41" s="3">
-        <v>79000</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>84200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>80600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,26 +1709,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60700</v>
+        <v>65500</v>
       </c>
       <c r="E43" s="3">
-        <v>58400</v>
+        <v>62000</v>
       </c>
       <c r="F43" s="3">
-        <v>35500</v>
+        <v>59700</v>
       </c>
       <c r="G43" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>36200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>18300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,26 +1775,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17200</v>
+        <v>364100</v>
       </c>
       <c r="E45" s="3">
-        <v>26300</v>
+        <v>17500</v>
       </c>
       <c r="F45" s="3">
-        <v>13900</v>
+        <v>26900</v>
       </c>
       <c r="G45" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>14200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>6500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1710,26 +1808,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1314200</v>
+        <v>1253300</v>
       </c>
       <c r="E46" s="3">
-        <v>934600</v>
+        <v>1341900</v>
       </c>
       <c r="F46" s="3">
-        <v>131800</v>
+        <v>954300</v>
       </c>
       <c r="G46" s="3">
-        <v>103300</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>134600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>105400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1740,26 +1841,29 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34500</v>
+        <v>78100</v>
       </c>
       <c r="E47" s="3">
-        <v>20500</v>
+        <v>35200</v>
       </c>
       <c r="F47" s="3">
-        <v>14700</v>
+        <v>20900</v>
       </c>
       <c r="G47" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>15000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1770,27 +1874,30 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5900</v>
+        <v>15600</v>
       </c>
       <c r="E48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H48" s="3">
         <v>7700</v>
       </c>
-      <c r="F48" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,26 +1907,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35000</v>
+        <v>24100</v>
       </c>
       <c r="E49" s="3">
-        <v>22100</v>
+        <v>35700</v>
       </c>
       <c r="F49" s="3">
-        <v>2500</v>
+        <v>22600</v>
       </c>
       <c r="G49" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>2600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,27 +2006,30 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
-        <v>7400</v>
-      </c>
       <c r="F52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,26 +2072,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1390900</v>
+        <v>1389700</v>
       </c>
       <c r="E54" s="3">
-        <v>992300</v>
+        <v>1420300</v>
       </c>
       <c r="F54" s="3">
-        <v>157600</v>
+        <v>1013300</v>
       </c>
       <c r="G54" s="3">
-        <v>119000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>160900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>121500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,25 +2138,26 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>136000</v>
+        <v>153800</v>
       </c>
       <c r="E57" s="3">
-        <v>122300</v>
+        <v>138900</v>
       </c>
       <c r="F57" s="3">
-        <v>69100</v>
+        <v>124900</v>
       </c>
       <c r="G57" s="3">
-        <v>51300</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>70500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>52400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2038,9 +2168,12 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2068,26 +2201,29 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>138100</v>
+        <v>139900</v>
       </c>
       <c r="E59" s="3">
-        <v>315300</v>
+        <v>141100</v>
       </c>
       <c r="F59" s="3">
-        <v>64100</v>
+        <v>321900</v>
       </c>
       <c r="G59" s="3">
-        <v>28700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>65500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>29300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2098,26 +2234,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>274100</v>
+        <v>293700</v>
       </c>
       <c r="E60" s="3">
-        <v>437500</v>
+        <v>279900</v>
       </c>
       <c r="F60" s="3">
-        <v>133200</v>
+        <v>446800</v>
       </c>
       <c r="G60" s="3">
-        <v>80000</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>136000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>81700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2158,17 +2300,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7000</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2185,12 +2330,15 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,26 +2432,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>284400</v>
+        <v>307200</v>
       </c>
       <c r="E66" s="3">
-        <v>437500</v>
+        <v>290500</v>
       </c>
       <c r="F66" s="3">
-        <v>133200</v>
+        <v>446800</v>
       </c>
       <c r="G66" s="3">
-        <v>80000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>136000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>81700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1015200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>401700</v>
+        <v>1036700</v>
       </c>
       <c r="G70" s="3">
-        <v>325300</v>
+        <v>410200</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>332200</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,26 +2612,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-511600</v>
+        <v>-446700</v>
       </c>
       <c r="E72" s="3">
-        <v>-517700</v>
+        <v>-522400</v>
       </c>
       <c r="F72" s="3">
-        <v>-383800</v>
+        <v>-528600</v>
       </c>
       <c r="G72" s="3">
-        <v>-290200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-391900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-296300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,26 +2744,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1106400</v>
+        <v>1082600</v>
       </c>
       <c r="E76" s="3">
-        <v>-460500</v>
+        <v>1129800</v>
       </c>
       <c r="F76" s="3">
-        <v>-377300</v>
+        <v>-470200</v>
       </c>
       <c r="G76" s="3">
-        <v>-286300</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-385300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-292400</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6100</v>
+        <v>75700</v>
       </c>
       <c r="E81" s="3">
-        <v>-134900</v>
+        <v>6200</v>
       </c>
       <c r="F81" s="3">
-        <v>-93600</v>
+        <v>-137700</v>
       </c>
       <c r="G81" s="3">
-        <v>-163100</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-95600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-166600</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,26 +2899,27 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13800</v>
+        <v>17300</v>
       </c>
       <c r="E83" s="3">
-        <v>7000</v>
+        <v>14100</v>
       </c>
       <c r="F83" s="3">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="G83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>124200</v>
+        <v>104200</v>
       </c>
       <c r="E89" s="3">
-        <v>-51600</v>
+        <v>126900</v>
       </c>
       <c r="F89" s="3">
-        <v>-58200</v>
+        <v>-52700</v>
       </c>
       <c r="G89" s="3">
-        <v>-109100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-59400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-111400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,25 +3145,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
-        <v>-5000</v>
-      </c>
       <c r="F91" s="3">
-        <v>-3600</v>
+        <v>-5100</v>
       </c>
       <c r="G91" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-3700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-7000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37600</v>
+        <v>-407600</v>
       </c>
       <c r="E94" s="3">
-        <v>-40500</v>
+        <v>-38400</v>
       </c>
       <c r="F94" s="3">
-        <v>-14100</v>
+        <v>-41300</v>
       </c>
       <c r="G94" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-14400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-13500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>289700</v>
+        <v>-74800</v>
       </c>
       <c r="E100" s="3">
-        <v>806700</v>
+        <v>295800</v>
       </c>
       <c r="F100" s="3">
-        <v>76400</v>
+        <v>823700</v>
       </c>
       <c r="G100" s="3">
-        <v>198300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>78000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>202500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,27 +3454,30 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16700</v>
+        <v>-65400</v>
       </c>
       <c r="E101" s="3">
-        <v>52700</v>
+        <v>17100</v>
       </c>
       <c r="F101" s="3">
-        <v>-600</v>
+        <v>53800</v>
       </c>
       <c r="G101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>393100</v>
+        <v>-443600</v>
       </c>
       <c r="E102" s="3">
-        <v>767400</v>
+        <v>401400</v>
       </c>
       <c r="F102" s="3">
-        <v>3500</v>
+        <v>783600</v>
       </c>
       <c r="G102" s="3">
-        <v>76300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>3600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>77900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1498000</v>
+        <v>1478500</v>
       </c>
       <c r="E8" s="3">
-        <v>1136300</v>
+        <v>1121500</v>
       </c>
       <c r="F8" s="3">
-        <v>570100</v>
+        <v>562700</v>
       </c>
       <c r="G8" s="3">
-        <v>294200</v>
+        <v>290400</v>
       </c>
       <c r="H8" s="3">
-        <v>122800</v>
+        <v>121200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1254600</v>
+        <v>1238200</v>
       </c>
       <c r="E9" s="3">
-        <v>949600</v>
+        <v>937300</v>
       </c>
       <c r="F9" s="3">
-        <v>546600</v>
+        <v>539400</v>
       </c>
       <c r="G9" s="3">
-        <v>294900</v>
+        <v>291100</v>
       </c>
       <c r="H9" s="3">
-        <v>180200</v>
+        <v>177900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>243400</v>
+        <v>240300</v>
       </c>
       <c r="E10" s="3">
-        <v>186600</v>
+        <v>184200</v>
       </c>
       <c r="F10" s="3">
-        <v>23600</v>
+        <v>23300</v>
       </c>
       <c r="G10" s="3">
         <v>-700</v>
       </c>
       <c r="H10" s="3">
-        <v>-57400</v>
+        <v>-56700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>64900</v>
+        <v>64100</v>
       </c>
       <c r="E12" s="3">
-        <v>59900</v>
+        <v>59100</v>
       </c>
       <c r="F12" s="3">
-        <v>51400</v>
+        <v>50700</v>
       </c>
       <c r="G12" s="3">
-        <v>33100</v>
+        <v>32700</v>
       </c>
       <c r="H12" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1453400</v>
+        <v>1434500</v>
       </c>
       <c r="E17" s="3">
-        <v>1156800</v>
+        <v>1141700</v>
       </c>
       <c r="F17" s="3">
-        <v>704200</v>
+        <v>695000</v>
       </c>
       <c r="G17" s="3">
-        <v>390700</v>
+        <v>385600</v>
       </c>
       <c r="H17" s="3">
-        <v>243900</v>
+        <v>240700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>44600</v>
+        <v>44000</v>
       </c>
       <c r="E18" s="3">
-        <v>-20500</v>
+        <v>-20300</v>
       </c>
       <c r="F18" s="3">
-        <v>-134000</v>
+        <v>-132300</v>
       </c>
       <c r="G18" s="3">
-        <v>-96500</v>
+        <v>-95200</v>
       </c>
       <c r="H18" s="3">
-        <v>-121100</v>
+        <v>-119500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18400</v>
+        <v>18100</v>
       </c>
       <c r="E20" s="3">
-        <v>26300</v>
+        <v>25900</v>
       </c>
       <c r="F20" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G20" s="3">
         <v>1000</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>80200</v>
+        <v>79200</v>
       </c>
       <c r="E21" s="3">
-        <v>19800</v>
+        <v>19500</v>
       </c>
       <c r="F21" s="3">
-        <v>-128500</v>
+        <v>-126800</v>
       </c>
       <c r="G21" s="3">
-        <v>-91400</v>
+        <v>-90200</v>
       </c>
       <c r="H21" s="3">
-        <v>-119300</v>
+        <v>-117700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62900</v>
+        <v>62100</v>
       </c>
       <c r="E23" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F23" s="3">
-        <v>-135600</v>
+        <v>-133800</v>
       </c>
       <c r="G23" s="3">
-        <v>-95400</v>
+        <v>-94200</v>
       </c>
       <c r="H23" s="3">
-        <v>-121800</v>
+        <v>-120200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>62900</v>
+        <v>62100</v>
       </c>
       <c r="E26" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F26" s="3">
-        <v>-135600</v>
+        <v>-133800</v>
       </c>
       <c r="G26" s="3">
-        <v>-95400</v>
+        <v>-94200</v>
       </c>
       <c r="H26" s="3">
-        <v>-121800</v>
+        <v>-120200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>75700</v>
+        <v>74800</v>
       </c>
       <c r="E27" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F27" s="3">
-        <v>-137700</v>
+        <v>-136000</v>
       </c>
       <c r="G27" s="3">
-        <v>-95600</v>
+        <v>-94400</v>
       </c>
       <c r="H27" s="3">
-        <v>-166600</v>
+        <v>-164400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18400</v>
+        <v>-18100</v>
       </c>
       <c r="E32" s="3">
-        <v>-26300</v>
+        <v>-25900</v>
       </c>
       <c r="F32" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G32" s="3">
         <v>-1000</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>75700</v>
+        <v>74800</v>
       </c>
       <c r="E33" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F33" s="3">
-        <v>-137700</v>
+        <v>-136000</v>
       </c>
       <c r="G33" s="3">
-        <v>-95600</v>
+        <v>-94400</v>
       </c>
       <c r="H33" s="3">
-        <v>-166600</v>
+        <v>-164400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>75700</v>
+        <v>74800</v>
       </c>
       <c r="E35" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F35" s="3">
-        <v>-137700</v>
+        <v>-136000</v>
       </c>
       <c r="G35" s="3">
-        <v>-95600</v>
+        <v>-94400</v>
       </c>
       <c r="H35" s="3">
-        <v>-166600</v>
+        <v>-164400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>823700</v>
+        <v>813000</v>
       </c>
       <c r="E41" s="3">
-        <v>1262400</v>
+        <v>1246000</v>
       </c>
       <c r="F41" s="3">
-        <v>867800</v>
+        <v>856500</v>
       </c>
       <c r="G41" s="3">
-        <v>84200</v>
+        <v>83100</v>
       </c>
       <c r="H41" s="3">
-        <v>80600</v>
+        <v>79600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65500</v>
+        <v>64700</v>
       </c>
       <c r="E43" s="3">
-        <v>62000</v>
+        <v>61200</v>
       </c>
       <c r="F43" s="3">
-        <v>59700</v>
+        <v>58900</v>
       </c>
       <c r="G43" s="3">
-        <v>36200</v>
+        <v>35700</v>
       </c>
       <c r="H43" s="3">
-        <v>18300</v>
+        <v>18000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>364100</v>
+        <v>359400</v>
       </c>
       <c r="E45" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="F45" s="3">
-        <v>26900</v>
+        <v>26500</v>
       </c>
       <c r="G45" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="H45" s="3">
         <v>6500</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1253300</v>
+        <v>1237000</v>
       </c>
       <c r="E46" s="3">
-        <v>1341900</v>
+        <v>1324500</v>
       </c>
       <c r="F46" s="3">
-        <v>954300</v>
+        <v>941900</v>
       </c>
       <c r="G46" s="3">
-        <v>134600</v>
+        <v>132900</v>
       </c>
       <c r="H46" s="3">
-        <v>105400</v>
+        <v>104100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78100</v>
+        <v>77100</v>
       </c>
       <c r="E47" s="3">
-        <v>35200</v>
+        <v>34700</v>
       </c>
       <c r="F47" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="G47" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="H47" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15600</v>
+        <v>15400</v>
       </c>
       <c r="E48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="F48" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G48" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="H48" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24100</v>
+        <v>23800</v>
       </c>
       <c r="E49" s="3">
-        <v>35700</v>
+        <v>35300</v>
       </c>
       <c r="F49" s="3">
-        <v>22600</v>
+        <v>22300</v>
       </c>
       <c r="G49" s="3">
         <v>2600</v>
       </c>
       <c r="H49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="E52" s="3">
         <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1389700</v>
+        <v>1371600</v>
       </c>
       <c r="E54" s="3">
-        <v>1420300</v>
+        <v>1401800</v>
       </c>
       <c r="F54" s="3">
-        <v>1013300</v>
+        <v>1000100</v>
       </c>
       <c r="G54" s="3">
-        <v>160900</v>
+        <v>158800</v>
       </c>
       <c r="H54" s="3">
-        <v>121500</v>
+        <v>119900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>153800</v>
+        <v>151800</v>
       </c>
       <c r="E57" s="3">
-        <v>138900</v>
+        <v>137000</v>
       </c>
       <c r="F57" s="3">
-        <v>124900</v>
+        <v>123200</v>
       </c>
       <c r="G57" s="3">
-        <v>70500</v>
+        <v>69600</v>
       </c>
       <c r="H57" s="3">
-        <v>52400</v>
+        <v>51700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>139900</v>
+        <v>138100</v>
       </c>
       <c r="E59" s="3">
-        <v>141100</v>
+        <v>139200</v>
       </c>
       <c r="F59" s="3">
-        <v>321900</v>
+        <v>317700</v>
       </c>
       <c r="G59" s="3">
-        <v>65500</v>
+        <v>64600</v>
       </c>
       <c r="H59" s="3">
-        <v>29300</v>
+        <v>28900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>293700</v>
+        <v>289900</v>
       </c>
       <c r="E60" s="3">
-        <v>279900</v>
+        <v>276300</v>
       </c>
       <c r="F60" s="3">
-        <v>446800</v>
+        <v>441000</v>
       </c>
       <c r="G60" s="3">
-        <v>136000</v>
+        <v>134300</v>
       </c>
       <c r="H60" s="3">
-        <v>81700</v>
+        <v>80700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E62" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>307200</v>
+        <v>303200</v>
       </c>
       <c r="E66" s="3">
-        <v>290500</v>
+        <v>286700</v>
       </c>
       <c r="F66" s="3">
-        <v>446800</v>
+        <v>441000</v>
       </c>
       <c r="G66" s="3">
-        <v>136000</v>
+        <v>134300</v>
       </c>
       <c r="H66" s="3">
-        <v>81700</v>
+        <v>80700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1036700</v>
+        <v>1023200</v>
       </c>
       <c r="G70" s="3">
-        <v>410200</v>
+        <v>404900</v>
       </c>
       <c r="H70" s="3">
-        <v>332200</v>
+        <v>327900</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-446700</v>
+        <v>-440900</v>
       </c>
       <c r="E72" s="3">
-        <v>-522400</v>
+        <v>-515600</v>
       </c>
       <c r="F72" s="3">
-        <v>-528600</v>
+        <v>-521800</v>
       </c>
       <c r="G72" s="3">
-        <v>-391900</v>
+        <v>-386800</v>
       </c>
       <c r="H72" s="3">
-        <v>-296300</v>
+        <v>-292500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1082600</v>
+        <v>1068500</v>
       </c>
       <c r="E76" s="3">
-        <v>1129800</v>
+        <v>1115100</v>
       </c>
       <c r="F76" s="3">
-        <v>-470200</v>
+        <v>-464100</v>
       </c>
       <c r="G76" s="3">
-        <v>-385300</v>
+        <v>-380300</v>
       </c>
       <c r="H76" s="3">
-        <v>-292400</v>
+        <v>-288600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>75700</v>
+        <v>74800</v>
       </c>
       <c r="E81" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F81" s="3">
-        <v>-137700</v>
+        <v>-136000</v>
       </c>
       <c r="G81" s="3">
-        <v>-95600</v>
+        <v>-94400</v>
       </c>
       <c r="H81" s="3">
-        <v>-166600</v>
+        <v>-164400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="E83" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="F83" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="G83" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>104200</v>
+        <v>102800</v>
       </c>
       <c r="E89" s="3">
-        <v>126900</v>
+        <v>125200</v>
       </c>
       <c r="F89" s="3">
-        <v>-52700</v>
+        <v>-52000</v>
       </c>
       <c r="G89" s="3">
-        <v>-59400</v>
+        <v>-58700</v>
       </c>
       <c r="H89" s="3">
-        <v>-111400</v>
+        <v>-110000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,7 +3152,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="E91" s="3">
         <v>-2500</v>
@@ -3164,7 +3164,7 @@
         <v>-3700</v>
       </c>
       <c r="H91" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-407600</v>
+        <v>-402300</v>
       </c>
       <c r="E94" s="3">
-        <v>-38400</v>
+        <v>-37900</v>
       </c>
       <c r="F94" s="3">
-        <v>-41300</v>
+        <v>-40800</v>
       </c>
       <c r="G94" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="H94" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-74800</v>
+        <v>-73800</v>
       </c>
       <c r="E100" s="3">
-        <v>295800</v>
+        <v>292000</v>
       </c>
       <c r="F100" s="3">
-        <v>823700</v>
+        <v>813000</v>
       </c>
       <c r="G100" s="3">
-        <v>78000</v>
+        <v>77000</v>
       </c>
       <c r="H100" s="3">
-        <v>202500</v>
+        <v>199900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-65400</v>
+        <v>-64500</v>
       </c>
       <c r="E101" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="F101" s="3">
-        <v>53800</v>
+        <v>53100</v>
       </c>
       <c r="G101" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-443600</v>
+        <v>-437800</v>
       </c>
       <c r="E102" s="3">
-        <v>401400</v>
+        <v>396100</v>
       </c>
       <c r="F102" s="3">
-        <v>783600</v>
+        <v>773400</v>
       </c>
       <c r="G102" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H102" s="3">
-        <v>77900</v>
+        <v>76900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1478500</v>
+        <v>1503300</v>
       </c>
       <c r="E8" s="3">
-        <v>1121500</v>
+        <v>1140300</v>
       </c>
       <c r="F8" s="3">
-        <v>562700</v>
+        <v>572100</v>
       </c>
       <c r="G8" s="3">
-        <v>290400</v>
+        <v>295200</v>
       </c>
       <c r="H8" s="3">
-        <v>121200</v>
+        <v>123200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1238200</v>
+        <v>1259000</v>
       </c>
       <c r="E9" s="3">
-        <v>937300</v>
+        <v>953000</v>
       </c>
       <c r="F9" s="3">
-        <v>539400</v>
+        <v>548500</v>
       </c>
       <c r="G9" s="3">
-        <v>291100</v>
+        <v>296000</v>
       </c>
       <c r="H9" s="3">
-        <v>177900</v>
+        <v>180800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>240300</v>
+        <v>244300</v>
       </c>
       <c r="E10" s="3">
-        <v>184200</v>
+        <v>187300</v>
       </c>
       <c r="F10" s="3">
-        <v>23300</v>
+        <v>23600</v>
       </c>
       <c r="G10" s="3">
         <v>-700</v>
       </c>
       <c r="H10" s="3">
-        <v>-56700</v>
+        <v>-57700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>64100</v>
+        <v>65200</v>
       </c>
       <c r="E12" s="3">
-        <v>59100</v>
+        <v>60100</v>
       </c>
       <c r="F12" s="3">
-        <v>50700</v>
+        <v>51600</v>
       </c>
       <c r="G12" s="3">
-        <v>32700</v>
+        <v>33200</v>
       </c>
       <c r="H12" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1434500</v>
+        <v>1458600</v>
       </c>
       <c r="E17" s="3">
-        <v>1141700</v>
+        <v>1160900</v>
       </c>
       <c r="F17" s="3">
-        <v>695000</v>
+        <v>706600</v>
       </c>
       <c r="G17" s="3">
-        <v>385600</v>
+        <v>392000</v>
       </c>
       <c r="H17" s="3">
-        <v>240700</v>
+        <v>244700</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>44000</v>
+        <v>44700</v>
       </c>
       <c r="E18" s="3">
-        <v>-20300</v>
+        <v>-20600</v>
       </c>
       <c r="F18" s="3">
-        <v>-132300</v>
+        <v>-134500</v>
       </c>
       <c r="G18" s="3">
-        <v>-95200</v>
+        <v>-96800</v>
       </c>
       <c r="H18" s="3">
-        <v>-119500</v>
+        <v>-121600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="E20" s="3">
-        <v>25900</v>
+        <v>26300</v>
       </c>
       <c r="F20" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G20" s="3">
         <v>1000</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>79200</v>
+        <v>80500</v>
       </c>
       <c r="E21" s="3">
-        <v>19500</v>
+        <v>19800</v>
       </c>
       <c r="F21" s="3">
-        <v>-126800</v>
+        <v>-128900</v>
       </c>
       <c r="G21" s="3">
-        <v>-90200</v>
+        <v>-91700</v>
       </c>
       <c r="H21" s="3">
-        <v>-117700</v>
+        <v>-119700</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>62100</v>
+        <v>63200</v>
       </c>
       <c r="E23" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F23" s="3">
-        <v>-133800</v>
+        <v>-136100</v>
       </c>
       <c r="G23" s="3">
-        <v>-94200</v>
+        <v>-95800</v>
       </c>
       <c r="H23" s="3">
-        <v>-120200</v>
+        <v>-122200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>62100</v>
+        <v>63200</v>
       </c>
       <c r="E26" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F26" s="3">
-        <v>-133800</v>
+        <v>-136100</v>
       </c>
       <c r="G26" s="3">
-        <v>-94200</v>
+        <v>-95800</v>
       </c>
       <c r="H26" s="3">
-        <v>-120200</v>
+        <v>-122200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>74800</v>
+        <v>76000</v>
       </c>
       <c r="E27" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F27" s="3">
-        <v>-136000</v>
+        <v>-138200</v>
       </c>
       <c r="G27" s="3">
-        <v>-94400</v>
+        <v>-96000</v>
       </c>
       <c r="H27" s="3">
-        <v>-164400</v>
+        <v>-167200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18100</v>
+        <v>-18400</v>
       </c>
       <c r="E32" s="3">
-        <v>-25900</v>
+        <v>-26300</v>
       </c>
       <c r="F32" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G32" s="3">
         <v>-1000</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>74800</v>
+        <v>76000</v>
       </c>
       <c r="E33" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F33" s="3">
-        <v>-136000</v>
+        <v>-138200</v>
       </c>
       <c r="G33" s="3">
-        <v>-94400</v>
+        <v>-96000</v>
       </c>
       <c r="H33" s="3">
-        <v>-164400</v>
+        <v>-167200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>74800</v>
+        <v>76000</v>
       </c>
       <c r="E35" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F35" s="3">
-        <v>-136000</v>
+        <v>-138200</v>
       </c>
       <c r="G35" s="3">
-        <v>-94400</v>
+        <v>-96000</v>
       </c>
       <c r="H35" s="3">
-        <v>-164400</v>
+        <v>-167200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>813000</v>
+        <v>826600</v>
       </c>
       <c r="E41" s="3">
-        <v>1246000</v>
+        <v>1266900</v>
       </c>
       <c r="F41" s="3">
-        <v>856500</v>
+        <v>870800</v>
       </c>
       <c r="G41" s="3">
-        <v>83100</v>
+        <v>84500</v>
       </c>
       <c r="H41" s="3">
-        <v>79600</v>
+        <v>80900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64700</v>
+        <v>65700</v>
       </c>
       <c r="E43" s="3">
-        <v>61200</v>
+        <v>62200</v>
       </c>
       <c r="F43" s="3">
-        <v>58900</v>
+        <v>59900</v>
       </c>
       <c r="G43" s="3">
-        <v>35700</v>
+        <v>36300</v>
       </c>
       <c r="H43" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>359400</v>
+        <v>365400</v>
       </c>
       <c r="E45" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="F45" s="3">
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="G45" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="H45" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1237000</v>
+        <v>1257800</v>
       </c>
       <c r="E46" s="3">
-        <v>1324500</v>
+        <v>1346700</v>
       </c>
       <c r="F46" s="3">
-        <v>941900</v>
+        <v>957700</v>
       </c>
       <c r="G46" s="3">
-        <v>132900</v>
+        <v>135100</v>
       </c>
       <c r="H46" s="3">
-        <v>104100</v>
+        <v>105800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,19 +1851,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>77100</v>
+        <v>78400</v>
       </c>
       <c r="E47" s="3">
-        <v>34700</v>
+        <v>35300</v>
       </c>
       <c r="F47" s="3">
-        <v>20700</v>
+        <v>21000</v>
       </c>
       <c r="G47" s="3">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="H47" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15400</v>
+        <v>15600</v>
       </c>
       <c r="E48" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="F48" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G48" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H48" s="3">
         <v>7700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>7600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,19 +1917,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>23800</v>
+        <v>24200</v>
       </c>
       <c r="E49" s="3">
-        <v>35300</v>
+        <v>35900</v>
       </c>
       <c r="F49" s="3">
-        <v>22300</v>
+        <v>22600</v>
       </c>
       <c r="G49" s="3">
         <v>2600</v>
       </c>
       <c r="H49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18300</v>
+        <v>18600</v>
       </c>
       <c r="E52" s="3">
         <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
       </c>
       <c r="H52" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1371600</v>
+        <v>1394600</v>
       </c>
       <c r="E54" s="3">
-        <v>1401800</v>
+        <v>1425300</v>
       </c>
       <c r="F54" s="3">
-        <v>1000100</v>
+        <v>1016800</v>
       </c>
       <c r="G54" s="3">
-        <v>158800</v>
+        <v>161500</v>
       </c>
       <c r="H54" s="3">
-        <v>119900</v>
+        <v>121900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>151800</v>
+        <v>154400</v>
       </c>
       <c r="E57" s="3">
-        <v>137000</v>
+        <v>139300</v>
       </c>
       <c r="F57" s="3">
-        <v>123200</v>
+        <v>125300</v>
       </c>
       <c r="G57" s="3">
-        <v>69600</v>
+        <v>70800</v>
       </c>
       <c r="H57" s="3">
-        <v>51700</v>
+        <v>52600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>138100</v>
+        <v>140400</v>
       </c>
       <c r="E59" s="3">
-        <v>139200</v>
+        <v>141600</v>
       </c>
       <c r="F59" s="3">
-        <v>317700</v>
+        <v>323100</v>
       </c>
       <c r="G59" s="3">
-        <v>64600</v>
+        <v>65700</v>
       </c>
       <c r="H59" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>289900</v>
+        <v>294800</v>
       </c>
       <c r="E60" s="3">
-        <v>276300</v>
+        <v>280900</v>
       </c>
       <c r="F60" s="3">
-        <v>441000</v>
+        <v>448400</v>
       </c>
       <c r="G60" s="3">
-        <v>134300</v>
+        <v>136500</v>
       </c>
       <c r="H60" s="3">
-        <v>80700</v>
+        <v>82000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2310,10 +2310,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>303200</v>
+        <v>308300</v>
       </c>
       <c r="E66" s="3">
-        <v>286700</v>
+        <v>291500</v>
       </c>
       <c r="F66" s="3">
-        <v>441000</v>
+        <v>448400</v>
       </c>
       <c r="G66" s="3">
-        <v>134300</v>
+        <v>136500</v>
       </c>
       <c r="H66" s="3">
-        <v>80700</v>
+        <v>82000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1023200</v>
+        <v>1040300</v>
       </c>
       <c r="G70" s="3">
-        <v>404900</v>
+        <v>411700</v>
       </c>
       <c r="H70" s="3">
-        <v>327900</v>
+        <v>333400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-440900</v>
+        <v>-448300</v>
       </c>
       <c r="E72" s="3">
-        <v>-515600</v>
+        <v>-524300</v>
       </c>
       <c r="F72" s="3">
-        <v>-521800</v>
+        <v>-530500</v>
       </c>
       <c r="G72" s="3">
-        <v>-386800</v>
+        <v>-393300</v>
       </c>
       <c r="H72" s="3">
-        <v>-292500</v>
+        <v>-297400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1068500</v>
+        <v>1086400</v>
       </c>
       <c r="E76" s="3">
-        <v>1115100</v>
+        <v>1133800</v>
       </c>
       <c r="F76" s="3">
-        <v>-464100</v>
+        <v>-471800</v>
       </c>
       <c r="G76" s="3">
-        <v>-380300</v>
+        <v>-386700</v>
       </c>
       <c r="H76" s="3">
-        <v>-288600</v>
+        <v>-293500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>74800</v>
+        <v>76000</v>
       </c>
       <c r="E81" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F81" s="3">
-        <v>-136000</v>
+        <v>-138200</v>
       </c>
       <c r="G81" s="3">
-        <v>-94400</v>
+        <v>-96000</v>
       </c>
       <c r="H81" s="3">
-        <v>-164400</v>
+        <v>-167200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="E83" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="F83" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G83" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>102800</v>
+        <v>104500</v>
       </c>
       <c r="E89" s="3">
-        <v>125200</v>
+        <v>127300</v>
       </c>
       <c r="F89" s="3">
-        <v>-52000</v>
+        <v>-52900</v>
       </c>
       <c r="G89" s="3">
-        <v>-58700</v>
+        <v>-59700</v>
       </c>
       <c r="H89" s="3">
-        <v>-110000</v>
+        <v>-111800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,7 +3152,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="E91" s="3">
         <v>-2500</v>
@@ -3164,7 +3164,7 @@
         <v>-3700</v>
       </c>
       <c r="H91" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-402300</v>
+        <v>-409000</v>
       </c>
       <c r="E94" s="3">
-        <v>-37900</v>
+        <v>-38600</v>
       </c>
       <c r="F94" s="3">
-        <v>-40800</v>
+        <v>-41500</v>
       </c>
       <c r="G94" s="3">
-        <v>-14200</v>
+        <v>-14400</v>
       </c>
       <c r="H94" s="3">
-        <v>-13300</v>
+        <v>-13500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-73800</v>
+        <v>-75000</v>
       </c>
       <c r="E100" s="3">
-        <v>292000</v>
+        <v>296900</v>
       </c>
       <c r="F100" s="3">
-        <v>813000</v>
+        <v>826700</v>
       </c>
       <c r="G100" s="3">
-        <v>77000</v>
+        <v>78300</v>
       </c>
       <c r="H100" s="3">
-        <v>199900</v>
+        <v>203200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,16 +3464,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-64500</v>
+        <v>-65600</v>
       </c>
       <c r="E101" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="F101" s="3">
-        <v>53100</v>
+        <v>54000</v>
       </c>
       <c r="G101" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H101" s="3">
         <v>200</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-437800</v>
+        <v>-445100</v>
       </c>
       <c r="E102" s="3">
-        <v>396100</v>
+        <v>402800</v>
       </c>
       <c r="F102" s="3">
-        <v>773400</v>
+        <v>786300</v>
       </c>
       <c r="G102" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H102" s="3">
-        <v>76900</v>
+        <v>78200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1503300</v>
+        <v>1514800</v>
       </c>
       <c r="E8" s="3">
-        <v>1140300</v>
+        <v>1149000</v>
       </c>
       <c r="F8" s="3">
-        <v>572100</v>
+        <v>576500</v>
       </c>
       <c r="G8" s="3">
-        <v>295200</v>
+        <v>297500</v>
       </c>
       <c r="H8" s="3">
-        <v>123200</v>
+        <v>124100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1259000</v>
+        <v>1268600</v>
       </c>
       <c r="E9" s="3">
-        <v>953000</v>
+        <v>960300</v>
       </c>
       <c r="F9" s="3">
-        <v>548500</v>
+        <v>552700</v>
       </c>
       <c r="G9" s="3">
-        <v>296000</v>
+        <v>298200</v>
       </c>
       <c r="H9" s="3">
-        <v>180800</v>
+        <v>182200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>244300</v>
+        <v>246200</v>
       </c>
       <c r="E10" s="3">
-        <v>187300</v>
+        <v>188700</v>
       </c>
       <c r="F10" s="3">
-        <v>23600</v>
+        <v>23800</v>
       </c>
       <c r="G10" s="3">
         <v>-700</v>
       </c>
       <c r="H10" s="3">
-        <v>-57700</v>
+        <v>-58100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>65200</v>
+        <v>65700</v>
       </c>
       <c r="E12" s="3">
-        <v>60100</v>
+        <v>60600</v>
       </c>
       <c r="F12" s="3">
-        <v>51600</v>
+        <v>52000</v>
       </c>
       <c r="G12" s="3">
-        <v>33200</v>
+        <v>33500</v>
       </c>
       <c r="H12" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -907,7 +907,7 @@
         <v>-3600</v>
       </c>
       <c r="G14" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1458600</v>
+        <v>1469700</v>
       </c>
       <c r="E17" s="3">
-        <v>1160900</v>
+        <v>1169800</v>
       </c>
       <c r="F17" s="3">
-        <v>706600</v>
+        <v>712100</v>
       </c>
       <c r="G17" s="3">
-        <v>392000</v>
+        <v>395000</v>
       </c>
       <c r="H17" s="3">
-        <v>244700</v>
+        <v>246600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>44700</v>
+        <v>45100</v>
       </c>
       <c r="E18" s="3">
-        <v>-20600</v>
+        <v>-20800</v>
       </c>
       <c r="F18" s="3">
-        <v>-134500</v>
+        <v>-135500</v>
       </c>
       <c r="G18" s="3">
-        <v>-96800</v>
+        <v>-97600</v>
       </c>
       <c r="H18" s="3">
-        <v>-121600</v>
+        <v>-122500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1057,10 +1057,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18400</v>
+        <v>18600</v>
       </c>
       <c r="E20" s="3">
-        <v>26300</v>
+        <v>26500</v>
       </c>
       <c r="F20" s="3">
         <v>-1600</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>80500</v>
+        <v>81200</v>
       </c>
       <c r="E21" s="3">
-        <v>19800</v>
+        <v>20000</v>
       </c>
       <c r="F21" s="3">
-        <v>-128900</v>
+        <v>-129900</v>
       </c>
       <c r="G21" s="3">
-        <v>-91700</v>
+        <v>-92400</v>
       </c>
       <c r="H21" s="3">
-        <v>-119700</v>
+        <v>-120600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>63200</v>
+        <v>63600</v>
       </c>
       <c r="E23" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F23" s="3">
-        <v>-136100</v>
+        <v>-137100</v>
       </c>
       <c r="G23" s="3">
-        <v>-95800</v>
+        <v>-96500</v>
       </c>
       <c r="H23" s="3">
-        <v>-122200</v>
+        <v>-123200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63200</v>
+        <v>63600</v>
       </c>
       <c r="E26" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F26" s="3">
-        <v>-136100</v>
+        <v>-137100</v>
       </c>
       <c r="G26" s="3">
-        <v>-95800</v>
+        <v>-96500</v>
       </c>
       <c r="H26" s="3">
-        <v>-122200</v>
+        <v>-123200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>76000</v>
+        <v>76600</v>
       </c>
       <c r="E27" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F27" s="3">
-        <v>-138200</v>
+        <v>-139300</v>
       </c>
       <c r="G27" s="3">
-        <v>-96000</v>
+        <v>-96700</v>
       </c>
       <c r="H27" s="3">
-        <v>-167200</v>
+        <v>-168500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1453,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18400</v>
+        <v>-18600</v>
       </c>
       <c r="E32" s="3">
-        <v>-26300</v>
+        <v>-26500</v>
       </c>
       <c r="F32" s="3">
         <v>1600</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>76000</v>
+        <v>76600</v>
       </c>
       <c r="E33" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F33" s="3">
-        <v>-138200</v>
+        <v>-139300</v>
       </c>
       <c r="G33" s="3">
-        <v>-96000</v>
+        <v>-96700</v>
       </c>
       <c r="H33" s="3">
-        <v>-167200</v>
+        <v>-168500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>76000</v>
+        <v>76600</v>
       </c>
       <c r="E35" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F35" s="3">
-        <v>-138200</v>
+        <v>-139300</v>
       </c>
       <c r="G35" s="3">
-        <v>-96000</v>
+        <v>-96700</v>
       </c>
       <c r="H35" s="3">
-        <v>-167200</v>
+        <v>-168500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>826600</v>
+        <v>833000</v>
       </c>
       <c r="E41" s="3">
-        <v>1266900</v>
+        <v>1276600</v>
       </c>
       <c r="F41" s="3">
-        <v>870800</v>
+        <v>877500</v>
       </c>
       <c r="G41" s="3">
-        <v>84500</v>
+        <v>85100</v>
       </c>
       <c r="H41" s="3">
-        <v>80900</v>
+        <v>81500</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65700</v>
+        <v>66200</v>
       </c>
       <c r="E43" s="3">
-        <v>62200</v>
+        <v>62700</v>
       </c>
       <c r="F43" s="3">
-        <v>59900</v>
+        <v>60300</v>
       </c>
       <c r="G43" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="H43" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>365400</v>
+        <v>368200</v>
       </c>
       <c r="E45" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="F45" s="3">
-        <v>27000</v>
+        <v>27200</v>
       </c>
       <c r="G45" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="H45" s="3">
         <v>6600</v>
@@ -1818,19 +1818,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1257800</v>
+        <v>1267400</v>
       </c>
       <c r="E46" s="3">
-        <v>1346700</v>
+        <v>1357000</v>
       </c>
       <c r="F46" s="3">
-        <v>957700</v>
+        <v>965000</v>
       </c>
       <c r="G46" s="3">
-        <v>135100</v>
+        <v>136100</v>
       </c>
       <c r="H46" s="3">
-        <v>105800</v>
+        <v>106600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1851,16 +1851,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78400</v>
+        <v>79000</v>
       </c>
       <c r="E47" s="3">
-        <v>35300</v>
+        <v>35600</v>
       </c>
       <c r="F47" s="3">
-        <v>21000</v>
+        <v>21200</v>
       </c>
       <c r="G47" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="H47" s="3">
         <v>4600</v>
@@ -1884,19 +1884,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="E48" s="3">
         <v>6100</v>
       </c>
       <c r="F48" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G48" s="3">
         <v>7900</v>
       </c>
       <c r="H48" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1917,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="E49" s="3">
-        <v>35900</v>
+        <v>36100</v>
       </c>
       <c r="F49" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="G49" s="3">
         <v>2600</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18600</v>
+        <v>18800</v>
       </c>
       <c r="E52" s="3">
         <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
@@ -2082,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1394600</v>
+        <v>1405300</v>
       </c>
       <c r="E54" s="3">
-        <v>1425300</v>
+        <v>1436200</v>
       </c>
       <c r="F54" s="3">
-        <v>1016800</v>
+        <v>1024600</v>
       </c>
       <c r="G54" s="3">
-        <v>161500</v>
+        <v>162700</v>
       </c>
       <c r="H54" s="3">
-        <v>121900</v>
+        <v>122900</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>154400</v>
+        <v>155600</v>
       </c>
       <c r="E57" s="3">
-        <v>139300</v>
+        <v>140400</v>
       </c>
       <c r="F57" s="3">
-        <v>125300</v>
+        <v>126300</v>
       </c>
       <c r="G57" s="3">
-        <v>70800</v>
+        <v>71300</v>
       </c>
       <c r="H57" s="3">
-        <v>52600</v>
+        <v>53000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>140400</v>
+        <v>141500</v>
       </c>
       <c r="E59" s="3">
-        <v>141600</v>
+        <v>142600</v>
       </c>
       <c r="F59" s="3">
-        <v>323100</v>
+        <v>325500</v>
       </c>
       <c r="G59" s="3">
-        <v>65700</v>
+        <v>66200</v>
       </c>
       <c r="H59" s="3">
-        <v>29400</v>
+        <v>29600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>294800</v>
+        <v>297000</v>
       </c>
       <c r="E60" s="3">
-        <v>280900</v>
+        <v>283100</v>
       </c>
       <c r="F60" s="3">
-        <v>448400</v>
+        <v>451800</v>
       </c>
       <c r="G60" s="3">
-        <v>136500</v>
+        <v>137600</v>
       </c>
       <c r="H60" s="3">
-        <v>82000</v>
+        <v>82700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2313,7 +2313,7 @@
         <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>308300</v>
+        <v>310600</v>
       </c>
       <c r="E66" s="3">
-        <v>291500</v>
+        <v>293700</v>
       </c>
       <c r="F66" s="3">
-        <v>448400</v>
+        <v>451800</v>
       </c>
       <c r="G66" s="3">
-        <v>136500</v>
+        <v>137600</v>
       </c>
       <c r="H66" s="3">
-        <v>82000</v>
+        <v>82700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2562,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1040300</v>
+        <v>1048300</v>
       </c>
       <c r="G70" s="3">
-        <v>411700</v>
+        <v>414800</v>
       </c>
       <c r="H70" s="3">
-        <v>333400</v>
+        <v>335900</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-448300</v>
+        <v>-451700</v>
       </c>
       <c r="E72" s="3">
-        <v>-524300</v>
+        <v>-528300</v>
       </c>
       <c r="F72" s="3">
-        <v>-530500</v>
+        <v>-534600</v>
       </c>
       <c r="G72" s="3">
-        <v>-393300</v>
+        <v>-396300</v>
       </c>
       <c r="H72" s="3">
-        <v>-297400</v>
+        <v>-299600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,19 +2754,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1086400</v>
+        <v>1094700</v>
       </c>
       <c r="E76" s="3">
-        <v>1133800</v>
+        <v>1142500</v>
       </c>
       <c r="F76" s="3">
-        <v>-471800</v>
+        <v>-475500</v>
       </c>
       <c r="G76" s="3">
-        <v>-386700</v>
+        <v>-389600</v>
       </c>
       <c r="H76" s="3">
-        <v>-293500</v>
+        <v>-295700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>76000</v>
+        <v>76600</v>
       </c>
       <c r="E81" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F81" s="3">
-        <v>-138200</v>
+        <v>-139300</v>
       </c>
       <c r="G81" s="3">
-        <v>-96000</v>
+        <v>-96700</v>
       </c>
       <c r="H81" s="3">
-        <v>-167200</v>
+        <v>-168500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="E83" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="F83" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="G83" s="3">
         <v>4100</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>104500</v>
+        <v>105300</v>
       </c>
       <c r="E89" s="3">
-        <v>127300</v>
+        <v>128300</v>
       </c>
       <c r="F89" s="3">
-        <v>-52900</v>
+        <v>-53300</v>
       </c>
       <c r="G89" s="3">
-        <v>-59700</v>
+        <v>-60100</v>
       </c>
       <c r="H89" s="3">
-        <v>-111800</v>
+        <v>-112700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3158,10 +3158,10 @@
         <v>-2500</v>
       </c>
       <c r="F91" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="H91" s="3">
         <v>-7000</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-409000</v>
+        <v>-412200</v>
       </c>
       <c r="E94" s="3">
-        <v>-38600</v>
+        <v>-38900</v>
       </c>
       <c r="F94" s="3">
-        <v>-41500</v>
+        <v>-41800</v>
       </c>
       <c r="G94" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="H94" s="3">
-        <v>-13500</v>
+        <v>-13600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-75000</v>
+        <v>-75600</v>
       </c>
       <c r="E100" s="3">
-        <v>296900</v>
+        <v>299200</v>
       </c>
       <c r="F100" s="3">
-        <v>826700</v>
+        <v>833000</v>
       </c>
       <c r="G100" s="3">
-        <v>78300</v>
+        <v>78900</v>
       </c>
       <c r="H100" s="3">
-        <v>203200</v>
+        <v>204800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,13 +3464,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-65600</v>
+        <v>-66100</v>
       </c>
       <c r="E101" s="3">
-        <v>17100</v>
+        <v>17300</v>
       </c>
       <c r="F101" s="3">
-        <v>54000</v>
+        <v>54400</v>
       </c>
       <c r="G101" s="3">
         <v>-700</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-445100</v>
+        <v>-448500</v>
       </c>
       <c r="E102" s="3">
-        <v>402800</v>
+        <v>405900</v>
       </c>
       <c r="F102" s="3">
-        <v>786300</v>
+        <v>792400</v>
       </c>
       <c r="G102" s="3">
         <v>3600</v>
       </c>
       <c r="H102" s="3">
-        <v>78200</v>
+        <v>78800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>DOYU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1514800</v>
+        <v>1350600</v>
       </c>
       <c r="E8" s="3">
-        <v>1149000</v>
+        <v>1414900</v>
       </c>
       <c r="F8" s="3">
-        <v>576500</v>
+        <v>1073300</v>
       </c>
       <c r="G8" s="3">
-        <v>297500</v>
+        <v>538500</v>
       </c>
       <c r="H8" s="3">
-        <v>124100</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>277900</v>
+      </c>
+      <c r="I8" s="3">
+        <v>115900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1268600</v>
+        <v>1190000</v>
       </c>
       <c r="E9" s="3">
-        <v>960300</v>
+        <v>1185000</v>
       </c>
       <c r="F9" s="3">
-        <v>552700</v>
+        <v>897000</v>
       </c>
       <c r="G9" s="3">
-        <v>298200</v>
+        <v>516300</v>
       </c>
       <c r="H9" s="3">
-        <v>182200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>278600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>170200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>246200</v>
+        <v>160600</v>
       </c>
       <c r="E10" s="3">
-        <v>188700</v>
+        <v>229900</v>
       </c>
       <c r="F10" s="3">
-        <v>23800</v>
+        <v>176300</v>
       </c>
       <c r="G10" s="3">
+        <v>22300</v>
+      </c>
+      <c r="H10" s="3">
         <v>-700</v>
       </c>
-      <c r="H10" s="3">
-        <v>-58100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>-54300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,28 +838,29 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>65700</v>
+        <v>72200</v>
       </c>
       <c r="E12" s="3">
-        <v>60600</v>
+        <v>61300</v>
       </c>
       <c r="F12" s="3">
-        <v>52000</v>
+        <v>56600</v>
       </c>
       <c r="G12" s="3">
-        <v>33500</v>
+        <v>48500</v>
       </c>
       <c r="H12" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>31300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13800</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,29 +907,32 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-3600</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>-1100</v>
+        <v>-3400</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>-1000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -924,9 +943,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1469700</v>
+        <v>1446200</v>
       </c>
       <c r="E17" s="3">
-        <v>1169800</v>
+        <v>1372800</v>
       </c>
       <c r="F17" s="3">
-        <v>712100</v>
+        <v>1092700</v>
       </c>
       <c r="G17" s="3">
-        <v>395000</v>
+        <v>665100</v>
       </c>
       <c r="H17" s="3">
-        <v>246600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>369000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>230400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>45100</v>
+        <v>-95600</v>
       </c>
       <c r="E18" s="3">
-        <v>-20800</v>
+        <v>42100</v>
       </c>
       <c r="F18" s="3">
-        <v>-135500</v>
+        <v>-19400</v>
       </c>
       <c r="G18" s="3">
-        <v>-97600</v>
+        <v>-126600</v>
       </c>
       <c r="H18" s="3">
-        <v>-122500</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-91100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-114400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,29 +1083,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18600</v>
+        <v>6400</v>
       </c>
       <c r="E20" s="3">
-        <v>26500</v>
+        <v>17400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1600</v>
+        <v>24800</v>
       </c>
       <c r="G20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>81200</v>
+        <v>-76000</v>
       </c>
       <c r="E21" s="3">
-        <v>20000</v>
+        <v>76000</v>
       </c>
       <c r="F21" s="3">
-        <v>-129900</v>
+        <v>18800</v>
       </c>
       <c r="G21" s="3">
-        <v>-92400</v>
+        <v>-121300</v>
       </c>
       <c r="H21" s="3">
-        <v>-120600</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-86300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-112700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1128,17 +1167,17 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1149,29 +1188,32 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>63600</v>
+        <v>-89200</v>
       </c>
       <c r="E23" s="3">
-        <v>5800</v>
+        <v>59400</v>
       </c>
       <c r="F23" s="3">
-        <v>-137100</v>
+        <v>5400</v>
       </c>
       <c r="G23" s="3">
-        <v>-96500</v>
+        <v>-128100</v>
       </c>
       <c r="H23" s="3">
-        <v>-123200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-90200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-115000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,9 +1224,12 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63600</v>
+        <v>-89200</v>
       </c>
       <c r="E26" s="3">
-        <v>5800</v>
+        <v>59400</v>
       </c>
       <c r="F26" s="3">
-        <v>-137100</v>
+        <v>5400</v>
       </c>
       <c r="G26" s="3">
-        <v>-96500</v>
+        <v>-128100</v>
       </c>
       <c r="H26" s="3">
-        <v>-123200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-90200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-115000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>76600</v>
+        <v>-85700</v>
       </c>
       <c r="E27" s="3">
-        <v>6300</v>
+        <v>71500</v>
       </c>
       <c r="F27" s="3">
-        <v>-139300</v>
+        <v>5900</v>
       </c>
       <c r="G27" s="3">
-        <v>-96700</v>
+        <v>-130100</v>
       </c>
       <c r="H27" s="3">
-        <v>-168500</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-90300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-157400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,30 +1512,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18600</v>
+        <v>-6400</v>
       </c>
       <c r="E32" s="3">
-        <v>-26500</v>
+        <v>-17400</v>
       </c>
       <c r="F32" s="3">
-        <v>1600</v>
+        <v>-24800</v>
       </c>
       <c r="G32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>76600</v>
+        <v>-85700</v>
       </c>
       <c r="E33" s="3">
-        <v>6300</v>
+        <v>71500</v>
       </c>
       <c r="F33" s="3">
-        <v>-139300</v>
+        <v>5900</v>
       </c>
       <c r="G33" s="3">
-        <v>-96700</v>
+        <v>-130100</v>
       </c>
       <c r="H33" s="3">
-        <v>-168500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-90300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-157400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>76600</v>
+        <v>-85700</v>
       </c>
       <c r="E35" s="3">
-        <v>6300</v>
+        <v>71500</v>
       </c>
       <c r="F35" s="3">
-        <v>-139300</v>
+        <v>5900</v>
       </c>
       <c r="G35" s="3">
-        <v>-96700</v>
+        <v>-130100</v>
       </c>
       <c r="H35" s="3">
-        <v>-168500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-90300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-157400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,28 +1732,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>833000</v>
+        <v>656700</v>
       </c>
       <c r="E41" s="3">
-        <v>1276600</v>
+        <v>778000</v>
       </c>
       <c r="F41" s="3">
-        <v>877500</v>
+        <v>1192400</v>
       </c>
       <c r="G41" s="3">
-        <v>85100</v>
+        <v>819600</v>
       </c>
       <c r="H41" s="3">
-        <v>81500</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>79500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>76200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,29 +1801,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66200</v>
+        <v>80900</v>
       </c>
       <c r="E43" s="3">
-        <v>62700</v>
+        <v>61900</v>
       </c>
       <c r="F43" s="3">
-        <v>60300</v>
+        <v>58500</v>
       </c>
       <c r="G43" s="3">
-        <v>36600</v>
+        <v>56400</v>
       </c>
       <c r="H43" s="3">
-        <v>18500</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>34200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>17300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,29 +1873,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>368200</v>
+        <v>327700</v>
       </c>
       <c r="E45" s="3">
-        <v>17700</v>
+        <v>343900</v>
       </c>
       <c r="F45" s="3">
-        <v>27200</v>
+        <v>16600</v>
       </c>
       <c r="G45" s="3">
-        <v>14400</v>
+        <v>25400</v>
       </c>
       <c r="H45" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>13400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1811,29 +1909,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1267400</v>
+        <v>1065300</v>
       </c>
       <c r="E46" s="3">
-        <v>1357000</v>
+        <v>1183900</v>
       </c>
       <c r="F46" s="3">
-        <v>965000</v>
+        <v>1267500</v>
       </c>
       <c r="G46" s="3">
-        <v>136100</v>
+        <v>901400</v>
       </c>
       <c r="H46" s="3">
-        <v>106600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>127200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>99600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1844,29 +1945,32 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>79000</v>
+        <v>72400</v>
       </c>
       <c r="E47" s="3">
-        <v>35600</v>
+        <v>73800</v>
       </c>
       <c r="F47" s="3">
-        <v>21200</v>
+        <v>33200</v>
       </c>
       <c r="G47" s="3">
-        <v>15200</v>
+        <v>19800</v>
       </c>
       <c r="H47" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>14200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>4300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1877,29 +1981,32 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15800</v>
+        <v>14400</v>
       </c>
       <c r="E48" s="3">
-        <v>6100</v>
+        <v>14700</v>
       </c>
       <c r="F48" s="3">
-        <v>8000</v>
+        <v>5700</v>
       </c>
       <c r="G48" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="H48" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>7300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1910,29 +2017,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24400</v>
+        <v>25700</v>
       </c>
       <c r="E49" s="3">
-        <v>36100</v>
+        <v>22800</v>
       </c>
       <c r="F49" s="3">
-        <v>22800</v>
+        <v>33700</v>
       </c>
       <c r="G49" s="3">
-        <v>2600</v>
+        <v>21300</v>
       </c>
       <c r="H49" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,29 +2125,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18800</v>
+        <v>24300</v>
       </c>
       <c r="E52" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
-        <v>7700</v>
-      </c>
       <c r="G52" s="3">
-        <v>900</v>
+        <v>7200</v>
       </c>
       <c r="H52" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,29 +2197,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1405300</v>
+        <v>1202000</v>
       </c>
       <c r="E54" s="3">
-        <v>1436200</v>
+        <v>1312700</v>
       </c>
       <c r="F54" s="3">
-        <v>1024600</v>
+        <v>1341500</v>
       </c>
       <c r="G54" s="3">
-        <v>162700</v>
+        <v>957100</v>
       </c>
       <c r="H54" s="3">
-        <v>122900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>152000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>114800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,28 +2268,29 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>155600</v>
+        <v>121400</v>
       </c>
       <c r="E57" s="3">
-        <v>140400</v>
+        <v>145300</v>
       </c>
       <c r="F57" s="3">
-        <v>126300</v>
+        <v>131200</v>
       </c>
       <c r="G57" s="3">
-        <v>71300</v>
+        <v>117900</v>
       </c>
       <c r="H57" s="3">
-        <v>53000</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>66600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>49500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2171,9 +2301,12 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2204,29 +2337,32 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>141500</v>
+        <v>151000</v>
       </c>
       <c r="E59" s="3">
-        <v>142600</v>
+        <v>132100</v>
       </c>
       <c r="F59" s="3">
-        <v>325500</v>
+        <v>133200</v>
       </c>
       <c r="G59" s="3">
-        <v>66200</v>
+        <v>304100</v>
       </c>
       <c r="H59" s="3">
-        <v>29600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>61900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>27700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2237,29 +2373,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>297000</v>
+        <v>272500</v>
       </c>
       <c r="E60" s="3">
-        <v>283100</v>
+        <v>277500</v>
       </c>
       <c r="F60" s="3">
-        <v>451800</v>
+        <v>264400</v>
       </c>
       <c r="G60" s="3">
-        <v>137600</v>
+        <v>422000</v>
       </c>
       <c r="H60" s="3">
-        <v>82700</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>128500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>77200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2303,20 +2445,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="E62" s="3">
-        <v>7300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6800</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2333,12 +2478,15 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,29 +2589,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>310600</v>
+        <v>279700</v>
       </c>
       <c r="E66" s="3">
-        <v>293700</v>
+        <v>290100</v>
       </c>
       <c r="F66" s="3">
-        <v>451800</v>
+        <v>274300</v>
       </c>
       <c r="G66" s="3">
-        <v>137600</v>
+        <v>422000</v>
       </c>
       <c r="H66" s="3">
-        <v>82700</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>128500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>77200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,16 +2729,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1048300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>414800</v>
+        <v>979200</v>
       </c>
       <c r="H70" s="3">
-        <v>335900</v>
+        <v>387500</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>313800</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,29 +2785,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-451700</v>
+        <v>-507700</v>
       </c>
       <c r="E72" s="3">
-        <v>-528300</v>
+        <v>-421900</v>
       </c>
       <c r="F72" s="3">
-        <v>-534600</v>
+        <v>-493500</v>
       </c>
       <c r="G72" s="3">
-        <v>-396300</v>
+        <v>-499300</v>
       </c>
       <c r="H72" s="3">
-        <v>-299600</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-370200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-279900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,29 +2929,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1094700</v>
+        <v>922300</v>
       </c>
       <c r="E76" s="3">
-        <v>1142500</v>
+        <v>1022500</v>
       </c>
       <c r="F76" s="3">
-        <v>-475500</v>
+        <v>1067200</v>
       </c>
       <c r="G76" s="3">
-        <v>-389600</v>
+        <v>-444100</v>
       </c>
       <c r="H76" s="3">
-        <v>-295700</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-364000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-276200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>76600</v>
+        <v>-85700</v>
       </c>
       <c r="E81" s="3">
-        <v>6300</v>
+        <v>71500</v>
       </c>
       <c r="F81" s="3">
-        <v>-139300</v>
+        <v>5900</v>
       </c>
       <c r="G81" s="3">
-        <v>-96700</v>
+        <v>-130100</v>
       </c>
       <c r="H81" s="3">
-        <v>-168500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-90300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-157400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17500</v>
+        <v>13100</v>
       </c>
       <c r="E83" s="3">
-        <v>14200</v>
+        <v>16300</v>
       </c>
       <c r="F83" s="3">
-        <v>7200</v>
+        <v>13300</v>
       </c>
       <c r="G83" s="3">
-        <v>4100</v>
+        <v>6700</v>
       </c>
       <c r="H83" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>105300</v>
+        <v>-86400</v>
       </c>
       <c r="E89" s="3">
-        <v>128300</v>
+        <v>98400</v>
       </c>
       <c r="F89" s="3">
-        <v>-53300</v>
+        <v>119800</v>
       </c>
       <c r="G89" s="3">
-        <v>-60100</v>
+        <v>-49700</v>
       </c>
       <c r="H89" s="3">
-        <v>-112700</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-56100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-105200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,28 +3365,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3000</v>
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2500</v>
+        <v>-2800</v>
       </c>
       <c r="F91" s="3">
-        <v>-5200</v>
+        <v>-2400</v>
       </c>
       <c r="G91" s="3">
-        <v>-3800</v>
+        <v>-4800</v>
       </c>
       <c r="H91" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-3500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-6600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,29 +3470,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-412200</v>
+        <v>-2800</v>
       </c>
       <c r="E94" s="3">
-        <v>-38900</v>
+        <v>-385000</v>
       </c>
       <c r="F94" s="3">
-        <v>-41800</v>
+        <v>-36300</v>
       </c>
       <c r="G94" s="3">
-        <v>-14500</v>
+        <v>-39000</v>
       </c>
       <c r="H94" s="3">
         <v>-13600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-12700</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,29 +3666,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-75600</v>
+        <v>-15800</v>
       </c>
       <c r="E100" s="3">
-        <v>299200</v>
+        <v>-70600</v>
       </c>
       <c r="F100" s="3">
-        <v>833000</v>
+        <v>279400</v>
       </c>
       <c r="G100" s="3">
-        <v>78900</v>
+        <v>778100</v>
       </c>
       <c r="H100" s="3">
-        <v>204800</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>73700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>191300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3457,30 +3702,33 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-66100</v>
+        <v>-16500</v>
       </c>
       <c r="E101" s="3">
-        <v>17300</v>
+        <v>-61700</v>
       </c>
       <c r="F101" s="3">
-        <v>54400</v>
+        <v>16100</v>
       </c>
       <c r="G101" s="3">
-        <v>-700</v>
+        <v>50800</v>
       </c>
       <c r="H101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,29 +3738,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-448500</v>
+        <v>-121500</v>
       </c>
       <c r="E102" s="3">
-        <v>405900</v>
+        <v>-419000</v>
       </c>
       <c r="F102" s="3">
-        <v>792400</v>
+        <v>379100</v>
       </c>
       <c r="G102" s="3">
-        <v>3600</v>
+        <v>740100</v>
       </c>
       <c r="H102" s="3">
-        <v>78800</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>3400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>73600</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>DOYU</t>
   </si>
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1350600</v>
+        <v>1338400</v>
       </c>
       <c r="E8" s="3">
-        <v>1414900</v>
+        <v>1402200</v>
       </c>
       <c r="F8" s="3">
-        <v>1073300</v>
+        <v>1063600</v>
       </c>
       <c r="G8" s="3">
-        <v>538500</v>
+        <v>533600</v>
       </c>
       <c r="H8" s="3">
-        <v>277900</v>
+        <v>275400</v>
       </c>
       <c r="I8" s="3">
-        <v>115900</v>
+        <v>114900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1190000</v>
+        <v>1179300</v>
       </c>
       <c r="E9" s="3">
-        <v>1185000</v>
+        <v>1174300</v>
       </c>
       <c r="F9" s="3">
-        <v>897000</v>
+        <v>888900</v>
       </c>
       <c r="G9" s="3">
-        <v>516300</v>
+        <v>511600</v>
       </c>
       <c r="H9" s="3">
-        <v>278600</v>
+        <v>276100</v>
       </c>
       <c r="I9" s="3">
-        <v>170200</v>
+        <v>168700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>160600</v>
+        <v>159200</v>
       </c>
       <c r="E10" s="3">
-        <v>229900</v>
+        <v>227900</v>
       </c>
       <c r="F10" s="3">
-        <v>176300</v>
+        <v>174700</v>
       </c>
       <c r="G10" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="H10" s="3">
         <v>-700</v>
       </c>
       <c r="I10" s="3">
-        <v>-54300</v>
+        <v>-53800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>72200</v>
+        <v>71600</v>
       </c>
       <c r="E12" s="3">
-        <v>61300</v>
+        <v>60800</v>
       </c>
       <c r="F12" s="3">
-        <v>56600</v>
+        <v>56100</v>
       </c>
       <c r="G12" s="3">
-        <v>48500</v>
+        <v>48100</v>
       </c>
       <c r="H12" s="3">
-        <v>31300</v>
+        <v>31000</v>
       </c>
       <c r="I12" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1446200</v>
+        <v>1433100</v>
       </c>
       <c r="E17" s="3">
-        <v>1372800</v>
+        <v>1360500</v>
       </c>
       <c r="F17" s="3">
-        <v>1092700</v>
+        <v>1082800</v>
       </c>
       <c r="G17" s="3">
-        <v>665100</v>
+        <v>659100</v>
       </c>
       <c r="H17" s="3">
-        <v>369000</v>
+        <v>365700</v>
       </c>
       <c r="I17" s="3">
-        <v>230400</v>
+        <v>228300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-95600</v>
+        <v>-94700</v>
       </c>
       <c r="E18" s="3">
-        <v>42100</v>
+        <v>41700</v>
       </c>
       <c r="F18" s="3">
-        <v>-19400</v>
+        <v>-19200</v>
       </c>
       <c r="G18" s="3">
-        <v>-126600</v>
+        <v>-125500</v>
       </c>
       <c r="H18" s="3">
-        <v>-91100</v>
+        <v>-90300</v>
       </c>
       <c r="I18" s="3">
-        <v>-114400</v>
+        <v>-113400</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1093,10 +1093,10 @@
         <v>6400</v>
       </c>
       <c r="E20" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="F20" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="G20" s="3">
         <v>-1500</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-76000</v>
+        <v>-75400</v>
       </c>
       <c r="E21" s="3">
-        <v>76000</v>
+        <v>75100</v>
       </c>
       <c r="F21" s="3">
-        <v>18800</v>
+        <v>18500</v>
       </c>
       <c r="G21" s="3">
-        <v>-121300</v>
+        <v>-120300</v>
       </c>
       <c r="H21" s="3">
-        <v>-86300</v>
+        <v>-85500</v>
       </c>
       <c r="I21" s="3">
-        <v>-112700</v>
+        <v>-111700</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-89200</v>
+        <v>-88400</v>
       </c>
       <c r="E23" s="3">
-        <v>59400</v>
+        <v>58900</v>
       </c>
       <c r="F23" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="G23" s="3">
-        <v>-128100</v>
+        <v>-126900</v>
       </c>
       <c r="H23" s="3">
-        <v>-90200</v>
+        <v>-89300</v>
       </c>
       <c r="I23" s="3">
-        <v>-115000</v>
+        <v>-114000</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-89200</v>
+        <v>-88400</v>
       </c>
       <c r="E26" s="3">
-        <v>59400</v>
+        <v>58900</v>
       </c>
       <c r="F26" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="G26" s="3">
-        <v>-128100</v>
+        <v>-126900</v>
       </c>
       <c r="H26" s="3">
-        <v>-90200</v>
+        <v>-89300</v>
       </c>
       <c r="I26" s="3">
-        <v>-115000</v>
+        <v>-114000</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-85700</v>
+        <v>-85000</v>
       </c>
       <c r="E27" s="3">
-        <v>71500</v>
+        <v>70900</v>
       </c>
       <c r="F27" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G27" s="3">
-        <v>-130100</v>
+        <v>-128900</v>
       </c>
       <c r="H27" s="3">
-        <v>-90300</v>
+        <v>-89500</v>
       </c>
       <c r="I27" s="3">
-        <v>-157400</v>
+        <v>-155900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1525,10 +1525,10 @@
         <v>-6400</v>
       </c>
       <c r="E32" s="3">
-        <v>-17400</v>
+        <v>-17200</v>
       </c>
       <c r="F32" s="3">
-        <v>-24800</v>
+        <v>-24600</v>
       </c>
       <c r="G32" s="3">
         <v>1500</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-85700</v>
+        <v>-85000</v>
       </c>
       <c r="E33" s="3">
-        <v>71500</v>
+        <v>70900</v>
       </c>
       <c r="F33" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G33" s="3">
-        <v>-130100</v>
+        <v>-128900</v>
       </c>
       <c r="H33" s="3">
-        <v>-90300</v>
+        <v>-89500</v>
       </c>
       <c r="I33" s="3">
-        <v>-157400</v>
+        <v>-155900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-85700</v>
+        <v>-85000</v>
       </c>
       <c r="E35" s="3">
-        <v>71500</v>
+        <v>70900</v>
       </c>
       <c r="F35" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G35" s="3">
-        <v>-130100</v>
+        <v>-128900</v>
       </c>
       <c r="H35" s="3">
-        <v>-90300</v>
+        <v>-89500</v>
       </c>
       <c r="I35" s="3">
-        <v>-157400</v>
+        <v>-155900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>656700</v>
+        <v>650800</v>
       </c>
       <c r="E41" s="3">
-        <v>778000</v>
+        <v>771000</v>
       </c>
       <c r="F41" s="3">
-        <v>1192400</v>
+        <v>1181700</v>
       </c>
       <c r="G41" s="3">
-        <v>819600</v>
+        <v>812200</v>
       </c>
       <c r="H41" s="3">
-        <v>79500</v>
+        <v>78800</v>
       </c>
       <c r="I41" s="3">
-        <v>76200</v>
+        <v>75500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>303200</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>325700</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>80900</v>
+        <v>80200</v>
       </c>
       <c r="E43" s="3">
-        <v>61900</v>
+        <v>61300</v>
       </c>
       <c r="F43" s="3">
-        <v>58500</v>
+        <v>58000</v>
       </c>
       <c r="G43" s="3">
-        <v>56400</v>
+        <v>55800</v>
       </c>
       <c r="H43" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="I43" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>327700</v>
+        <v>21500</v>
       </c>
       <c r="E45" s="3">
-        <v>343900</v>
+        <v>15200</v>
       </c>
       <c r="F45" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="G45" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="H45" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="I45" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1065300</v>
+        <v>1055700</v>
       </c>
       <c r="E46" s="3">
-        <v>1183900</v>
+        <v>1173200</v>
       </c>
       <c r="F46" s="3">
-        <v>1267500</v>
+        <v>1256100</v>
       </c>
       <c r="G46" s="3">
-        <v>901400</v>
+        <v>893300</v>
       </c>
       <c r="H46" s="3">
-        <v>127200</v>
+        <v>126000</v>
       </c>
       <c r="I46" s="3">
-        <v>99600</v>
+        <v>98700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,19 +1955,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>72400</v>
+        <v>71800</v>
       </c>
       <c r="E47" s="3">
-        <v>73800</v>
+        <v>73100</v>
       </c>
       <c r="F47" s="3">
-        <v>33200</v>
+        <v>32900</v>
       </c>
       <c r="G47" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="H47" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="I47" s="3">
         <v>4300</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="E48" s="3">
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="F48" s="3">
         <v>5700</v>
@@ -2003,10 +2003,10 @@
         <v>7400</v>
       </c>
       <c r="H48" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="I48" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="E49" s="3">
-        <v>22800</v>
+        <v>22600</v>
       </c>
       <c r="F49" s="3">
-        <v>33700</v>
+        <v>33400</v>
       </c>
       <c r="G49" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="H49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I49" s="3">
         <v>1700</v>
@@ -2135,16 +2135,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24300</v>
+        <v>24100</v>
       </c>
       <c r="E52" s="3">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="F52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G52" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="H52" s="3">
         <v>800</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1202000</v>
+        <v>1191200</v>
       </c>
       <c r="E54" s="3">
-        <v>1312700</v>
+        <v>1300800</v>
       </c>
       <c r="F54" s="3">
-        <v>1341500</v>
+        <v>1329400</v>
       </c>
       <c r="G54" s="3">
-        <v>957100</v>
+        <v>948400</v>
       </c>
       <c r="H54" s="3">
-        <v>152000</v>
+        <v>150600</v>
       </c>
       <c r="I54" s="3">
-        <v>114800</v>
+        <v>113700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>121400</v>
+        <v>120300</v>
       </c>
       <c r="E57" s="3">
-        <v>145300</v>
+        <v>144000</v>
       </c>
       <c r="F57" s="3">
-        <v>131200</v>
+        <v>130000</v>
       </c>
       <c r="G57" s="3">
-        <v>117900</v>
+        <v>116900</v>
       </c>
       <c r="H57" s="3">
-        <v>66600</v>
+        <v>66000</v>
       </c>
       <c r="I57" s="3">
-        <v>49500</v>
+        <v>49100</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>151000</v>
+        <v>149700</v>
       </c>
       <c r="E59" s="3">
-        <v>132100</v>
+        <v>131000</v>
       </c>
       <c r="F59" s="3">
-        <v>133200</v>
+        <v>132000</v>
       </c>
       <c r="G59" s="3">
-        <v>304100</v>
+        <v>301300</v>
       </c>
       <c r="H59" s="3">
-        <v>61900</v>
+        <v>61300</v>
       </c>
       <c r="I59" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>272500</v>
+        <v>270000</v>
       </c>
       <c r="E60" s="3">
-        <v>277500</v>
+        <v>275000</v>
       </c>
       <c r="F60" s="3">
-        <v>264400</v>
+        <v>262000</v>
       </c>
       <c r="G60" s="3">
-        <v>422000</v>
+        <v>418200</v>
       </c>
       <c r="H60" s="3">
-        <v>128500</v>
+        <v>127300</v>
       </c>
       <c r="I60" s="3">
-        <v>77200</v>
+        <v>76500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="E62" s="3">
         <v>7000</v>
       </c>
       <c r="F62" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>279700</v>
+        <v>277200</v>
       </c>
       <c r="E66" s="3">
-        <v>290100</v>
+        <v>287500</v>
       </c>
       <c r="F66" s="3">
-        <v>274300</v>
+        <v>271900</v>
       </c>
       <c r="G66" s="3">
-        <v>422000</v>
+        <v>418200</v>
       </c>
       <c r="H66" s="3">
-        <v>128500</v>
+        <v>127300</v>
       </c>
       <c r="I66" s="3">
-        <v>77200</v>
+        <v>76500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>979200</v>
+        <v>970300</v>
       </c>
       <c r="H70" s="3">
-        <v>387500</v>
+        <v>384000</v>
       </c>
       <c r="I70" s="3">
-        <v>313800</v>
+        <v>311000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-507700</v>
+        <v>-503100</v>
       </c>
       <c r="E72" s="3">
-        <v>-421900</v>
+        <v>-418100</v>
       </c>
       <c r="F72" s="3">
-        <v>-493500</v>
+        <v>-489000</v>
       </c>
       <c r="G72" s="3">
-        <v>-499300</v>
+        <v>-494800</v>
       </c>
       <c r="H72" s="3">
-        <v>-370200</v>
+        <v>-366900</v>
       </c>
       <c r="I72" s="3">
-        <v>-279900</v>
+        <v>-277400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>922300</v>
+        <v>913900</v>
       </c>
       <c r="E76" s="3">
-        <v>1022500</v>
+        <v>1013300</v>
       </c>
       <c r="F76" s="3">
-        <v>1067200</v>
+        <v>1057500</v>
       </c>
       <c r="G76" s="3">
-        <v>-444100</v>
+        <v>-440100</v>
       </c>
       <c r="H76" s="3">
-        <v>-364000</v>
+        <v>-360700</v>
       </c>
       <c r="I76" s="3">
-        <v>-276200</v>
+        <v>-273800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-85700</v>
+        <v>-85000</v>
       </c>
       <c r="E81" s="3">
-        <v>71500</v>
+        <v>70900</v>
       </c>
       <c r="F81" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G81" s="3">
-        <v>-130100</v>
+        <v>-128900</v>
       </c>
       <c r="H81" s="3">
-        <v>-90300</v>
+        <v>-89500</v>
       </c>
       <c r="I81" s="3">
-        <v>-157400</v>
+        <v>-155900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="E83" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="F83" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="G83" s="3">
         <v>6700</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-86400</v>
+        <v>-85600</v>
       </c>
       <c r="E89" s="3">
-        <v>98400</v>
+        <v>97500</v>
       </c>
       <c r="F89" s="3">
-        <v>119800</v>
+        <v>118700</v>
       </c>
       <c r="G89" s="3">
-        <v>-49700</v>
+        <v>-49300</v>
       </c>
       <c r="H89" s="3">
-        <v>-56100</v>
+        <v>-55600</v>
       </c>
       <c r="I89" s="3">
-        <v>-105200</v>
+        <v>-104300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3378,7 +3378,7 @@
         <v>-2800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G91" s="3">
         <v>-4800</v>
@@ -3387,7 +3387,7 @@
         <v>-3500</v>
       </c>
       <c r="I91" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3483,19 +3483,19 @@
         <v>-2800</v>
       </c>
       <c r="E94" s="3">
-        <v>-385000</v>
+        <v>-381500</v>
       </c>
       <c r="F94" s="3">
-        <v>-36300</v>
+        <v>-36000</v>
       </c>
       <c r="G94" s="3">
-        <v>-39000</v>
+        <v>-38700</v>
       </c>
       <c r="H94" s="3">
-        <v>-13600</v>
+        <v>-13400</v>
       </c>
       <c r="I94" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15800</v>
+        <v>-15600</v>
       </c>
       <c r="E100" s="3">
-        <v>-70600</v>
+        <v>-70000</v>
       </c>
       <c r="F100" s="3">
-        <v>279400</v>
+        <v>276900</v>
       </c>
       <c r="G100" s="3">
-        <v>778100</v>
+        <v>771100</v>
       </c>
       <c r="H100" s="3">
-        <v>73700</v>
+        <v>73000</v>
       </c>
       <c r="I100" s="3">
-        <v>191300</v>
+        <v>189600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16500</v>
+        <v>-16400</v>
       </c>
       <c r="E101" s="3">
-        <v>-61700</v>
+        <v>-61200</v>
       </c>
       <c r="F101" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="G101" s="3">
-        <v>50800</v>
+        <v>50400</v>
       </c>
       <c r="H101" s="3">
         <v>-600</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-121500</v>
+        <v>-120400</v>
       </c>
       <c r="E102" s="3">
-        <v>-419000</v>
+        <v>-415200</v>
       </c>
       <c r="F102" s="3">
-        <v>379100</v>
+        <v>375700</v>
       </c>
       <c r="G102" s="3">
-        <v>740100</v>
+        <v>733500</v>
       </c>
       <c r="H102" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I102" s="3">
-        <v>73600</v>
+        <v>72900</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1338400</v>
+        <v>1275800</v>
       </c>
       <c r="E8" s="3">
-        <v>1402200</v>
+        <v>1336600</v>
       </c>
       <c r="F8" s="3">
-        <v>1063600</v>
+        <v>1013800</v>
       </c>
       <c r="G8" s="3">
-        <v>533600</v>
+        <v>508700</v>
       </c>
       <c r="H8" s="3">
-        <v>275400</v>
+        <v>262500</v>
       </c>
       <c r="I8" s="3">
-        <v>114900</v>
+        <v>109500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1179300</v>
+        <v>1124100</v>
       </c>
       <c r="E9" s="3">
-        <v>1174300</v>
+        <v>1119400</v>
       </c>
       <c r="F9" s="3">
-        <v>888900</v>
+        <v>847300</v>
       </c>
       <c r="G9" s="3">
-        <v>511600</v>
+        <v>487700</v>
       </c>
       <c r="H9" s="3">
-        <v>276100</v>
+        <v>263100</v>
       </c>
       <c r="I9" s="3">
-        <v>168700</v>
+        <v>160800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>159200</v>
+        <v>151700</v>
       </c>
       <c r="E10" s="3">
-        <v>227900</v>
+        <v>217200</v>
       </c>
       <c r="F10" s="3">
-        <v>174700</v>
+        <v>166500</v>
       </c>
       <c r="G10" s="3">
-        <v>22100</v>
+        <v>21000</v>
       </c>
       <c r="H10" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I10" s="3">
-        <v>-53800</v>
+        <v>-51300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>71600</v>
+        <v>68200</v>
       </c>
       <c r="E12" s="3">
-        <v>60800</v>
+        <v>57900</v>
       </c>
       <c r="F12" s="3">
-        <v>56100</v>
+        <v>53400</v>
       </c>
       <c r="G12" s="3">
-        <v>48100</v>
+        <v>45800</v>
       </c>
       <c r="H12" s="3">
-        <v>31000</v>
+        <v>29500</v>
       </c>
       <c r="I12" s="3">
-        <v>13600</v>
+        <v>13000</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -920,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="H14" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1433100</v>
+        <v>1366100</v>
       </c>
       <c r="E17" s="3">
-        <v>1360500</v>
+        <v>1296800</v>
       </c>
       <c r="F17" s="3">
-        <v>1082800</v>
+        <v>1032200</v>
       </c>
       <c r="G17" s="3">
-        <v>659100</v>
+        <v>628300</v>
       </c>
       <c r="H17" s="3">
-        <v>365700</v>
+        <v>348600</v>
       </c>
       <c r="I17" s="3">
-        <v>228300</v>
+        <v>217600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-94700</v>
+        <v>-90300</v>
       </c>
       <c r="E18" s="3">
-        <v>41700</v>
+        <v>39800</v>
       </c>
       <c r="F18" s="3">
-        <v>-19200</v>
+        <v>-18300</v>
       </c>
       <c r="G18" s="3">
-        <v>-125500</v>
+        <v>-119600</v>
       </c>
       <c r="H18" s="3">
-        <v>-90300</v>
+        <v>-86100</v>
       </c>
       <c r="I18" s="3">
-        <v>-113400</v>
+        <v>-108100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="E20" s="3">
-        <v>17200</v>
+        <v>16400</v>
       </c>
       <c r="F20" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="G20" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H20" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-75400</v>
+        <v>-72000</v>
       </c>
       <c r="E21" s="3">
-        <v>75100</v>
+        <v>71500</v>
       </c>
       <c r="F21" s="3">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="G21" s="3">
-        <v>-120300</v>
+        <v>-114700</v>
       </c>
       <c r="H21" s="3">
-        <v>-85500</v>
+        <v>-81600</v>
       </c>
       <c r="I21" s="3">
-        <v>-111700</v>
+        <v>-106400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-88400</v>
+        <v>-84200</v>
       </c>
       <c r="E23" s="3">
-        <v>58900</v>
+        <v>56200</v>
       </c>
       <c r="F23" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="G23" s="3">
-        <v>-126900</v>
+        <v>-121000</v>
       </c>
       <c r="H23" s="3">
-        <v>-89300</v>
+        <v>-85200</v>
       </c>
       <c r="I23" s="3">
-        <v>-114000</v>
+        <v>-108700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-88400</v>
+        <v>-84200</v>
       </c>
       <c r="E26" s="3">
-        <v>58900</v>
+        <v>56200</v>
       </c>
       <c r="F26" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="G26" s="3">
-        <v>-126900</v>
+        <v>-121000</v>
       </c>
       <c r="H26" s="3">
-        <v>-89300</v>
+        <v>-85200</v>
       </c>
       <c r="I26" s="3">
-        <v>-114000</v>
+        <v>-108700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-85000</v>
+        <v>-81000</v>
       </c>
       <c r="E27" s="3">
-        <v>70900</v>
+        <v>67600</v>
       </c>
       <c r="F27" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G27" s="3">
-        <v>-128900</v>
+        <v>-122900</v>
       </c>
       <c r="H27" s="3">
-        <v>-89500</v>
+        <v>-85300</v>
       </c>
       <c r="I27" s="3">
-        <v>-155900</v>
+        <v>-148600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6400</v>
+        <v>-6100</v>
       </c>
       <c r="E32" s="3">
-        <v>-17200</v>
+        <v>-16400</v>
       </c>
       <c r="F32" s="3">
-        <v>-24600</v>
+        <v>-23400</v>
       </c>
       <c r="G32" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-85000</v>
+        <v>-81000</v>
       </c>
       <c r="E33" s="3">
-        <v>70900</v>
+        <v>67600</v>
       </c>
       <c r="F33" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G33" s="3">
-        <v>-128900</v>
+        <v>-122900</v>
       </c>
       <c r="H33" s="3">
-        <v>-89500</v>
+        <v>-85300</v>
       </c>
       <c r="I33" s="3">
-        <v>-155900</v>
+        <v>-148600</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-85000</v>
+        <v>-81000</v>
       </c>
       <c r="E35" s="3">
-        <v>70900</v>
+        <v>67600</v>
       </c>
       <c r="F35" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G35" s="3">
-        <v>-128900</v>
+        <v>-122900</v>
       </c>
       <c r="H35" s="3">
-        <v>-89500</v>
+        <v>-85300</v>
       </c>
       <c r="I35" s="3">
-        <v>-155900</v>
+        <v>-148600</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>650800</v>
+        <v>620300</v>
       </c>
       <c r="E41" s="3">
-        <v>771000</v>
+        <v>735000</v>
       </c>
       <c r="F41" s="3">
-        <v>1181700</v>
+        <v>1126400</v>
       </c>
       <c r="G41" s="3">
-        <v>812200</v>
+        <v>774300</v>
       </c>
       <c r="H41" s="3">
-        <v>78800</v>
+        <v>75100</v>
       </c>
       <c r="I41" s="3">
-        <v>75500</v>
+        <v>71900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,10 +1775,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>303200</v>
+        <v>289000</v>
       </c>
       <c r="E42" s="3">
-        <v>325700</v>
+        <v>310400</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>80200</v>
+        <v>76400</v>
       </c>
       <c r="E43" s="3">
-        <v>61300</v>
+        <v>58400</v>
       </c>
       <c r="F43" s="3">
-        <v>58000</v>
+        <v>55300</v>
       </c>
       <c r="G43" s="3">
-        <v>55800</v>
+        <v>53200</v>
       </c>
       <c r="H43" s="3">
-        <v>33900</v>
+        <v>32300</v>
       </c>
       <c r="I43" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="E45" s="3">
-        <v>15200</v>
+        <v>14400</v>
       </c>
       <c r="F45" s="3">
-        <v>16400</v>
+        <v>15700</v>
       </c>
       <c r="G45" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="H45" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="I45" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1055700</v>
+        <v>1006300</v>
       </c>
       <c r="E46" s="3">
-        <v>1173200</v>
+        <v>1118300</v>
       </c>
       <c r="F46" s="3">
-        <v>1256100</v>
+        <v>1197300</v>
       </c>
       <c r="G46" s="3">
-        <v>893300</v>
+        <v>851500</v>
       </c>
       <c r="H46" s="3">
-        <v>126000</v>
+        <v>120100</v>
       </c>
       <c r="I46" s="3">
-        <v>98700</v>
+        <v>94100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71800</v>
+        <v>68400</v>
       </c>
       <c r="E47" s="3">
-        <v>73100</v>
+        <v>69700</v>
       </c>
       <c r="F47" s="3">
-        <v>32900</v>
+        <v>31400</v>
       </c>
       <c r="G47" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="H47" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="I47" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="E48" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="F48" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="G48" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="H48" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="I48" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="E49" s="3">
-        <v>22600</v>
+        <v>21500</v>
       </c>
       <c r="F49" s="3">
-        <v>33400</v>
+        <v>31900</v>
       </c>
       <c r="G49" s="3">
-        <v>21100</v>
+        <v>20100</v>
       </c>
       <c r="H49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24100</v>
+        <v>22900</v>
       </c>
       <c r="E52" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="F52" s="3">
         <v>1200</v>
       </c>
       <c r="G52" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="H52" s="3">
         <v>800</v>
       </c>
       <c r="I52" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1191200</v>
+        <v>1135400</v>
       </c>
       <c r="E54" s="3">
-        <v>1300800</v>
+        <v>1240000</v>
       </c>
       <c r="F54" s="3">
-        <v>1329400</v>
+        <v>1267200</v>
       </c>
       <c r="G54" s="3">
-        <v>948400</v>
+        <v>904100</v>
       </c>
       <c r="H54" s="3">
-        <v>150600</v>
+        <v>143600</v>
       </c>
       <c r="I54" s="3">
-        <v>113700</v>
+        <v>108400</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>120300</v>
+        <v>114700</v>
       </c>
       <c r="E57" s="3">
-        <v>144000</v>
+        <v>137300</v>
       </c>
       <c r="F57" s="3">
-        <v>130000</v>
+        <v>123900</v>
       </c>
       <c r="G57" s="3">
-        <v>116900</v>
+        <v>111400</v>
       </c>
       <c r="H57" s="3">
-        <v>66000</v>
+        <v>62900</v>
       </c>
       <c r="I57" s="3">
-        <v>49100</v>
+        <v>46800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>149700</v>
+        <v>142700</v>
       </c>
       <c r="E59" s="3">
-        <v>131000</v>
+        <v>124800</v>
       </c>
       <c r="F59" s="3">
-        <v>132000</v>
+        <v>125900</v>
       </c>
       <c r="G59" s="3">
-        <v>301300</v>
+        <v>287200</v>
       </c>
       <c r="H59" s="3">
-        <v>61300</v>
+        <v>58400</v>
       </c>
       <c r="I59" s="3">
-        <v>27400</v>
+        <v>26200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>270000</v>
+        <v>257400</v>
       </c>
       <c r="E60" s="3">
-        <v>275000</v>
+        <v>262100</v>
       </c>
       <c r="F60" s="3">
-        <v>262000</v>
+        <v>249800</v>
       </c>
       <c r="G60" s="3">
-        <v>418200</v>
+        <v>398700</v>
       </c>
       <c r="H60" s="3">
-        <v>127300</v>
+        <v>121400</v>
       </c>
       <c r="I60" s="3">
-        <v>76500</v>
+        <v>72900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="E62" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="F62" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>277200</v>
+        <v>264200</v>
       </c>
       <c r="E66" s="3">
-        <v>287500</v>
+        <v>274100</v>
       </c>
       <c r="F66" s="3">
-        <v>271900</v>
+        <v>259200</v>
       </c>
       <c r="G66" s="3">
-        <v>418200</v>
+        <v>398700</v>
       </c>
       <c r="H66" s="3">
-        <v>127300</v>
+        <v>121400</v>
       </c>
       <c r="I66" s="3">
-        <v>76500</v>
+        <v>72900</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>970300</v>
+        <v>925000</v>
       </c>
       <c r="H70" s="3">
-        <v>384000</v>
+        <v>366000</v>
       </c>
       <c r="I70" s="3">
-        <v>311000</v>
+        <v>296400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-503100</v>
+        <v>-479600</v>
       </c>
       <c r="E72" s="3">
-        <v>-418100</v>
+        <v>-398600</v>
       </c>
       <c r="F72" s="3">
-        <v>-489000</v>
+        <v>-466100</v>
       </c>
       <c r="G72" s="3">
-        <v>-494800</v>
+        <v>-471700</v>
       </c>
       <c r="H72" s="3">
-        <v>-366900</v>
+        <v>-349700</v>
       </c>
       <c r="I72" s="3">
-        <v>-277400</v>
+        <v>-264400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>913900</v>
+        <v>871200</v>
       </c>
       <c r="E76" s="3">
-        <v>1013300</v>
+        <v>965900</v>
       </c>
       <c r="F76" s="3">
-        <v>1057500</v>
+        <v>1008100</v>
       </c>
       <c r="G76" s="3">
-        <v>-440100</v>
+        <v>-419600</v>
       </c>
       <c r="H76" s="3">
-        <v>-360700</v>
+        <v>-343800</v>
       </c>
       <c r="I76" s="3">
-        <v>-273800</v>
+        <v>-260900</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-85000</v>
+        <v>-81000</v>
       </c>
       <c r="E81" s="3">
-        <v>70900</v>
+        <v>67600</v>
       </c>
       <c r="F81" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G81" s="3">
-        <v>-128900</v>
+        <v>-122900</v>
       </c>
       <c r="H81" s="3">
-        <v>-89500</v>
+        <v>-85300</v>
       </c>
       <c r="I81" s="3">
-        <v>-155900</v>
+        <v>-148600</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="E83" s="3">
-        <v>16200</v>
+        <v>15400</v>
       </c>
       <c r="F83" s="3">
-        <v>13200</v>
+        <v>12500</v>
       </c>
       <c r="G83" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="H83" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="I83" s="3">
         <v>1000</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-85600</v>
+        <v>-81600</v>
       </c>
       <c r="E89" s="3">
-        <v>97500</v>
+        <v>92900</v>
       </c>
       <c r="F89" s="3">
-        <v>118700</v>
+        <v>113200</v>
       </c>
       <c r="G89" s="3">
-        <v>-49300</v>
+        <v>-47000</v>
       </c>
       <c r="H89" s="3">
-        <v>-55600</v>
+        <v>-53000</v>
       </c>
       <c r="I89" s="3">
-        <v>-104300</v>
+        <v>-99400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3375,19 +3375,19 @@
         <v>-1000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G91" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="H91" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="I91" s="3">
-        <v>-6500</v>
+        <v>-6200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E94" s="3">
-        <v>-381500</v>
+        <v>-363700</v>
       </c>
       <c r="F94" s="3">
-        <v>-36000</v>
+        <v>-34300</v>
       </c>
       <c r="G94" s="3">
-        <v>-38700</v>
+        <v>-36900</v>
       </c>
       <c r="H94" s="3">
-        <v>-13400</v>
+        <v>-12800</v>
       </c>
       <c r="I94" s="3">
-        <v>-12600</v>
+        <v>-12000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15600</v>
+        <v>-14900</v>
       </c>
       <c r="E100" s="3">
-        <v>-70000</v>
+        <v>-66700</v>
       </c>
       <c r="F100" s="3">
-        <v>276900</v>
+        <v>264000</v>
       </c>
       <c r="G100" s="3">
-        <v>771100</v>
+        <v>735000</v>
       </c>
       <c r="H100" s="3">
-        <v>73000</v>
+        <v>69600</v>
       </c>
       <c r="I100" s="3">
-        <v>189600</v>
+        <v>180700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16400</v>
+        <v>-15600</v>
       </c>
       <c r="E101" s="3">
-        <v>-61200</v>
+        <v>-58300</v>
       </c>
       <c r="F101" s="3">
-        <v>16000</v>
+        <v>15200</v>
       </c>
       <c r="G101" s="3">
-        <v>50400</v>
+        <v>48000</v>
       </c>
       <c r="H101" s="3">
         <v>-600</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-120400</v>
+        <v>-114800</v>
       </c>
       <c r="E102" s="3">
-        <v>-415200</v>
+        <v>-395800</v>
       </c>
       <c r="F102" s="3">
-        <v>375700</v>
+        <v>358100</v>
       </c>
       <c r="G102" s="3">
-        <v>733500</v>
+        <v>699100</v>
       </c>
       <c r="H102" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I102" s="3">
-        <v>72900</v>
+        <v>69500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1275800</v>
+        <v>1316300</v>
       </c>
       <c r="E8" s="3">
-        <v>1336600</v>
+        <v>1379000</v>
       </c>
       <c r="F8" s="3">
-        <v>1013800</v>
+        <v>1046000</v>
       </c>
       <c r="G8" s="3">
-        <v>508700</v>
+        <v>524800</v>
       </c>
       <c r="H8" s="3">
-        <v>262500</v>
+        <v>270800</v>
       </c>
       <c r="I8" s="3">
-        <v>109500</v>
+        <v>113000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1124100</v>
+        <v>1159800</v>
       </c>
       <c r="E9" s="3">
-        <v>1119400</v>
+        <v>1154900</v>
       </c>
       <c r="F9" s="3">
-        <v>847300</v>
+        <v>874200</v>
       </c>
       <c r="G9" s="3">
-        <v>487700</v>
+        <v>503200</v>
       </c>
       <c r="H9" s="3">
-        <v>263100</v>
+        <v>271500</v>
       </c>
       <c r="I9" s="3">
-        <v>160800</v>
+        <v>165900</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>151700</v>
+        <v>156500</v>
       </c>
       <c r="E10" s="3">
-        <v>217200</v>
+        <v>224100</v>
       </c>
       <c r="F10" s="3">
-        <v>166500</v>
+        <v>171800</v>
       </c>
       <c r="G10" s="3">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="H10" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I10" s="3">
-        <v>-51300</v>
+        <v>-52900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>68200</v>
+        <v>70400</v>
       </c>
       <c r="E12" s="3">
-        <v>57900</v>
+        <v>59800</v>
       </c>
       <c r="F12" s="3">
-        <v>53400</v>
+        <v>55100</v>
       </c>
       <c r="G12" s="3">
-        <v>45800</v>
+        <v>47300</v>
       </c>
       <c r="H12" s="3">
-        <v>29500</v>
+        <v>30500</v>
       </c>
       <c r="I12" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -920,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-3300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H14" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1366100</v>
+        <v>1409500</v>
       </c>
       <c r="E17" s="3">
-        <v>1296800</v>
+        <v>1338000</v>
       </c>
       <c r="F17" s="3">
-        <v>1032200</v>
+        <v>1064900</v>
       </c>
       <c r="G17" s="3">
-        <v>628300</v>
+        <v>648200</v>
       </c>
       <c r="H17" s="3">
-        <v>348600</v>
+        <v>359600</v>
       </c>
       <c r="I17" s="3">
-        <v>217600</v>
+        <v>224500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-90300</v>
+        <v>-93200</v>
       </c>
       <c r="E18" s="3">
-        <v>39800</v>
+        <v>41000</v>
       </c>
       <c r="F18" s="3">
-        <v>-18300</v>
+        <v>-18900</v>
       </c>
       <c r="G18" s="3">
-        <v>-119600</v>
+        <v>-123400</v>
       </c>
       <c r="H18" s="3">
-        <v>-86100</v>
+        <v>-88800</v>
       </c>
       <c r="I18" s="3">
-        <v>-108100</v>
+        <v>-111500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E20" s="3">
-        <v>16400</v>
+        <v>16900</v>
       </c>
       <c r="F20" s="3">
-        <v>23400</v>
+        <v>24200</v>
       </c>
       <c r="G20" s="3">
         <v>-1400</v>
       </c>
       <c r="H20" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-72000</v>
+        <v>-74100</v>
       </c>
       <c r="E21" s="3">
-        <v>71500</v>
+        <v>73900</v>
       </c>
       <c r="F21" s="3">
-        <v>17500</v>
+        <v>18200</v>
       </c>
       <c r="G21" s="3">
-        <v>-114700</v>
+        <v>-118300</v>
       </c>
       <c r="H21" s="3">
-        <v>-81600</v>
+        <v>-84100</v>
       </c>
       <c r="I21" s="3">
-        <v>-106400</v>
+        <v>-109800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-84200</v>
+        <v>-86900</v>
       </c>
       <c r="E23" s="3">
-        <v>56200</v>
+        <v>57900</v>
       </c>
       <c r="F23" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G23" s="3">
-        <v>-121000</v>
+        <v>-124800</v>
       </c>
       <c r="H23" s="3">
-        <v>-85200</v>
+        <v>-87900</v>
       </c>
       <c r="I23" s="3">
-        <v>-108700</v>
+        <v>-112100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-84200</v>
+        <v>-86900</v>
       </c>
       <c r="E26" s="3">
-        <v>56200</v>
+        <v>57900</v>
       </c>
       <c r="F26" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G26" s="3">
-        <v>-121000</v>
+        <v>-124800</v>
       </c>
       <c r="H26" s="3">
-        <v>-85200</v>
+        <v>-87900</v>
       </c>
       <c r="I26" s="3">
-        <v>-108700</v>
+        <v>-112100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-81000</v>
+        <v>-83600</v>
       </c>
       <c r="E27" s="3">
-        <v>67600</v>
+        <v>69700</v>
       </c>
       <c r="F27" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G27" s="3">
-        <v>-122900</v>
+        <v>-126800</v>
       </c>
       <c r="H27" s="3">
-        <v>-85300</v>
+        <v>-88000</v>
       </c>
       <c r="I27" s="3">
-        <v>-148600</v>
+        <v>-153400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="E32" s="3">
-        <v>-16400</v>
+        <v>-16900</v>
       </c>
       <c r="F32" s="3">
-        <v>-23400</v>
+        <v>-24200</v>
       </c>
       <c r="G32" s="3">
         <v>1400</v>
       </c>
       <c r="H32" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I32" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-81000</v>
+        <v>-83600</v>
       </c>
       <c r="E33" s="3">
-        <v>67600</v>
+        <v>69700</v>
       </c>
       <c r="F33" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G33" s="3">
-        <v>-122900</v>
+        <v>-126800</v>
       </c>
       <c r="H33" s="3">
-        <v>-85300</v>
+        <v>-88000</v>
       </c>
       <c r="I33" s="3">
-        <v>-148600</v>
+        <v>-153400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-81000</v>
+        <v>-83600</v>
       </c>
       <c r="E35" s="3">
-        <v>67600</v>
+        <v>69700</v>
       </c>
       <c r="F35" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G35" s="3">
-        <v>-122900</v>
+        <v>-126800</v>
       </c>
       <c r="H35" s="3">
-        <v>-85300</v>
+        <v>-88000</v>
       </c>
       <c r="I35" s="3">
-        <v>-148600</v>
+        <v>-153400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>620300</v>
+        <v>640000</v>
       </c>
       <c r="E41" s="3">
-        <v>735000</v>
+        <v>758300</v>
       </c>
       <c r="F41" s="3">
-        <v>1126400</v>
+        <v>1162200</v>
       </c>
       <c r="G41" s="3">
-        <v>774300</v>
+        <v>798800</v>
       </c>
       <c r="H41" s="3">
-        <v>75100</v>
+        <v>77500</v>
       </c>
       <c r="I41" s="3">
-        <v>71900</v>
+        <v>74200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1775,10 +1775,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>289000</v>
+        <v>298200</v>
       </c>
       <c r="E42" s="3">
-        <v>310400</v>
+        <v>320300</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1811,22 +1811,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>76400</v>
+        <v>78800</v>
       </c>
       <c r="E43" s="3">
-        <v>58400</v>
+        <v>60300</v>
       </c>
       <c r="F43" s="3">
-        <v>55300</v>
+        <v>57000</v>
       </c>
       <c r="G43" s="3">
-        <v>53200</v>
+        <v>54900</v>
       </c>
       <c r="H43" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="I43" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20500</v>
+        <v>21200</v>
       </c>
       <c r="E45" s="3">
-        <v>14400</v>
+        <v>14900</v>
       </c>
       <c r="F45" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="G45" s="3">
-        <v>24000</v>
+        <v>24800</v>
       </c>
       <c r="H45" s="3">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="I45" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1919,22 +1919,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1006300</v>
+        <v>1038200</v>
       </c>
       <c r="E46" s="3">
-        <v>1118300</v>
+        <v>1153800</v>
       </c>
       <c r="F46" s="3">
-        <v>1197300</v>
+        <v>1235400</v>
       </c>
       <c r="G46" s="3">
-        <v>851500</v>
+        <v>878500</v>
       </c>
       <c r="H46" s="3">
-        <v>120100</v>
+        <v>123900</v>
       </c>
       <c r="I46" s="3">
-        <v>94100</v>
+        <v>97100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1955,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68400</v>
+        <v>70600</v>
       </c>
       <c r="E47" s="3">
-        <v>69700</v>
+        <v>71900</v>
       </c>
       <c r="F47" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="G47" s="3">
-        <v>18700</v>
+        <v>19300</v>
       </c>
       <c r="H47" s="3">
-        <v>13400</v>
+        <v>13800</v>
       </c>
       <c r="I47" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1991,22 +1991,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="E48" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="F48" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="G48" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="H48" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="I48" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24200</v>
+        <v>25000</v>
       </c>
       <c r="E49" s="3">
-        <v>21500</v>
+        <v>22200</v>
       </c>
       <c r="F49" s="3">
-        <v>31900</v>
+        <v>32900</v>
       </c>
       <c r="G49" s="3">
-        <v>20100</v>
+        <v>20800</v>
       </c>
       <c r="H49" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I49" s="3">
         <v>1600</v>
@@ -2135,22 +2135,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22900</v>
+        <v>23700</v>
       </c>
       <c r="E52" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="F52" s="3">
         <v>1200</v>
       </c>
       <c r="G52" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="H52" s="3">
         <v>800</v>
       </c>
       <c r="I52" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2207,22 +2207,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1135400</v>
+        <v>1171500</v>
       </c>
       <c r="E54" s="3">
-        <v>1240000</v>
+        <v>1279400</v>
       </c>
       <c r="F54" s="3">
-        <v>1267200</v>
+        <v>1307500</v>
       </c>
       <c r="G54" s="3">
-        <v>904100</v>
+        <v>932800</v>
       </c>
       <c r="H54" s="3">
-        <v>143600</v>
+        <v>148200</v>
       </c>
       <c r="I54" s="3">
-        <v>108400</v>
+        <v>111900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2275,22 +2275,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>114700</v>
+        <v>118400</v>
       </c>
       <c r="E57" s="3">
-        <v>137300</v>
+        <v>141600</v>
       </c>
       <c r="F57" s="3">
-        <v>123900</v>
+        <v>127800</v>
       </c>
       <c r="G57" s="3">
-        <v>111400</v>
+        <v>114900</v>
       </c>
       <c r="H57" s="3">
-        <v>62900</v>
+        <v>64900</v>
       </c>
       <c r="I57" s="3">
-        <v>46800</v>
+        <v>48300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2347,22 +2347,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>142700</v>
+        <v>147200</v>
       </c>
       <c r="E59" s="3">
-        <v>124800</v>
+        <v>128800</v>
       </c>
       <c r="F59" s="3">
-        <v>125900</v>
+        <v>129900</v>
       </c>
       <c r="G59" s="3">
-        <v>287200</v>
+        <v>296400</v>
       </c>
       <c r="H59" s="3">
-        <v>58400</v>
+        <v>60300</v>
       </c>
       <c r="I59" s="3">
-        <v>26200</v>
+        <v>27000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2383,22 +2383,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>257400</v>
+        <v>265600</v>
       </c>
       <c r="E60" s="3">
-        <v>262100</v>
+        <v>270400</v>
       </c>
       <c r="F60" s="3">
-        <v>249800</v>
+        <v>257700</v>
       </c>
       <c r="G60" s="3">
-        <v>398700</v>
+        <v>411300</v>
       </c>
       <c r="H60" s="3">
-        <v>121400</v>
+        <v>125200</v>
       </c>
       <c r="I60" s="3">
-        <v>72900</v>
+        <v>75200</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2455,13 +2455,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E62" s="3">
         <v>6900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2599,22 +2599,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>264200</v>
+        <v>272600</v>
       </c>
       <c r="E66" s="3">
-        <v>274100</v>
+        <v>282800</v>
       </c>
       <c r="F66" s="3">
-        <v>259200</v>
+        <v>267400</v>
       </c>
       <c r="G66" s="3">
-        <v>398700</v>
+        <v>411300</v>
       </c>
       <c r="H66" s="3">
-        <v>121400</v>
+        <v>125200</v>
       </c>
       <c r="I66" s="3">
-        <v>72900</v>
+        <v>75200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>925000</v>
+        <v>954300</v>
       </c>
       <c r="H70" s="3">
-        <v>366000</v>
+        <v>377600</v>
       </c>
       <c r="I70" s="3">
-        <v>296400</v>
+        <v>305800</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-479600</v>
+        <v>-494800</v>
       </c>
       <c r="E72" s="3">
-        <v>-398600</v>
+        <v>-411200</v>
       </c>
       <c r="F72" s="3">
-        <v>-466100</v>
+        <v>-480900</v>
       </c>
       <c r="G72" s="3">
-        <v>-471700</v>
+        <v>-486700</v>
       </c>
       <c r="H72" s="3">
-        <v>-349700</v>
+        <v>-360800</v>
       </c>
       <c r="I72" s="3">
-        <v>-264400</v>
+        <v>-272800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2939,22 +2939,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>871200</v>
+        <v>898900</v>
       </c>
       <c r="E76" s="3">
-        <v>965900</v>
+        <v>996600</v>
       </c>
       <c r="F76" s="3">
-        <v>1008100</v>
+        <v>1040100</v>
       </c>
       <c r="G76" s="3">
-        <v>-419600</v>
+        <v>-432800</v>
       </c>
       <c r="H76" s="3">
-        <v>-343800</v>
+        <v>-354700</v>
       </c>
       <c r="I76" s="3">
-        <v>-260900</v>
+        <v>-269200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-81000</v>
+        <v>-83600</v>
       </c>
       <c r="E81" s="3">
-        <v>67600</v>
+        <v>69700</v>
       </c>
       <c r="F81" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G81" s="3">
-        <v>-122900</v>
+        <v>-126800</v>
       </c>
       <c r="H81" s="3">
-        <v>-85300</v>
+        <v>-88000</v>
       </c>
       <c r="I81" s="3">
-        <v>-148600</v>
+        <v>-153400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="E83" s="3">
-        <v>15400</v>
+        <v>15900</v>
       </c>
       <c r="F83" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="G83" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="H83" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I83" s="3">
         <v>1000</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-81600</v>
+        <v>-84200</v>
       </c>
       <c r="E89" s="3">
-        <v>92900</v>
+        <v>95900</v>
       </c>
       <c r="F89" s="3">
-        <v>113200</v>
+        <v>116800</v>
       </c>
       <c r="G89" s="3">
-        <v>-47000</v>
+        <v>-48500</v>
       </c>
       <c r="H89" s="3">
-        <v>-53000</v>
+        <v>-54700</v>
       </c>
       <c r="I89" s="3">
-        <v>-99400</v>
+        <v>-102600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3378,16 +3378,16 @@
         <v>-2700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G91" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H91" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="I91" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3483,19 +3483,19 @@
         <v>-2700</v>
       </c>
       <c r="E94" s="3">
-        <v>-363700</v>
+        <v>-375200</v>
       </c>
       <c r="F94" s="3">
-        <v>-34300</v>
+        <v>-35400</v>
       </c>
       <c r="G94" s="3">
-        <v>-36900</v>
+        <v>-38100</v>
       </c>
       <c r="H94" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="I94" s="3">
-        <v>-12000</v>
+        <v>-12400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14900</v>
+        <v>-15400</v>
       </c>
       <c r="E100" s="3">
-        <v>-66700</v>
+        <v>-68800</v>
       </c>
       <c r="F100" s="3">
-        <v>264000</v>
+        <v>272400</v>
       </c>
       <c r="G100" s="3">
-        <v>735000</v>
+        <v>758300</v>
       </c>
       <c r="H100" s="3">
-        <v>69600</v>
+        <v>71800</v>
       </c>
       <c r="I100" s="3">
-        <v>180700</v>
+        <v>186400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,16 +3712,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15600</v>
+        <v>-16100</v>
       </c>
       <c r="E101" s="3">
-        <v>-58300</v>
+        <v>-60200</v>
       </c>
       <c r="F101" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="G101" s="3">
-        <v>48000</v>
+        <v>49600</v>
       </c>
       <c r="H101" s="3">
         <v>-600</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-114800</v>
+        <v>-118400</v>
       </c>
       <c r="E102" s="3">
-        <v>-395800</v>
+        <v>-408300</v>
       </c>
       <c r="F102" s="3">
-        <v>358100</v>
+        <v>369500</v>
       </c>
       <c r="G102" s="3">
-        <v>699100</v>
+        <v>721300</v>
       </c>
       <c r="H102" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I102" s="3">
-        <v>69500</v>
+        <v>71700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>DOYU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,32 +714,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1316300</v>
+        <v>1010400</v>
       </c>
       <c r="E8" s="3">
-        <v>1379000</v>
+        <v>1302900</v>
       </c>
       <c r="F8" s="3">
-        <v>1046000</v>
+        <v>1364900</v>
       </c>
       <c r="G8" s="3">
-        <v>524800</v>
+        <v>1035300</v>
       </c>
       <c r="H8" s="3">
-        <v>270800</v>
+        <v>519500</v>
       </c>
       <c r="I8" s="3">
-        <v>113000</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>268100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>111800</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -750,32 +753,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1159800</v>
+        <v>869700</v>
       </c>
       <c r="E9" s="3">
-        <v>1154900</v>
+        <v>1147900</v>
       </c>
       <c r="F9" s="3">
-        <v>874200</v>
+        <v>1143100</v>
       </c>
       <c r="G9" s="3">
-        <v>503200</v>
+        <v>865300</v>
       </c>
       <c r="H9" s="3">
-        <v>271500</v>
+        <v>498000</v>
       </c>
       <c r="I9" s="3">
-        <v>165900</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>268700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>164200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -786,32 +792,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>156500</v>
+        <v>140700</v>
       </c>
       <c r="E10" s="3">
-        <v>224100</v>
+        <v>154900</v>
       </c>
       <c r="F10" s="3">
-        <v>171800</v>
+        <v>221800</v>
       </c>
       <c r="G10" s="3">
-        <v>21700</v>
+        <v>170000</v>
       </c>
       <c r="H10" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I10" s="3">
         <v>-700</v>
       </c>
-      <c r="I10" s="3">
-        <v>-52900</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>-52300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,31 +851,32 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>70400</v>
+        <v>54500</v>
       </c>
       <c r="E12" s="3">
-        <v>59800</v>
+        <v>69700</v>
       </c>
       <c r="F12" s="3">
-        <v>55100</v>
+        <v>59200</v>
       </c>
       <c r="G12" s="3">
-        <v>47300</v>
+        <v>54600</v>
       </c>
       <c r="H12" s="3">
-        <v>30500</v>
+        <v>46800</v>
       </c>
       <c r="I12" s="3">
-        <v>13400</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>30200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13300</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,22 +939,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3300</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="H14" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -946,9 +965,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,31 +1021,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1409500</v>
+        <v>1038700</v>
       </c>
       <c r="E17" s="3">
-        <v>1338000</v>
+        <v>1395100</v>
       </c>
       <c r="F17" s="3">
-        <v>1064900</v>
+        <v>1324300</v>
       </c>
       <c r="G17" s="3">
-        <v>648200</v>
+        <v>1054000</v>
       </c>
       <c r="H17" s="3">
-        <v>359600</v>
+        <v>641600</v>
       </c>
       <c r="I17" s="3">
-        <v>224500</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>356000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>222200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1031,32 +1057,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-93200</v>
+        <v>-28300</v>
       </c>
       <c r="E18" s="3">
-        <v>41000</v>
+        <v>-92200</v>
       </c>
       <c r="F18" s="3">
-        <v>-18900</v>
+        <v>40600</v>
       </c>
       <c r="G18" s="3">
-        <v>-123400</v>
+        <v>-18700</v>
       </c>
       <c r="H18" s="3">
-        <v>-88800</v>
+        <v>-122100</v>
       </c>
       <c r="I18" s="3">
-        <v>-111500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-87900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-110400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1067,9 +1096,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,32 +1116,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
-        <v>16900</v>
+        <v>6200</v>
       </c>
       <c r="F20" s="3">
-        <v>24200</v>
+        <v>16800</v>
       </c>
       <c r="G20" s="3">
+        <v>23900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
-        <v>1000</v>
-      </c>
       <c r="I20" s="3">
+        <v>900</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,32 +1152,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-74100</v>
+        <v>-8700</v>
       </c>
       <c r="E21" s="3">
-        <v>73900</v>
+        <v>-73300</v>
       </c>
       <c r="F21" s="3">
-        <v>18200</v>
+        <v>73200</v>
       </c>
       <c r="G21" s="3">
-        <v>-118300</v>
+        <v>18100</v>
       </c>
       <c r="H21" s="3">
-        <v>-84100</v>
+        <v>-117000</v>
       </c>
       <c r="I21" s="3">
-        <v>-109800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-83200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-108700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1155,9 +1191,12 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1170,18 +1209,18 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,32 +1230,35 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-86900</v>
+        <v>-21200</v>
       </c>
       <c r="E23" s="3">
-        <v>57900</v>
+        <v>-86000</v>
       </c>
       <c r="F23" s="3">
-        <v>5300</v>
+        <v>57300</v>
       </c>
       <c r="G23" s="3">
-        <v>-124800</v>
+        <v>5200</v>
       </c>
       <c r="H23" s="3">
-        <v>-87900</v>
+        <v>-123500</v>
       </c>
       <c r="I23" s="3">
-        <v>-112100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-87000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-111000</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1227,20 +1269,23 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,32 +1347,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-86900</v>
+        <v>-21700</v>
       </c>
       <c r="E26" s="3">
-        <v>57900</v>
+        <v>-86000</v>
       </c>
       <c r="F26" s="3">
-        <v>5300</v>
+        <v>57300</v>
       </c>
       <c r="G26" s="3">
-        <v>-124800</v>
+        <v>5200</v>
       </c>
       <c r="H26" s="3">
-        <v>-87900</v>
+        <v>-123500</v>
       </c>
       <c r="I26" s="3">
-        <v>-112100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-87000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-111000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1335,32 +1386,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-83600</v>
+        <v>-10700</v>
       </c>
       <c r="E27" s="3">
-        <v>69700</v>
+        <v>-82700</v>
       </c>
       <c r="F27" s="3">
+        <v>69000</v>
+      </c>
+      <c r="G27" s="3">
         <v>5700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-126800</v>
-      </c>
       <c r="H27" s="3">
-        <v>-88000</v>
+        <v>-125500</v>
       </c>
       <c r="I27" s="3">
-        <v>-153400</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-87100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-151800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,33 +1581,36 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6300</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
-        <v>-16900</v>
+        <v>-6200</v>
       </c>
       <c r="F32" s="3">
-        <v>-24200</v>
+        <v>-16800</v>
       </c>
       <c r="G32" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1551,32 +1620,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-83600</v>
+        <v>-10700</v>
       </c>
       <c r="E33" s="3">
-        <v>69700</v>
+        <v>-82700</v>
       </c>
       <c r="F33" s="3">
+        <v>69000</v>
+      </c>
+      <c r="G33" s="3">
         <v>5700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-126800</v>
-      </c>
       <c r="H33" s="3">
-        <v>-88000</v>
+        <v>-125500</v>
       </c>
       <c r="I33" s="3">
-        <v>-153400</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-87100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-151800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,32 +1698,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-83600</v>
+        <v>-10700</v>
       </c>
       <c r="E35" s="3">
-        <v>69700</v>
+        <v>-82700</v>
       </c>
       <c r="F35" s="3">
+        <v>69000</v>
+      </c>
+      <c r="G35" s="3">
         <v>5700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-126800</v>
-      </c>
       <c r="H35" s="3">
-        <v>-88000</v>
+        <v>-125500</v>
       </c>
       <c r="I35" s="3">
-        <v>-153400</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-87100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-151800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1659,38 +1737,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,9 +1781,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,31 +1818,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>640000</v>
+        <v>574500</v>
       </c>
       <c r="E41" s="3">
-        <v>758300</v>
+        <v>633500</v>
       </c>
       <c r="F41" s="3">
-        <v>1162200</v>
+        <v>750500</v>
       </c>
       <c r="G41" s="3">
-        <v>798800</v>
+        <v>1150300</v>
       </c>
       <c r="H41" s="3">
-        <v>77500</v>
+        <v>790700</v>
       </c>
       <c r="I41" s="3">
-        <v>74200</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>76700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>73500</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1768,20 +1854,23 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>298200</v>
+        <v>357000</v>
       </c>
       <c r="E42" s="3">
-        <v>320300</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>295200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>317000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1795,8 +1884,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1804,32 +1893,35 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>78800</v>
+        <v>66200</v>
       </c>
       <c r="E43" s="3">
-        <v>60300</v>
+        <v>78000</v>
       </c>
       <c r="F43" s="3">
-        <v>57000</v>
+        <v>59700</v>
       </c>
       <c r="G43" s="3">
-        <v>54900</v>
+        <v>56500</v>
       </c>
       <c r="H43" s="3">
-        <v>33300</v>
+        <v>54400</v>
       </c>
       <c r="I43" s="3">
-        <v>16800</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>33000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>16700</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1840,9 +1932,12 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,33 +1971,36 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21200</v>
+        <v>8400</v>
       </c>
       <c r="E45" s="3">
-        <v>14900</v>
+        <v>21000</v>
       </c>
       <c r="F45" s="3">
-        <v>16100</v>
+        <v>14700</v>
       </c>
       <c r="G45" s="3">
-        <v>24800</v>
+        <v>16000</v>
       </c>
       <c r="H45" s="3">
-        <v>13100</v>
+        <v>24500</v>
       </c>
       <c r="I45" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,32 +2010,35 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1038200</v>
+        <v>1006000</v>
       </c>
       <c r="E46" s="3">
-        <v>1153800</v>
+        <v>1027600</v>
       </c>
       <c r="F46" s="3">
-        <v>1235400</v>
+        <v>1142000</v>
       </c>
       <c r="G46" s="3">
-        <v>878500</v>
+        <v>1222700</v>
       </c>
       <c r="H46" s="3">
-        <v>123900</v>
+        <v>869500</v>
       </c>
       <c r="I46" s="3">
-        <v>97100</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>122700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>96100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1948,33 +2049,36 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70600</v>
+        <v>75600</v>
       </c>
       <c r="E47" s="3">
-        <v>71900</v>
+        <v>69900</v>
       </c>
       <c r="F47" s="3">
-        <v>32400</v>
+        <v>71200</v>
       </c>
       <c r="G47" s="3">
-        <v>19300</v>
+        <v>32100</v>
       </c>
       <c r="H47" s="3">
-        <v>13800</v>
+        <v>19100</v>
       </c>
       <c r="I47" s="3">
+        <v>13700</v>
+      </c>
+      <c r="J47" s="3">
         <v>4200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,23 +2088,26 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="E48" s="3">
-        <v>14400</v>
+        <v>13800</v>
       </c>
       <c r="F48" s="3">
-        <v>5600</v>
+        <v>14200</v>
       </c>
       <c r="G48" s="3">
-        <v>7200</v>
+        <v>5500</v>
       </c>
       <c r="H48" s="3">
         <v>7200</v>
@@ -2008,8 +2115,8 @@
       <c r="I48" s="3">
         <v>7100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>7000</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2020,33 +2127,36 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25000</v>
+        <v>17100</v>
       </c>
       <c r="E49" s="3">
-        <v>22200</v>
+        <v>24800</v>
       </c>
       <c r="F49" s="3">
-        <v>32900</v>
+        <v>22000</v>
       </c>
       <c r="G49" s="3">
-        <v>20800</v>
+        <v>32600</v>
       </c>
       <c r="H49" s="3">
+        <v>20600</v>
+      </c>
+      <c r="I49" s="3">
         <v>2400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,33 +2244,36 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23700</v>
+        <v>49600</v>
       </c>
       <c r="E52" s="3">
-        <v>17100</v>
+        <v>23400</v>
       </c>
       <c r="F52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
-        <v>7000</v>
-      </c>
       <c r="H52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,32 +2322,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1171500</v>
+        <v>1157900</v>
       </c>
       <c r="E54" s="3">
-        <v>1279400</v>
+        <v>1159500</v>
       </c>
       <c r="F54" s="3">
-        <v>1307500</v>
+        <v>1266300</v>
       </c>
       <c r="G54" s="3">
-        <v>932800</v>
+        <v>1294100</v>
       </c>
       <c r="H54" s="3">
-        <v>148200</v>
+        <v>923200</v>
       </c>
       <c r="I54" s="3">
-        <v>111900</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>146600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>110700</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,31 +2398,32 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>118400</v>
+        <v>94800</v>
       </c>
       <c r="E57" s="3">
-        <v>141600</v>
+        <v>117100</v>
       </c>
       <c r="F57" s="3">
-        <v>127800</v>
+        <v>140200</v>
       </c>
       <c r="G57" s="3">
-        <v>114900</v>
+        <v>126500</v>
       </c>
       <c r="H57" s="3">
-        <v>64900</v>
+        <v>113800</v>
       </c>
       <c r="I57" s="3">
-        <v>48300</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>64300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>47800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2304,9 +2434,12 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2340,32 +2473,35 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>147200</v>
+        <v>126800</v>
       </c>
       <c r="E59" s="3">
-        <v>128800</v>
+        <v>145700</v>
       </c>
       <c r="F59" s="3">
-        <v>129900</v>
+        <v>127500</v>
       </c>
       <c r="G59" s="3">
-        <v>296400</v>
+        <v>128500</v>
       </c>
       <c r="H59" s="3">
-        <v>60300</v>
+        <v>293300</v>
       </c>
       <c r="I59" s="3">
-        <v>27000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>59700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>26700</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2376,32 +2512,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>265600</v>
+        <v>221600</v>
       </c>
       <c r="E60" s="3">
-        <v>270400</v>
+        <v>262800</v>
       </c>
       <c r="F60" s="3">
-        <v>257700</v>
+        <v>267600</v>
       </c>
       <c r="G60" s="3">
-        <v>411300</v>
+        <v>255100</v>
       </c>
       <c r="H60" s="3">
-        <v>125200</v>
+        <v>407100</v>
       </c>
       <c r="I60" s="3">
-        <v>75200</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>123900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>74500</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2412,9 +2551,12 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2448,23 +2590,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7100</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="F62" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>6800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>6500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2481,12 +2626,15 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,32 +2746,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>272600</v>
+        <v>225300</v>
       </c>
       <c r="E66" s="3">
-        <v>282800</v>
+        <v>269800</v>
       </c>
       <c r="F66" s="3">
-        <v>267400</v>
+        <v>279900</v>
       </c>
       <c r="G66" s="3">
-        <v>411300</v>
+        <v>264600</v>
       </c>
       <c r="H66" s="3">
-        <v>125200</v>
+        <v>407100</v>
       </c>
       <c r="I66" s="3">
-        <v>75200</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>123900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>74500</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2628,9 +2785,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2732,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>954300</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>377600</v>
+        <v>944600</v>
       </c>
       <c r="I70" s="3">
-        <v>305800</v>
+        <v>373800</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>302700</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,32 +2958,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-494800</v>
+        <v>-500400</v>
       </c>
       <c r="E72" s="3">
-        <v>-411200</v>
+        <v>-489700</v>
       </c>
       <c r="F72" s="3">
-        <v>-480900</v>
+        <v>-407000</v>
       </c>
       <c r="G72" s="3">
-        <v>-486700</v>
+        <v>-476000</v>
       </c>
       <c r="H72" s="3">
-        <v>-360800</v>
+        <v>-481700</v>
       </c>
       <c r="I72" s="3">
-        <v>-272800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-357100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-270000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2824,9 +2997,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,32 +3114,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>898900</v>
+        <v>932600</v>
       </c>
       <c r="E76" s="3">
-        <v>996600</v>
+        <v>889700</v>
       </c>
       <c r="F76" s="3">
-        <v>1040100</v>
+        <v>986400</v>
       </c>
       <c r="G76" s="3">
-        <v>-432800</v>
+        <v>1029400</v>
       </c>
       <c r="H76" s="3">
-        <v>-354700</v>
+        <v>-428500</v>
       </c>
       <c r="I76" s="3">
-        <v>-269200</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-351100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-266400</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2968,9 +3153,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,38 +3192,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3045,32 +3236,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-83600</v>
+        <v>-10700</v>
       </c>
       <c r="E81" s="3">
-        <v>69700</v>
+        <v>-82700</v>
       </c>
       <c r="F81" s="3">
+        <v>69000</v>
+      </c>
+      <c r="G81" s="3">
         <v>5700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-126800</v>
-      </c>
       <c r="H81" s="3">
-        <v>-88000</v>
+        <v>-125500</v>
       </c>
       <c r="I81" s="3">
-        <v>-153400</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-87100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-151800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,32 +3295,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="E83" s="3">
-        <v>15900</v>
+        <v>12600</v>
       </c>
       <c r="F83" s="3">
-        <v>12900</v>
+        <v>15800</v>
       </c>
       <c r="G83" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H83" s="3">
         <v>6500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,32 +3526,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-84200</v>
+        <v>-9600</v>
       </c>
       <c r="E89" s="3">
-        <v>95900</v>
+        <v>-83300</v>
       </c>
       <c r="F89" s="3">
-        <v>116800</v>
+        <v>94900</v>
       </c>
       <c r="G89" s="3">
-        <v>-48500</v>
+        <v>115600</v>
       </c>
       <c r="H89" s="3">
-        <v>-54700</v>
+        <v>-48000</v>
       </c>
       <c r="I89" s="3">
-        <v>-102600</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-54200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-101500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,31 +3585,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>-6300</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,32 +3699,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-375200</v>
-      </c>
       <c r="F94" s="3">
-        <v>-35400</v>
+        <v>-371400</v>
       </c>
       <c r="G94" s="3">
-        <v>-38100</v>
+        <v>-35000</v>
       </c>
       <c r="H94" s="3">
-        <v>-13200</v>
+        <v>-37700</v>
       </c>
       <c r="I94" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-13100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-12300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,32 +3911,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="E100" s="3">
-        <v>-68800</v>
+        <v>-15200</v>
       </c>
       <c r="F100" s="3">
-        <v>272400</v>
+        <v>-68100</v>
       </c>
       <c r="G100" s="3">
-        <v>758300</v>
+        <v>269600</v>
       </c>
       <c r="H100" s="3">
-        <v>71800</v>
+        <v>750600</v>
       </c>
       <c r="I100" s="3">
-        <v>186400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>71100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>184500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3705,33 +3950,36 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16100</v>
+        <v>52000</v>
       </c>
       <c r="E101" s="3">
-        <v>-60200</v>
+        <v>-15900</v>
       </c>
       <c r="F101" s="3">
-        <v>15700</v>
+        <v>-59600</v>
       </c>
       <c r="G101" s="3">
-        <v>49600</v>
+        <v>15600</v>
       </c>
       <c r="H101" s="3">
+        <v>49000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,32 +3989,35 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-118400</v>
+        <v>-59600</v>
       </c>
       <c r="E102" s="3">
-        <v>-408300</v>
+        <v>-117200</v>
       </c>
       <c r="F102" s="3">
-        <v>369500</v>
+        <v>-404100</v>
       </c>
       <c r="G102" s="3">
-        <v>721300</v>
+        <v>365700</v>
       </c>
       <c r="H102" s="3">
-        <v>3300</v>
+        <v>714000</v>
       </c>
       <c r="I102" s="3">
-        <v>71700</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>3200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>71000</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1010400</v>
+        <v>979400</v>
       </c>
       <c r="E8" s="3">
-        <v>1302900</v>
+        <v>1262800</v>
       </c>
       <c r="F8" s="3">
-        <v>1364900</v>
+        <v>1322900</v>
       </c>
       <c r="G8" s="3">
-        <v>1035300</v>
+        <v>1003500</v>
       </c>
       <c r="H8" s="3">
-        <v>519500</v>
+        <v>503500</v>
       </c>
       <c r="I8" s="3">
-        <v>268100</v>
+        <v>259800</v>
       </c>
       <c r="J8" s="3">
-        <v>111800</v>
+        <v>108400</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>869700</v>
+        <v>843000</v>
       </c>
       <c r="E9" s="3">
-        <v>1147900</v>
+        <v>1112600</v>
       </c>
       <c r="F9" s="3">
-        <v>1143100</v>
+        <v>1108000</v>
       </c>
       <c r="G9" s="3">
-        <v>865300</v>
+        <v>838700</v>
       </c>
       <c r="H9" s="3">
-        <v>498000</v>
+        <v>482700</v>
       </c>
       <c r="I9" s="3">
-        <v>268700</v>
+        <v>260500</v>
       </c>
       <c r="J9" s="3">
-        <v>164200</v>
+        <v>159100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>140700</v>
+        <v>136400</v>
       </c>
       <c r="E10" s="3">
-        <v>154900</v>
+        <v>150200</v>
       </c>
       <c r="F10" s="3">
-        <v>221800</v>
+        <v>215000</v>
       </c>
       <c r="G10" s="3">
-        <v>170000</v>
+        <v>164800</v>
       </c>
       <c r="H10" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="I10" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J10" s="3">
-        <v>-52300</v>
+        <v>-50700</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>54500</v>
+        <v>52800</v>
       </c>
       <c r="E12" s="3">
-        <v>69700</v>
+        <v>67500</v>
       </c>
       <c r="F12" s="3">
-        <v>59200</v>
+        <v>57400</v>
       </c>
       <c r="G12" s="3">
-        <v>54600</v>
+        <v>52900</v>
       </c>
       <c r="H12" s="3">
-        <v>46800</v>
+        <v>45400</v>
       </c>
       <c r="I12" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="J12" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -942,16 +942,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="I14" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1038700</v>
+        <v>1006800</v>
       </c>
       <c r="E17" s="3">
-        <v>1395100</v>
+        <v>1352200</v>
       </c>
       <c r="F17" s="3">
-        <v>1324300</v>
+        <v>1283600</v>
       </c>
       <c r="G17" s="3">
-        <v>1054000</v>
+        <v>1021600</v>
       </c>
       <c r="H17" s="3">
-        <v>641600</v>
+        <v>621900</v>
       </c>
       <c r="I17" s="3">
-        <v>356000</v>
+        <v>345000</v>
       </c>
       <c r="J17" s="3">
-        <v>222200</v>
+        <v>215400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-28300</v>
+        <v>-27400</v>
       </c>
       <c r="E18" s="3">
-        <v>-92200</v>
+        <v>-89400</v>
       </c>
       <c r="F18" s="3">
-        <v>40600</v>
+        <v>39300</v>
       </c>
       <c r="G18" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="H18" s="3">
-        <v>-122100</v>
+        <v>-118400</v>
       </c>
       <c r="I18" s="3">
-        <v>-87900</v>
+        <v>-85200</v>
       </c>
       <c r="J18" s="3">
-        <v>-110400</v>
+        <v>-107000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="E20" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="F20" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="G20" s="3">
-        <v>23900</v>
+        <v>23200</v>
       </c>
       <c r="H20" s="3">
         <v>-1400</v>
@@ -1141,7 +1141,7 @@
         <v>900</v>
       </c>
       <c r="J20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-8700</v>
+        <v>-8500</v>
       </c>
       <c r="E21" s="3">
-        <v>-73300</v>
+        <v>-71100</v>
       </c>
       <c r="F21" s="3">
-        <v>73200</v>
+        <v>70900</v>
       </c>
       <c r="G21" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="H21" s="3">
-        <v>-117000</v>
+        <v>-113500</v>
       </c>
       <c r="I21" s="3">
-        <v>-83200</v>
+        <v>-80700</v>
       </c>
       <c r="J21" s="3">
-        <v>-108700</v>
+        <v>-105400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-21200</v>
+        <v>-20600</v>
       </c>
       <c r="E23" s="3">
-        <v>-86000</v>
+        <v>-83400</v>
       </c>
       <c r="F23" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="G23" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H23" s="3">
-        <v>-123500</v>
+        <v>-119700</v>
       </c>
       <c r="I23" s="3">
-        <v>-87000</v>
+        <v>-84300</v>
       </c>
       <c r="J23" s="3">
-        <v>-111000</v>
+        <v>-107600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-21700</v>
+        <v>-21100</v>
       </c>
       <c r="E26" s="3">
-        <v>-86000</v>
+        <v>-83400</v>
       </c>
       <c r="F26" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="G26" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H26" s="3">
-        <v>-123500</v>
+        <v>-119700</v>
       </c>
       <c r="I26" s="3">
-        <v>-87000</v>
+        <v>-84300</v>
       </c>
       <c r="J26" s="3">
-        <v>-111000</v>
+        <v>-107600</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="E27" s="3">
-        <v>-82700</v>
+        <v>-80200</v>
       </c>
       <c r="F27" s="3">
-        <v>69000</v>
+        <v>66900</v>
       </c>
       <c r="G27" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="H27" s="3">
-        <v>-125500</v>
+        <v>-121700</v>
       </c>
       <c r="I27" s="3">
-        <v>-87100</v>
+        <v>-84400</v>
       </c>
       <c r="J27" s="3">
-        <v>-151800</v>
+        <v>-147100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1591,16 +1591,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="E32" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="F32" s="3">
-        <v>-16800</v>
+        <v>-16200</v>
       </c>
       <c r="G32" s="3">
-        <v>-23900</v>
+        <v>-23200</v>
       </c>
       <c r="H32" s="3">
         <v>1400</v>
@@ -1609,7 +1609,7 @@
         <v>-900</v>
       </c>
       <c r="J32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="E33" s="3">
-        <v>-82700</v>
+        <v>-80200</v>
       </c>
       <c r="F33" s="3">
-        <v>69000</v>
+        <v>66900</v>
       </c>
       <c r="G33" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="H33" s="3">
-        <v>-125500</v>
+        <v>-121700</v>
       </c>
       <c r="I33" s="3">
-        <v>-87100</v>
+        <v>-84400</v>
       </c>
       <c r="J33" s="3">
-        <v>-151800</v>
+        <v>-147100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="E35" s="3">
-        <v>-82700</v>
+        <v>-80200</v>
       </c>
       <c r="F35" s="3">
-        <v>69000</v>
+        <v>66900</v>
       </c>
       <c r="G35" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="H35" s="3">
-        <v>-125500</v>
+        <v>-121700</v>
       </c>
       <c r="I35" s="3">
-        <v>-87100</v>
+        <v>-84400</v>
       </c>
       <c r="J35" s="3">
-        <v>-151800</v>
+        <v>-147100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>574500</v>
+        <v>556900</v>
       </c>
       <c r="E41" s="3">
-        <v>633500</v>
+        <v>614000</v>
       </c>
       <c r="F41" s="3">
-        <v>750500</v>
+        <v>727500</v>
       </c>
       <c r="G41" s="3">
-        <v>1150300</v>
+        <v>1114900</v>
       </c>
       <c r="H41" s="3">
-        <v>790700</v>
+        <v>766400</v>
       </c>
       <c r="I41" s="3">
-        <v>76700</v>
+        <v>74300</v>
       </c>
       <c r="J41" s="3">
-        <v>73500</v>
+        <v>71200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,13 +1864,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>357000</v>
+        <v>346000</v>
       </c>
       <c r="E42" s="3">
-        <v>295200</v>
+        <v>286100</v>
       </c>
       <c r="F42" s="3">
-        <v>317000</v>
+        <v>307300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66200</v>
+        <v>64100</v>
       </c>
       <c r="E43" s="3">
-        <v>78000</v>
+        <v>75600</v>
       </c>
       <c r="F43" s="3">
-        <v>59700</v>
+        <v>57900</v>
       </c>
       <c r="G43" s="3">
-        <v>56500</v>
+        <v>54700</v>
       </c>
       <c r="H43" s="3">
-        <v>54400</v>
+        <v>52700</v>
       </c>
       <c r="I43" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="J43" s="3">
-        <v>16700</v>
+        <v>16100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="E45" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="F45" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="G45" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="H45" s="3">
-        <v>24500</v>
+        <v>23700</v>
       </c>
       <c r="I45" s="3">
-        <v>12900</v>
+        <v>12600</v>
       </c>
       <c r="J45" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1006000</v>
+        <v>975100</v>
       </c>
       <c r="E46" s="3">
-        <v>1027600</v>
+        <v>996000</v>
       </c>
       <c r="F46" s="3">
-        <v>1142000</v>
+        <v>1106900</v>
       </c>
       <c r="G46" s="3">
-        <v>1222700</v>
+        <v>1185100</v>
       </c>
       <c r="H46" s="3">
-        <v>869500</v>
+        <v>842800</v>
       </c>
       <c r="I46" s="3">
-        <v>122700</v>
+        <v>118900</v>
       </c>
       <c r="J46" s="3">
-        <v>96100</v>
+        <v>93100</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75600</v>
+        <v>73300</v>
       </c>
       <c r="E47" s="3">
-        <v>69900</v>
+        <v>67700</v>
       </c>
       <c r="F47" s="3">
-        <v>71200</v>
+        <v>69000</v>
       </c>
       <c r="G47" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="H47" s="3">
-        <v>19100</v>
+        <v>18500</v>
       </c>
       <c r="I47" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="J47" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="E48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F48" s="3">
         <v>13800</v>
       </c>
-      <c r="F48" s="3">
-        <v>14200</v>
-      </c>
       <c r="G48" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H48" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="I48" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="J48" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2137,22 +2137,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17100</v>
+        <v>16600</v>
       </c>
       <c r="E49" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="F49" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="G49" s="3">
-        <v>32600</v>
+        <v>31600</v>
       </c>
       <c r="H49" s="3">
-        <v>20600</v>
+        <v>19900</v>
       </c>
       <c r="I49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J49" s="3">
         <v>1600</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>49600</v>
+        <v>48100</v>
       </c>
       <c r="E52" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="F52" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
       </c>
       <c r="H52" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
       </c>
       <c r="J52" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1157900</v>
+        <v>1122300</v>
       </c>
       <c r="E54" s="3">
-        <v>1159500</v>
+        <v>1123900</v>
       </c>
       <c r="F54" s="3">
-        <v>1266300</v>
+        <v>1227300</v>
       </c>
       <c r="G54" s="3">
-        <v>1294100</v>
+        <v>1254300</v>
       </c>
       <c r="H54" s="3">
-        <v>923200</v>
+        <v>894900</v>
       </c>
       <c r="I54" s="3">
-        <v>146600</v>
+        <v>142100</v>
       </c>
       <c r="J54" s="3">
-        <v>110700</v>
+        <v>107300</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>94800</v>
+        <v>91900</v>
       </c>
       <c r="E57" s="3">
-        <v>117100</v>
+        <v>113500</v>
       </c>
       <c r="F57" s="3">
-        <v>140200</v>
+        <v>135900</v>
       </c>
       <c r="G57" s="3">
-        <v>126500</v>
+        <v>122600</v>
       </c>
       <c r="H57" s="3">
-        <v>113800</v>
+        <v>110300</v>
       </c>
       <c r="I57" s="3">
-        <v>64300</v>
+        <v>62300</v>
       </c>
       <c r="J57" s="3">
-        <v>47800</v>
+        <v>46300</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>126800</v>
+        <v>122900</v>
       </c>
       <c r="E59" s="3">
-        <v>145700</v>
+        <v>141200</v>
       </c>
       <c r="F59" s="3">
-        <v>127500</v>
+        <v>123600</v>
       </c>
       <c r="G59" s="3">
-        <v>128500</v>
+        <v>124600</v>
       </c>
       <c r="H59" s="3">
-        <v>293300</v>
+        <v>284300</v>
       </c>
       <c r="I59" s="3">
-        <v>59700</v>
+        <v>57800</v>
       </c>
       <c r="J59" s="3">
-        <v>26700</v>
+        <v>25900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>221600</v>
+        <v>214800</v>
       </c>
       <c r="E60" s="3">
-        <v>262800</v>
+        <v>254800</v>
       </c>
       <c r="F60" s="3">
-        <v>267600</v>
+        <v>259400</v>
       </c>
       <c r="G60" s="3">
-        <v>255100</v>
+        <v>247200</v>
       </c>
       <c r="H60" s="3">
-        <v>407100</v>
+        <v>394600</v>
       </c>
       <c r="I60" s="3">
-        <v>123900</v>
+        <v>120100</v>
       </c>
       <c r="J60" s="3">
-        <v>74500</v>
+        <v>72200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2600,16 +2600,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E62" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="F62" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="G62" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>225300</v>
+        <v>218400</v>
       </c>
       <c r="E66" s="3">
-        <v>269800</v>
+        <v>261500</v>
       </c>
       <c r="F66" s="3">
-        <v>279900</v>
+        <v>271300</v>
       </c>
       <c r="G66" s="3">
-        <v>264600</v>
+        <v>256500</v>
       </c>
       <c r="H66" s="3">
-        <v>407100</v>
+        <v>394600</v>
       </c>
       <c r="I66" s="3">
-        <v>123900</v>
+        <v>120100</v>
       </c>
       <c r="J66" s="3">
-        <v>74500</v>
+        <v>72200</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>944600</v>
+        <v>915500</v>
       </c>
       <c r="I70" s="3">
-        <v>373800</v>
+        <v>362300</v>
       </c>
       <c r="J70" s="3">
-        <v>302700</v>
+        <v>293400</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-500400</v>
+        <v>-485100</v>
       </c>
       <c r="E72" s="3">
-        <v>-489700</v>
+        <v>-474700</v>
       </c>
       <c r="F72" s="3">
-        <v>-407000</v>
+        <v>-394500</v>
       </c>
       <c r="G72" s="3">
-        <v>-476000</v>
+        <v>-461400</v>
       </c>
       <c r="H72" s="3">
-        <v>-481700</v>
+        <v>-466900</v>
       </c>
       <c r="I72" s="3">
-        <v>-357100</v>
+        <v>-346100</v>
       </c>
       <c r="J72" s="3">
-        <v>-270000</v>
+        <v>-261700</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>932600</v>
+        <v>903900</v>
       </c>
       <c r="E76" s="3">
-        <v>889700</v>
+        <v>862300</v>
       </c>
       <c r="F76" s="3">
-        <v>986400</v>
+        <v>956100</v>
       </c>
       <c r="G76" s="3">
-        <v>1029400</v>
+        <v>997800</v>
       </c>
       <c r="H76" s="3">
-        <v>-428500</v>
+        <v>-415200</v>
       </c>
       <c r="I76" s="3">
-        <v>-351100</v>
+        <v>-340300</v>
       </c>
       <c r="J76" s="3">
-        <v>-266400</v>
+        <v>-258300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="E81" s="3">
-        <v>-82700</v>
+        <v>-80200</v>
       </c>
       <c r="F81" s="3">
-        <v>69000</v>
+        <v>66900</v>
       </c>
       <c r="G81" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="H81" s="3">
-        <v>-125500</v>
+        <v>-121700</v>
       </c>
       <c r="I81" s="3">
-        <v>-87100</v>
+        <v>-84400</v>
       </c>
       <c r="J81" s="3">
-        <v>-151800</v>
+        <v>-147100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3302,22 +3302,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G83" s="3">
         <v>12400</v>
       </c>
-      <c r="E83" s="3">
-        <v>12600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12800</v>
-      </c>
       <c r="H83" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="I83" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J83" s="3">
         <v>1000</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9600</v>
+        <v>-9300</v>
       </c>
       <c r="E89" s="3">
-        <v>-83300</v>
+        <v>-80800</v>
       </c>
       <c r="F89" s="3">
-        <v>94900</v>
+        <v>92000</v>
       </c>
       <c r="G89" s="3">
-        <v>115600</v>
+        <v>112000</v>
       </c>
       <c r="H89" s="3">
-        <v>-48000</v>
+        <v>-46500</v>
       </c>
       <c r="I89" s="3">
-        <v>-54200</v>
+        <v>-52500</v>
       </c>
       <c r="J89" s="3">
-        <v>-101500</v>
+        <v>-98400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3595,22 +3595,22 @@
         <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="F91" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="H91" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="I91" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="J91" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-86500</v>
+        <v>-83900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="F94" s="3">
-        <v>-371400</v>
+        <v>-360000</v>
       </c>
       <c r="G94" s="3">
-        <v>-35000</v>
+        <v>-33900</v>
       </c>
       <c r="H94" s="3">
-        <v>-37700</v>
+        <v>-36500</v>
       </c>
       <c r="I94" s="3">
-        <v>-13100</v>
+        <v>-12700</v>
       </c>
       <c r="J94" s="3">
-        <v>-12300</v>
+        <v>-11900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-15500</v>
+        <v>-15000</v>
       </c>
       <c r="E100" s="3">
-        <v>-15200</v>
+        <v>-14800</v>
       </c>
       <c r="F100" s="3">
-        <v>-68100</v>
+        <v>-66000</v>
       </c>
       <c r="G100" s="3">
-        <v>269600</v>
+        <v>261300</v>
       </c>
       <c r="H100" s="3">
-        <v>750600</v>
+        <v>727500</v>
       </c>
       <c r="I100" s="3">
-        <v>71100</v>
+        <v>68900</v>
       </c>
       <c r="J100" s="3">
-        <v>184500</v>
+        <v>178900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3960,19 +3960,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>52000</v>
+        <v>50400</v>
       </c>
       <c r="E101" s="3">
-        <v>-15900</v>
+        <v>-15400</v>
       </c>
       <c r="F101" s="3">
-        <v>-59600</v>
+        <v>-57700</v>
       </c>
       <c r="G101" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="H101" s="3">
-        <v>49000</v>
+        <v>47500</v>
       </c>
       <c r="I101" s="3">
         <v>-600</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-59600</v>
+        <v>-57800</v>
       </c>
       <c r="E102" s="3">
-        <v>-117200</v>
+        <v>-113600</v>
       </c>
       <c r="F102" s="3">
-        <v>-404100</v>
+        <v>-391700</v>
       </c>
       <c r="G102" s="3">
-        <v>365700</v>
+        <v>354500</v>
       </c>
       <c r="H102" s="3">
-        <v>714000</v>
+        <v>692000</v>
       </c>
       <c r="I102" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J102" s="3">
-        <v>71000</v>
+        <v>68800</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DOYU_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>979400</v>
+        <v>981500</v>
       </c>
       <c r="E8" s="3">
-        <v>1262800</v>
+        <v>1265500</v>
       </c>
       <c r="F8" s="3">
-        <v>1322900</v>
+        <v>1325800</v>
       </c>
       <c r="G8" s="3">
-        <v>1003500</v>
+        <v>1005700</v>
       </c>
       <c r="H8" s="3">
-        <v>503500</v>
+        <v>504600</v>
       </c>
       <c r="I8" s="3">
-        <v>259800</v>
+        <v>260400</v>
       </c>
       <c r="J8" s="3">
-        <v>108400</v>
+        <v>108600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -763,25 +763,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>843000</v>
+        <v>844800</v>
       </c>
       <c r="E9" s="3">
-        <v>1112600</v>
+        <v>1115100</v>
       </c>
       <c r="F9" s="3">
-        <v>1108000</v>
+        <v>1110400</v>
       </c>
       <c r="G9" s="3">
-        <v>838700</v>
+        <v>840500</v>
       </c>
       <c r="H9" s="3">
-        <v>482700</v>
+        <v>483700</v>
       </c>
       <c r="I9" s="3">
-        <v>260500</v>
+        <v>261000</v>
       </c>
       <c r="J9" s="3">
-        <v>159100</v>
+        <v>159500</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -802,25 +802,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>136400</v>
+        <v>136700</v>
       </c>
       <c r="E10" s="3">
-        <v>150200</v>
+        <v>150500</v>
       </c>
       <c r="F10" s="3">
-        <v>215000</v>
+        <v>215500</v>
       </c>
       <c r="G10" s="3">
-        <v>164800</v>
+        <v>165200</v>
       </c>
       <c r="H10" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="I10" s="3">
         <v>-600</v>
       </c>
       <c r="J10" s="3">
-        <v>-50700</v>
+        <v>-50800</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -858,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>52800</v>
+        <v>52900</v>
       </c>
       <c r="E12" s="3">
-        <v>67500</v>
+        <v>67700</v>
       </c>
       <c r="F12" s="3">
-        <v>57400</v>
+        <v>57500</v>
       </c>
       <c r="G12" s="3">
-        <v>52900</v>
+        <v>53000</v>
       </c>
       <c r="H12" s="3">
-        <v>45400</v>
+        <v>45500</v>
       </c>
       <c r="I12" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="J12" s="3">
         <v>12900</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1006800</v>
+        <v>1009000</v>
       </c>
       <c r="E17" s="3">
-        <v>1352200</v>
+        <v>1355100</v>
       </c>
       <c r="F17" s="3">
-        <v>1283600</v>
+        <v>1286400</v>
       </c>
       <c r="G17" s="3">
-        <v>1021600</v>
+        <v>1023800</v>
       </c>
       <c r="H17" s="3">
-        <v>621900</v>
+        <v>623200</v>
       </c>
       <c r="I17" s="3">
-        <v>345000</v>
+        <v>345800</v>
       </c>
       <c r="J17" s="3">
-        <v>215400</v>
+        <v>215900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-27400</v>
+        <v>-27500</v>
       </c>
       <c r="E18" s="3">
-        <v>-89400</v>
+        <v>-89600</v>
       </c>
       <c r="F18" s="3">
-        <v>39300</v>
+        <v>39400</v>
       </c>
       <c r="G18" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="H18" s="3">
-        <v>-118400</v>
+        <v>-118600</v>
       </c>
       <c r="I18" s="3">
-        <v>-85200</v>
+        <v>-85400</v>
       </c>
       <c r="J18" s="3">
-        <v>-107000</v>
+        <v>-107200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1129,7 +1129,7 @@
         <v>6000</v>
       </c>
       <c r="F20" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="G20" s="3">
         <v>23200</v>
@@ -1165,22 +1165,22 @@
         <v>-8500</v>
       </c>
       <c r="E21" s="3">
-        <v>-71100</v>
+        <v>-71300</v>
       </c>
       <c r="F21" s="3">
-        <v>70900</v>
+        <v>71000</v>
       </c>
       <c r="G21" s="3">
         <v>17500</v>
       </c>
       <c r="H21" s="3">
-        <v>-113500</v>
+        <v>-113700</v>
       </c>
       <c r="I21" s="3">
-        <v>-80700</v>
+        <v>-80900</v>
       </c>
       <c r="J21" s="3">
-        <v>-105400</v>
+        <v>-105600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1243,22 +1243,22 @@
         <v>-20600</v>
       </c>
       <c r="E23" s="3">
-        <v>-83400</v>
+        <v>-83600</v>
       </c>
       <c r="F23" s="3">
-        <v>55600</v>
+        <v>55700</v>
       </c>
       <c r="G23" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H23" s="3">
-        <v>-119700</v>
+        <v>-120000</v>
       </c>
       <c r="I23" s="3">
-        <v>-84300</v>
+        <v>-84500</v>
       </c>
       <c r="J23" s="3">
-        <v>-107600</v>
+        <v>-107800</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1360,22 +1360,22 @@
         <v>-21100</v>
       </c>
       <c r="E26" s="3">
-        <v>-83400</v>
+        <v>-83600</v>
       </c>
       <c r="F26" s="3">
-        <v>55600</v>
+        <v>55700</v>
       </c>
       <c r="G26" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H26" s="3">
-        <v>-119700</v>
+        <v>-120000</v>
       </c>
       <c r="I26" s="3">
-        <v>-84300</v>
+        <v>-84500</v>
       </c>
       <c r="J26" s="3">
-        <v>-107600</v>
+        <v>-107800</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1399,22 +1399,22 @@
         <v>-10400</v>
       </c>
       <c r="E27" s="3">
-        <v>-80200</v>
+        <v>-80300</v>
       </c>
       <c r="F27" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="G27" s="3">
         <v>5500</v>
       </c>
       <c r="H27" s="3">
-        <v>-121700</v>
+        <v>-121900</v>
       </c>
       <c r="I27" s="3">
-        <v>-84400</v>
+        <v>-84600</v>
       </c>
       <c r="J27" s="3">
-        <v>-147100</v>
+        <v>-147400</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1597,7 +1597,7 @@
         <v>-6000</v>
       </c>
       <c r="F32" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="G32" s="3">
         <v>-23200</v>
@@ -1633,22 +1633,22 @@
         <v>-10400</v>
       </c>
       <c r="E33" s="3">
-        <v>-80200</v>
+        <v>-80300</v>
       </c>
       <c r="F33" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="G33" s="3">
         <v>5500</v>
       </c>
       <c r="H33" s="3">
-        <v>-121700</v>
+        <v>-121900</v>
       </c>
       <c r="I33" s="3">
-        <v>-84400</v>
+        <v>-84600</v>
       </c>
       <c r="J33" s="3">
-        <v>-147100</v>
+        <v>-147400</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1711,22 +1711,22 @@
         <v>-10400</v>
       </c>
       <c r="E35" s="3">
-        <v>-80200</v>
+        <v>-80300</v>
       </c>
       <c r="F35" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="G35" s="3">
         <v>5500</v>
       </c>
       <c r="H35" s="3">
-        <v>-121700</v>
+        <v>-121900</v>
       </c>
       <c r="I35" s="3">
-        <v>-84400</v>
+        <v>-84600</v>
       </c>
       <c r="J35" s="3">
-        <v>-147100</v>
+        <v>-147400</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>556900</v>
+        <v>558100</v>
       </c>
       <c r="E41" s="3">
-        <v>614000</v>
+        <v>615300</v>
       </c>
       <c r="F41" s="3">
-        <v>727500</v>
+        <v>729000</v>
       </c>
       <c r="G41" s="3">
-        <v>1114900</v>
+        <v>1117300</v>
       </c>
       <c r="H41" s="3">
-        <v>766400</v>
+        <v>768000</v>
       </c>
       <c r="I41" s="3">
-        <v>74300</v>
+        <v>74500</v>
       </c>
       <c r="J41" s="3">
-        <v>71200</v>
+        <v>71400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1864,13 +1864,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>346000</v>
+        <v>346700</v>
       </c>
       <c r="E42" s="3">
-        <v>286100</v>
+        <v>286700</v>
       </c>
       <c r="F42" s="3">
-        <v>307300</v>
+        <v>308000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64100</v>
+        <v>64300</v>
       </c>
       <c r="E43" s="3">
-        <v>75600</v>
+        <v>75800</v>
       </c>
       <c r="F43" s="3">
-        <v>57900</v>
+        <v>58000</v>
       </c>
       <c r="G43" s="3">
-        <v>54700</v>
+        <v>54800</v>
       </c>
       <c r="H43" s="3">
-        <v>52700</v>
+        <v>52800</v>
       </c>
       <c r="I43" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="J43" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1984,7 +1984,7 @@
         <v>8100</v>
       </c>
       <c r="E45" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="F45" s="3">
         <v>14300</v>
@@ -1993,7 +1993,7 @@
         <v>15500</v>
       </c>
       <c r="H45" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="I45" s="3">
         <v>12600</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>975100</v>
+        <v>977200</v>
       </c>
       <c r="E46" s="3">
-        <v>996000</v>
+        <v>998200</v>
       </c>
       <c r="F46" s="3">
-        <v>1106900</v>
+        <v>1109300</v>
       </c>
       <c r="G46" s="3">
-        <v>1185100</v>
+        <v>1187700</v>
       </c>
       <c r="H46" s="3">
-        <v>842800</v>
+        <v>844600</v>
       </c>
       <c r="I46" s="3">
-        <v>118900</v>
+        <v>119100</v>
       </c>
       <c r="J46" s="3">
-        <v>93100</v>
+        <v>93300</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2059,13 +2059,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>73300</v>
+        <v>108000</v>
       </c>
       <c r="E47" s="3">
-        <v>67700</v>
+        <v>81700</v>
       </c>
       <c r="F47" s="3">
-        <v>69000</v>
+        <v>82900</v>
       </c>
       <c r="G47" s="3">
         <v>31100</v>
@@ -2074,7 +2074,7 @@
         <v>18500</v>
       </c>
       <c r="I47" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="J47" s="3">
         <v>4000</v>
@@ -2101,7 +2101,7 @@
         <v>9200</v>
       </c>
       <c r="E48" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="F48" s="3">
         <v>13800</v>
@@ -2110,7 +2110,7 @@
         <v>5400</v>
       </c>
       <c r="H48" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="I48" s="3">
         <v>6900</v>
@@ -2140,7 +2140,7 @@
         <v>16600</v>
       </c>
       <c r="E49" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="F49" s="3">
         <v>21300</v>
@@ -2149,7 +2149,7 @@
         <v>31600</v>
       </c>
       <c r="H49" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="I49" s="3">
         <v>2300</v>
@@ -2254,13 +2254,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48100</v>
+        <v>13600</v>
       </c>
       <c r="E52" s="3">
-        <v>22700</v>
+        <v>8900</v>
       </c>
       <c r="F52" s="3">
-        <v>16400</v>
+        <v>2600</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1122300</v>
+        <v>1124700</v>
       </c>
       <c r="E54" s="3">
-        <v>1123900</v>
+        <v>1126300</v>
       </c>
       <c r="F54" s="3">
-        <v>1227300</v>
+        <v>1230000</v>
       </c>
       <c r="G54" s="3">
-        <v>1254300</v>
+        <v>1257000</v>
       </c>
       <c r="H54" s="3">
-        <v>894900</v>
+        <v>896800</v>
       </c>
       <c r="I54" s="3">
-        <v>142100</v>
+        <v>142400</v>
       </c>
       <c r="J54" s="3">
-        <v>107300</v>
+        <v>107600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>91900</v>
+        <v>92100</v>
       </c>
       <c r="E57" s="3">
-        <v>113500</v>
+        <v>113800</v>
       </c>
       <c r="F57" s="3">
-        <v>135900</v>
+        <v>136200</v>
       </c>
       <c r="G57" s="3">
-        <v>122600</v>
+        <v>122900</v>
       </c>
       <c r="H57" s="3">
-        <v>110300</v>
+        <v>110500</v>
       </c>
       <c r="I57" s="3">
-        <v>62300</v>
+        <v>62400</v>
       </c>
       <c r="J57" s="3">
-        <v>46300</v>
+        <v>46400</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2483,22 +2483,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122900</v>
+        <v>123100</v>
       </c>
       <c r="E59" s="3">
-        <v>141200</v>
+        <v>141500</v>
       </c>
       <c r="F59" s="3">
-        <v>123600</v>
+        <v>123800</v>
       </c>
       <c r="G59" s="3">
-        <v>124600</v>
+        <v>124900</v>
       </c>
       <c r="H59" s="3">
-        <v>284300</v>
+        <v>284900</v>
       </c>
       <c r="I59" s="3">
-        <v>57800</v>
+        <v>58000</v>
       </c>
       <c r="J59" s="3">
         <v>25900</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>214800</v>
+        <v>215200</v>
       </c>
       <c r="E60" s="3">
-        <v>254800</v>
+        <v>255300</v>
       </c>
       <c r="F60" s="3">
-        <v>259400</v>
+        <v>260000</v>
       </c>
       <c r="G60" s="3">
-        <v>247200</v>
+        <v>247700</v>
       </c>
       <c r="H60" s="3">
-        <v>394600</v>
+        <v>395400</v>
       </c>
       <c r="I60" s="3">
-        <v>120100</v>
+        <v>120400</v>
       </c>
       <c r="J60" s="3">
-        <v>72200</v>
+        <v>72300</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2609,7 +2609,7 @@
         <v>6600</v>
       </c>
       <c r="G62" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>218400</v>
+        <v>218800</v>
       </c>
       <c r="E66" s="3">
-        <v>261500</v>
+        <v>262100</v>
       </c>
       <c r="F66" s="3">
-        <v>271300</v>
+        <v>271900</v>
       </c>
       <c r="G66" s="3">
-        <v>256500</v>
+        <v>257100</v>
       </c>
       <c r="H66" s="3">
-        <v>394600</v>
+        <v>395400</v>
       </c>
       <c r="I66" s="3">
-        <v>120100</v>
+        <v>120400</v>
       </c>
       <c r="J66" s="3">
-        <v>72200</v>
+        <v>72300</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>915500</v>
+        <v>917500</v>
       </c>
       <c r="I70" s="3">
-        <v>362300</v>
+        <v>363100</v>
       </c>
       <c r="J70" s="3">
-        <v>293400</v>
+        <v>294000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-485100</v>
+        <v>-486100</v>
       </c>
       <c r="E72" s="3">
-        <v>-474700</v>
+        <v>-475700</v>
       </c>
       <c r="F72" s="3">
-        <v>-394500</v>
+        <v>-395400</v>
       </c>
       <c r="G72" s="3">
-        <v>-461400</v>
+        <v>-462400</v>
       </c>
       <c r="H72" s="3">
-        <v>-466900</v>
+        <v>-467900</v>
       </c>
       <c r="I72" s="3">
-        <v>-346100</v>
+        <v>-346900</v>
       </c>
       <c r="J72" s="3">
-        <v>-261700</v>
+        <v>-262300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>903900</v>
+        <v>905900</v>
       </c>
       <c r="E76" s="3">
-        <v>862300</v>
+        <v>864200</v>
       </c>
       <c r="F76" s="3">
-        <v>956100</v>
+        <v>958100</v>
       </c>
       <c r="G76" s="3">
-        <v>997800</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="3">
-        <v>-415200</v>
+        <v>-416100</v>
       </c>
       <c r="I76" s="3">
-        <v>-340300</v>
+        <v>-341000</v>
       </c>
       <c r="J76" s="3">
-        <v>-258300</v>
+        <v>-258800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3249,22 +3249,22 @@
         <v>-10400</v>
       </c>
       <c r="E81" s="3">
-        <v>-80200</v>
+        <v>-80300</v>
       </c>
       <c r="F81" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="G81" s="3">
         <v>5500</v>
       </c>
       <c r="H81" s="3">
-        <v>-121700</v>
+        <v>-121900</v>
       </c>
       <c r="I81" s="3">
-        <v>-84400</v>
+        <v>-84600</v>
       </c>
       <c r="J81" s="3">
-        <v>-147100</v>
+        <v>-147400</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3305,7 +3305,7 @@
         <v>12100</v>
       </c>
       <c r="E83" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="F83" s="3">
         <v>15300</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9300</v>
+        <v>-9400</v>
       </c>
       <c r="E89" s="3">
-        <v>-80800</v>
+        <v>-81000</v>
       </c>
       <c r="F89" s="3">
-        <v>92000</v>
+        <v>92200</v>
       </c>
       <c r="G89" s="3">
-        <v>112000</v>
+        <v>112300</v>
       </c>
       <c r="H89" s="3">
-        <v>-46500</v>
+        <v>-46600</v>
       </c>
       <c r="I89" s="3">
-        <v>-52500</v>
+        <v>-52600</v>
       </c>
       <c r="J89" s="3">
-        <v>-98400</v>
+        <v>-98600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3709,19 +3709,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-83900</v>
+        <v>-84000</v>
       </c>
       <c r="E94" s="3">
         <v>-2600</v>
       </c>
       <c r="F94" s="3">
-        <v>-360000</v>
+        <v>-360800</v>
       </c>
       <c r="G94" s="3">
-        <v>-33900</v>
+        <v>-34000</v>
       </c>
       <c r="H94" s="3">
-        <v>-36500</v>
+        <v>-36600</v>
       </c>
       <c r="I94" s="3">
         <v>-12700</v>
@@ -3927,19 +3927,19 @@
         <v>-14800</v>
       </c>
       <c r="F100" s="3">
-        <v>-66000</v>
+        <v>-66200</v>
       </c>
       <c r="G100" s="3">
-        <v>261300</v>
+        <v>261800</v>
       </c>
       <c r="H100" s="3">
-        <v>727500</v>
+        <v>729100</v>
       </c>
       <c r="I100" s="3">
-        <v>68900</v>
+        <v>69000</v>
       </c>
       <c r="J100" s="3">
-        <v>178900</v>
+        <v>179300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3960,19 +3960,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>50400</v>
+        <v>50500</v>
       </c>
       <c r="E101" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="F101" s="3">
-        <v>-57700</v>
+        <v>-57800</v>
       </c>
       <c r="G101" s="3">
         <v>15100</v>
       </c>
       <c r="H101" s="3">
-        <v>47500</v>
+        <v>47600</v>
       </c>
       <c r="I101" s="3">
         <v>-600</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-57800</v>
+        <v>-57900</v>
       </c>
       <c r="E102" s="3">
-        <v>-113600</v>
+        <v>-113900</v>
       </c>
       <c r="F102" s="3">
-        <v>-391700</v>
+        <v>-392600</v>
       </c>
       <c r="G102" s="3">
-        <v>354500</v>
+        <v>355200</v>
       </c>
       <c r="H102" s="3">
-        <v>692000</v>
+        <v>693500</v>
       </c>
       <c r="I102" s="3">
         <v>3100</v>
       </c>
       <c r="J102" s="3">
-        <v>68800</v>
+        <v>68900</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
